--- a/4.xlsx
+++ b/4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/workspace/Excel-AI-Book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1CDD03-55CF-F842-AC35-8D0E7BC14FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F17AF0-0F6F-624D-A516-074F5CB45699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="50900" windowHeight="26800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51060" windowHeight="26960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="34">
   <si>
     <t>出力層</t>
     <rPh sb="0" eb="2">
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>隠れ層</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1169,99 +1172,6 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1324,6 +1234,99 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1695,399 +1698,399 @@
       </c>
     </row>
     <row r="4" spans="2:201" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="104"/>
-      <c r="J4" s="96">
-        <v>1</v>
-      </c>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="96">
+      <c r="H4" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="118"/>
+      <c r="J4" s="123">
+        <v>1</v>
+      </c>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="123">
         <f>J4+1</f>
         <v>2</v>
       </c>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="96">
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="123">
         <f>M4+1</f>
         <v>3</v>
       </c>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="96">
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="123">
         <f>P4+1</f>
         <v>4</v>
       </c>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="96">
+      <c r="T4" s="124"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="123">
         <f>S4+1</f>
         <v>5</v>
       </c>
-      <c r="W4" s="97"/>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="96">
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="123">
         <f>V4+1</f>
         <v>6</v>
       </c>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="96">
+      <c r="Z4" s="124"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="123">
         <f>Y4+1</f>
         <v>7</v>
       </c>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="97"/>
-      <c r="AE4" s="96">
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="123">
         <f>AB4+1</f>
         <v>8</v>
       </c>
-      <c r="AF4" s="97"/>
-      <c r="AG4" s="97"/>
-      <c r="AH4" s="96">
+      <c r="AF4" s="124"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="123">
         <f>AE4+1</f>
         <v>9</v>
       </c>
-      <c r="AI4" s="97"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="96">
+      <c r="AI4" s="124"/>
+      <c r="AJ4" s="124"/>
+      <c r="AK4" s="123">
         <f>AH4+1</f>
         <v>10</v>
       </c>
-      <c r="AL4" s="97"/>
-      <c r="AM4" s="97"/>
-      <c r="AN4" s="96">
+      <c r="AL4" s="124"/>
+      <c r="AM4" s="124"/>
+      <c r="AN4" s="123">
         <f>AK4+1</f>
         <v>11</v>
       </c>
-      <c r="AO4" s="97"/>
-      <c r="AP4" s="97"/>
-      <c r="AQ4" s="96">
+      <c r="AO4" s="124"/>
+      <c r="AP4" s="124"/>
+      <c r="AQ4" s="123">
         <f>AN4+1</f>
         <v>12</v>
       </c>
-      <c r="AR4" s="97"/>
-      <c r="AS4" s="97"/>
-      <c r="AT4" s="96">
+      <c r="AR4" s="124"/>
+      <c r="AS4" s="124"/>
+      <c r="AT4" s="123">
         <f>AQ4+1</f>
         <v>13</v>
       </c>
-      <c r="AU4" s="97"/>
-      <c r="AV4" s="97"/>
-      <c r="AW4" s="96">
+      <c r="AU4" s="124"/>
+      <c r="AV4" s="124"/>
+      <c r="AW4" s="123">
         <f>AT4+1</f>
         <v>14</v>
       </c>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="97"/>
-      <c r="AZ4" s="96">
+      <c r="AX4" s="124"/>
+      <c r="AY4" s="124"/>
+      <c r="AZ4" s="123">
         <f>AW4+1</f>
         <v>15</v>
       </c>
-      <c r="BA4" s="97"/>
-      <c r="BB4" s="97"/>
-      <c r="BC4" s="96">
+      <c r="BA4" s="124"/>
+      <c r="BB4" s="124"/>
+      <c r="BC4" s="123">
         <f>AZ4+1</f>
         <v>16</v>
       </c>
-      <c r="BD4" s="97"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="96">
+      <c r="BD4" s="124"/>
+      <c r="BE4" s="124"/>
+      <c r="BF4" s="123">
         <f>BC4+1</f>
         <v>17</v>
       </c>
-      <c r="BG4" s="97"/>
-      <c r="BH4" s="97"/>
-      <c r="BI4" s="96">
+      <c r="BG4" s="124"/>
+      <c r="BH4" s="124"/>
+      <c r="BI4" s="123">
         <f>BF4+1</f>
         <v>18</v>
       </c>
-      <c r="BJ4" s="97"/>
-      <c r="BK4" s="97"/>
-      <c r="BL4" s="96">
+      <c r="BJ4" s="124"/>
+      <c r="BK4" s="124"/>
+      <c r="BL4" s="123">
         <f>BI4+1</f>
         <v>19</v>
       </c>
-      <c r="BM4" s="97"/>
-      <c r="BN4" s="97"/>
-      <c r="BO4" s="96">
+      <c r="BM4" s="124"/>
+      <c r="BN4" s="124"/>
+      <c r="BO4" s="123">
         <f>BL4+1</f>
         <v>20</v>
       </c>
-      <c r="BP4" s="97"/>
-      <c r="BQ4" s="97"/>
-      <c r="BR4" s="96">
+      <c r="BP4" s="124"/>
+      <c r="BQ4" s="124"/>
+      <c r="BR4" s="123">
         <f>BO4+1</f>
         <v>21</v>
       </c>
-      <c r="BS4" s="97"/>
-      <c r="BT4" s="97"/>
-      <c r="BU4" s="96">
+      <c r="BS4" s="124"/>
+      <c r="BT4" s="124"/>
+      <c r="BU4" s="123">
         <f>BR4+1</f>
         <v>22</v>
       </c>
-      <c r="BV4" s="97"/>
-      <c r="BW4" s="97"/>
-      <c r="BX4" s="96">
+      <c r="BV4" s="124"/>
+      <c r="BW4" s="124"/>
+      <c r="BX4" s="123">
         <f>BU4+1</f>
         <v>23</v>
       </c>
-      <c r="BY4" s="97"/>
-      <c r="BZ4" s="97"/>
-      <c r="CA4" s="96">
+      <c r="BY4" s="124"/>
+      <c r="BZ4" s="124"/>
+      <c r="CA4" s="123">
         <f>BX4+1</f>
         <v>24</v>
       </c>
-      <c r="CB4" s="97"/>
-      <c r="CC4" s="97"/>
-      <c r="CD4" s="96">
+      <c r="CB4" s="124"/>
+      <c r="CC4" s="124"/>
+      <c r="CD4" s="123">
         <f>CA4+1</f>
         <v>25</v>
       </c>
-      <c r="CE4" s="97"/>
-      <c r="CF4" s="97"/>
-      <c r="CG4" s="96">
+      <c r="CE4" s="124"/>
+      <c r="CF4" s="124"/>
+      <c r="CG4" s="123">
         <f>CD4+1</f>
         <v>26</v>
       </c>
-      <c r="CH4" s="97"/>
-      <c r="CI4" s="97"/>
-      <c r="CJ4" s="96">
+      <c r="CH4" s="124"/>
+      <c r="CI4" s="124"/>
+      <c r="CJ4" s="123">
         <f>CG4+1</f>
         <v>27</v>
       </c>
-      <c r="CK4" s="97"/>
-      <c r="CL4" s="97"/>
-      <c r="CM4" s="96">
+      <c r="CK4" s="124"/>
+      <c r="CL4" s="124"/>
+      <c r="CM4" s="123">
         <f>CJ4+1</f>
         <v>28</v>
       </c>
-      <c r="CN4" s="97"/>
-      <c r="CO4" s="97"/>
-      <c r="CP4" s="96">
+      <c r="CN4" s="124"/>
+      <c r="CO4" s="124"/>
+      <c r="CP4" s="123">
         <f>CM4+1</f>
         <v>29</v>
       </c>
-      <c r="CQ4" s="97"/>
-      <c r="CR4" s="97"/>
-      <c r="CS4" s="96">
+      <c r="CQ4" s="124"/>
+      <c r="CR4" s="124"/>
+      <c r="CS4" s="123">
         <f>CP4+1</f>
         <v>30</v>
       </c>
-      <c r="CT4" s="97"/>
-      <c r="CU4" s="97"/>
-      <c r="CV4" s="96">
+      <c r="CT4" s="124"/>
+      <c r="CU4" s="124"/>
+      <c r="CV4" s="123">
         <f>CS4+1</f>
         <v>31</v>
       </c>
-      <c r="CW4" s="97"/>
-      <c r="CX4" s="97"/>
-      <c r="CY4" s="96">
+      <c r="CW4" s="124"/>
+      <c r="CX4" s="124"/>
+      <c r="CY4" s="123">
         <f>CV4+1</f>
         <v>32</v>
       </c>
-      <c r="CZ4" s="97"/>
-      <c r="DA4" s="97"/>
-      <c r="DB4" s="96">
+      <c r="CZ4" s="124"/>
+      <c r="DA4" s="124"/>
+      <c r="DB4" s="123">
         <f>CY4+1</f>
         <v>33</v>
       </c>
-      <c r="DC4" s="97"/>
-      <c r="DD4" s="97"/>
-      <c r="DE4" s="96">
+      <c r="DC4" s="124"/>
+      <c r="DD4" s="124"/>
+      <c r="DE4" s="123">
         <f>DB4+1</f>
         <v>34</v>
       </c>
-      <c r="DF4" s="97"/>
-      <c r="DG4" s="97"/>
-      <c r="DH4" s="96">
+      <c r="DF4" s="124"/>
+      <c r="DG4" s="124"/>
+      <c r="DH4" s="123">
         <f>DE4+1</f>
         <v>35</v>
       </c>
-      <c r="DI4" s="97"/>
-      <c r="DJ4" s="97"/>
-      <c r="DK4" s="96">
+      <c r="DI4" s="124"/>
+      <c r="DJ4" s="124"/>
+      <c r="DK4" s="123">
         <f>DH4+1</f>
         <v>36</v>
       </c>
-      <c r="DL4" s="97"/>
-      <c r="DM4" s="97"/>
-      <c r="DN4" s="96">
+      <c r="DL4" s="124"/>
+      <c r="DM4" s="124"/>
+      <c r="DN4" s="123">
         <f>DK4+1</f>
         <v>37</v>
       </c>
-      <c r="DO4" s="97"/>
-      <c r="DP4" s="97"/>
-      <c r="DQ4" s="96">
+      <c r="DO4" s="124"/>
+      <c r="DP4" s="124"/>
+      <c r="DQ4" s="123">
         <f>DN4+1</f>
         <v>38</v>
       </c>
-      <c r="DR4" s="97"/>
-      <c r="DS4" s="97"/>
-      <c r="DT4" s="96">
+      <c r="DR4" s="124"/>
+      <c r="DS4" s="124"/>
+      <c r="DT4" s="123">
         <f>DQ4+1</f>
         <v>39</v>
       </c>
-      <c r="DU4" s="97"/>
-      <c r="DV4" s="97"/>
-      <c r="DW4" s="96">
+      <c r="DU4" s="124"/>
+      <c r="DV4" s="124"/>
+      <c r="DW4" s="123">
         <f>DT4+1</f>
         <v>40</v>
       </c>
-      <c r="DX4" s="97"/>
-      <c r="DY4" s="97"/>
-      <c r="DZ4" s="96">
+      <c r="DX4" s="124"/>
+      <c r="DY4" s="124"/>
+      <c r="DZ4" s="123">
         <f>DW4+1</f>
         <v>41</v>
       </c>
-      <c r="EA4" s="97"/>
-      <c r="EB4" s="97"/>
-      <c r="EC4" s="96">
+      <c r="EA4" s="124"/>
+      <c r="EB4" s="124"/>
+      <c r="EC4" s="123">
         <f>DZ4+1</f>
         <v>42</v>
       </c>
-      <c r="ED4" s="97"/>
-      <c r="EE4" s="97"/>
-      <c r="EF4" s="96">
+      <c r="ED4" s="124"/>
+      <c r="EE4" s="124"/>
+      <c r="EF4" s="123">
         <f>EC4+1</f>
         <v>43</v>
       </c>
-      <c r="EG4" s="97"/>
-      <c r="EH4" s="97"/>
-      <c r="EI4" s="96">
+      <c r="EG4" s="124"/>
+      <c r="EH4" s="124"/>
+      <c r="EI4" s="123">
         <f>EF4+1</f>
         <v>44</v>
       </c>
-      <c r="EJ4" s="97"/>
-      <c r="EK4" s="97"/>
-      <c r="EL4" s="96">
+      <c r="EJ4" s="124"/>
+      <c r="EK4" s="124"/>
+      <c r="EL4" s="123">
         <f>EI4+1</f>
         <v>45</v>
       </c>
-      <c r="EM4" s="97"/>
-      <c r="EN4" s="97"/>
-      <c r="EO4" s="96">
+      <c r="EM4" s="124"/>
+      <c r="EN4" s="124"/>
+      <c r="EO4" s="123">
         <f>EL4+1</f>
         <v>46</v>
       </c>
-      <c r="EP4" s="97"/>
-      <c r="EQ4" s="97"/>
-      <c r="ER4" s="96">
+      <c r="EP4" s="124"/>
+      <c r="EQ4" s="124"/>
+      <c r="ER4" s="123">
         <f>EO4+1</f>
         <v>47</v>
       </c>
-      <c r="ES4" s="97"/>
-      <c r="ET4" s="97"/>
-      <c r="EU4" s="96">
+      <c r="ES4" s="124"/>
+      <c r="ET4" s="124"/>
+      <c r="EU4" s="123">
         <f>ER4+1</f>
         <v>48</v>
       </c>
-      <c r="EV4" s="97"/>
-      <c r="EW4" s="97"/>
-      <c r="EX4" s="96">
+      <c r="EV4" s="124"/>
+      <c r="EW4" s="124"/>
+      <c r="EX4" s="123">
         <f>EU4+1</f>
         <v>49</v>
       </c>
-      <c r="EY4" s="97"/>
-      <c r="EZ4" s="97"/>
-      <c r="FA4" s="96">
+      <c r="EY4" s="124"/>
+      <c r="EZ4" s="124"/>
+      <c r="FA4" s="123">
         <f>EX4+1</f>
         <v>50</v>
       </c>
-      <c r="FB4" s="97"/>
-      <c r="FC4" s="97"/>
-      <c r="FD4" s="96">
+      <c r="FB4" s="124"/>
+      <c r="FC4" s="124"/>
+      <c r="FD4" s="123">
         <f>FA4+1</f>
         <v>51</v>
       </c>
-      <c r="FE4" s="97"/>
-      <c r="FF4" s="97"/>
-      <c r="FG4" s="96">
+      <c r="FE4" s="124"/>
+      <c r="FF4" s="124"/>
+      <c r="FG4" s="123">
         <f>FD4+1</f>
         <v>52</v>
       </c>
-      <c r="FH4" s="97"/>
-      <c r="FI4" s="97"/>
-      <c r="FJ4" s="96">
+      <c r="FH4" s="124"/>
+      <c r="FI4" s="124"/>
+      <c r="FJ4" s="123">
         <f>FG4+1</f>
         <v>53</v>
       </c>
-      <c r="FK4" s="97"/>
-      <c r="FL4" s="97"/>
-      <c r="FM4" s="96">
+      <c r="FK4" s="124"/>
+      <c r="FL4" s="124"/>
+      <c r="FM4" s="123">
         <f>FJ4+1</f>
         <v>54</v>
       </c>
-      <c r="FN4" s="97"/>
-      <c r="FO4" s="97"/>
-      <c r="FP4" s="96">
+      <c r="FN4" s="124"/>
+      <c r="FO4" s="124"/>
+      <c r="FP4" s="123">
         <f>FM4+1</f>
         <v>55</v>
       </c>
-      <c r="FQ4" s="97"/>
-      <c r="FR4" s="97"/>
-      <c r="FS4" s="96">
+      <c r="FQ4" s="124"/>
+      <c r="FR4" s="124"/>
+      <c r="FS4" s="123">
         <f>FP4+1</f>
         <v>56</v>
       </c>
-      <c r="FT4" s="97"/>
-      <c r="FU4" s="97"/>
-      <c r="FV4" s="96">
+      <c r="FT4" s="124"/>
+      <c r="FU4" s="124"/>
+      <c r="FV4" s="123">
         <f>FS4+1</f>
         <v>57</v>
       </c>
-      <c r="FW4" s="97"/>
-      <c r="FX4" s="97"/>
-      <c r="FY4" s="96">
+      <c r="FW4" s="124"/>
+      <c r="FX4" s="124"/>
+      <c r="FY4" s="123">
         <f>FV4+1</f>
         <v>58</v>
       </c>
-      <c r="FZ4" s="97"/>
-      <c r="GA4" s="97"/>
-      <c r="GB4" s="96">
+      <c r="FZ4" s="124"/>
+      <c r="GA4" s="124"/>
+      <c r="GB4" s="123">
         <f>FY4+1</f>
         <v>59</v>
       </c>
-      <c r="GC4" s="97"/>
-      <c r="GD4" s="97"/>
-      <c r="GE4" s="96">
+      <c r="GC4" s="124"/>
+      <c r="GD4" s="124"/>
+      <c r="GE4" s="123">
         <f>GB4+1</f>
         <v>60</v>
       </c>
-      <c r="GF4" s="97"/>
-      <c r="GG4" s="97"/>
-      <c r="GH4" s="96">
+      <c r="GF4" s="124"/>
+      <c r="GG4" s="124"/>
+      <c r="GH4" s="123">
         <f>GE4+1</f>
         <v>61</v>
       </c>
-      <c r="GI4" s="97"/>
-      <c r="GJ4" s="97"/>
-      <c r="GK4" s="96">
+      <c r="GI4" s="124"/>
+      <c r="GJ4" s="124"/>
+      <c r="GK4" s="123">
         <f>GH4+1</f>
         <v>62</v>
       </c>
-      <c r="GL4" s="97"/>
-      <c r="GM4" s="97"/>
-      <c r="GN4" s="96">
+      <c r="GL4" s="124"/>
+      <c r="GM4" s="124"/>
+      <c r="GN4" s="123">
         <f>GK4+1</f>
         <v>63</v>
       </c>
-      <c r="GO4" s="97"/>
-      <c r="GP4" s="97"/>
-      <c r="GQ4" s="96">
+      <c r="GO4" s="124"/>
+      <c r="GP4" s="124"/>
+      <c r="GQ4" s="123">
         <f>GN4+1</f>
         <v>64</v>
       </c>
-      <c r="GR4" s="97"/>
-      <c r="GS4" s="98"/>
+      <c r="GR4" s="124"/>
+      <c r="GS4" s="131"/>
     </row>
     <row r="5" spans="2:201" x14ac:dyDescent="0.2">
-      <c r="H5" s="105" t="s">
+      <c r="H5" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="106"/>
+      <c r="I5" s="126"/>
       <c r="J5" s="6">
         <v>1</v>
       </c>
@@ -2666,8 +2669,8 @@
       </c>
     </row>
     <row r="6" spans="2:201" x14ac:dyDescent="0.2">
-      <c r="H6" s="107"/>
-      <c r="I6" s="108"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="128"/>
       <c r="J6" s="9">
         <v>1</v>
       </c>
@@ -3246,8 +3249,8 @@
       </c>
     </row>
     <row r="7" spans="2:201" x14ac:dyDescent="0.2">
-      <c r="H7" s="107"/>
-      <c r="I7" s="108"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="128"/>
       <c r="J7" s="9">
         <v>1</v>
       </c>
@@ -3826,8 +3829,8 @@
       </c>
     </row>
     <row r="8" spans="2:201" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="109"/>
-      <c r="I8" s="110"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="130"/>
       <c r="J8" s="11">
         <v>1</v>
       </c>
@@ -4406,10 +4409,10 @@
       </c>
     </row>
     <row r="9" spans="2:201" x14ac:dyDescent="0.2">
-      <c r="H9" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="104"/>
+      <c r="H9" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="118"/>
       <c r="J9" s="28" t="s">
         <v>12</v>
       </c>
@@ -4743,390 +4746,390 @@
       <c r="I15" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="102">
+      <c r="J15" s="117">
         <f>J4</f>
         <v>1</v>
       </c>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="102">
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="117">
         <f>M4</f>
         <v>2</v>
       </c>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="102">
+      <c r="N15" s="119"/>
+      <c r="O15" s="119"/>
+      <c r="P15" s="117">
         <f>P4</f>
         <v>3</v>
       </c>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="103"/>
-      <c r="S15" s="102">
+      <c r="Q15" s="119"/>
+      <c r="R15" s="119"/>
+      <c r="S15" s="117">
         <f>S4</f>
         <v>4</v>
       </c>
-      <c r="T15" s="103"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="102">
+      <c r="T15" s="119"/>
+      <c r="U15" s="119"/>
+      <c r="V15" s="117">
         <f>V4</f>
         <v>5</v>
       </c>
-      <c r="W15" s="103"/>
-      <c r="X15" s="103"/>
-      <c r="Y15" s="102">
+      <c r="W15" s="119"/>
+      <c r="X15" s="119"/>
+      <c r="Y15" s="117">
         <f>Y4</f>
         <v>6</v>
       </c>
-      <c r="Z15" s="103"/>
-      <c r="AA15" s="103"/>
-      <c r="AB15" s="102">
+      <c r="Z15" s="119"/>
+      <c r="AA15" s="119"/>
+      <c r="AB15" s="117">
         <f>AB4</f>
         <v>7</v>
       </c>
-      <c r="AC15" s="103"/>
-      <c r="AD15" s="103"/>
-      <c r="AE15" s="102">
+      <c r="AC15" s="119"/>
+      <c r="AD15" s="119"/>
+      <c r="AE15" s="117">
         <f>AE4</f>
         <v>8</v>
       </c>
-      <c r="AF15" s="103"/>
-      <c r="AG15" s="103"/>
-      <c r="AH15" s="102">
+      <c r="AF15" s="119"/>
+      <c r="AG15" s="119"/>
+      <c r="AH15" s="117">
         <f>AH4</f>
         <v>9</v>
       </c>
-      <c r="AI15" s="103"/>
-      <c r="AJ15" s="103"/>
-      <c r="AK15" s="102">
+      <c r="AI15" s="119"/>
+      <c r="AJ15" s="119"/>
+      <c r="AK15" s="117">
         <f>AK4</f>
         <v>10</v>
       </c>
-      <c r="AL15" s="103"/>
-      <c r="AM15" s="103"/>
-      <c r="AN15" s="102">
+      <c r="AL15" s="119"/>
+      <c r="AM15" s="119"/>
+      <c r="AN15" s="117">
         <f>AN4</f>
         <v>11</v>
       </c>
-      <c r="AO15" s="103"/>
-      <c r="AP15" s="103"/>
-      <c r="AQ15" s="102">
+      <c r="AO15" s="119"/>
+      <c r="AP15" s="119"/>
+      <c r="AQ15" s="117">
         <f>AQ4</f>
         <v>12</v>
       </c>
-      <c r="AR15" s="103"/>
-      <c r="AS15" s="103"/>
-      <c r="AT15" s="102">
+      <c r="AR15" s="119"/>
+      <c r="AS15" s="119"/>
+      <c r="AT15" s="117">
         <f>AT4</f>
         <v>13</v>
       </c>
-      <c r="AU15" s="103"/>
-      <c r="AV15" s="103"/>
-      <c r="AW15" s="102">
+      <c r="AU15" s="119"/>
+      <c r="AV15" s="119"/>
+      <c r="AW15" s="117">
         <f>AW4</f>
         <v>14</v>
       </c>
-      <c r="AX15" s="103"/>
-      <c r="AY15" s="103"/>
-      <c r="AZ15" s="102">
+      <c r="AX15" s="119"/>
+      <c r="AY15" s="119"/>
+      <c r="AZ15" s="117">
         <f>AZ4</f>
         <v>15</v>
       </c>
-      <c r="BA15" s="103"/>
-      <c r="BB15" s="103"/>
-      <c r="BC15" s="102">
+      <c r="BA15" s="119"/>
+      <c r="BB15" s="119"/>
+      <c r="BC15" s="117">
         <f>BC4</f>
         <v>16</v>
       </c>
-      <c r="BD15" s="103"/>
-      <c r="BE15" s="103"/>
-      <c r="BF15" s="102">
+      <c r="BD15" s="119"/>
+      <c r="BE15" s="119"/>
+      <c r="BF15" s="117">
         <f>BF4</f>
         <v>17</v>
       </c>
-      <c r="BG15" s="103"/>
-      <c r="BH15" s="103"/>
-      <c r="BI15" s="102">
+      <c r="BG15" s="119"/>
+      <c r="BH15" s="119"/>
+      <c r="BI15" s="117">
         <f>BI4</f>
         <v>18</v>
       </c>
-      <c r="BJ15" s="103"/>
-      <c r="BK15" s="103"/>
-      <c r="BL15" s="102">
+      <c r="BJ15" s="119"/>
+      <c r="BK15" s="119"/>
+      <c r="BL15" s="117">
         <f>BL4</f>
         <v>19</v>
       </c>
-      <c r="BM15" s="103"/>
-      <c r="BN15" s="103"/>
-      <c r="BO15" s="102">
+      <c r="BM15" s="119"/>
+      <c r="BN15" s="119"/>
+      <c r="BO15" s="117">
         <f>BO4</f>
         <v>20</v>
       </c>
-      <c r="BP15" s="103"/>
-      <c r="BQ15" s="103"/>
-      <c r="BR15" s="102">
+      <c r="BP15" s="119"/>
+      <c r="BQ15" s="119"/>
+      <c r="BR15" s="117">
         <f>BR4</f>
         <v>21</v>
       </c>
-      <c r="BS15" s="103"/>
-      <c r="BT15" s="103"/>
-      <c r="BU15" s="102">
+      <c r="BS15" s="119"/>
+      <c r="BT15" s="119"/>
+      <c r="BU15" s="117">
         <f>BU4</f>
         <v>22</v>
       </c>
-      <c r="BV15" s="103"/>
-      <c r="BW15" s="103"/>
-      <c r="BX15" s="102">
+      <c r="BV15" s="119"/>
+      <c r="BW15" s="119"/>
+      <c r="BX15" s="117">
         <f>BX4</f>
         <v>23</v>
       </c>
-      <c r="BY15" s="103"/>
-      <c r="BZ15" s="103"/>
-      <c r="CA15" s="102">
+      <c r="BY15" s="119"/>
+      <c r="BZ15" s="119"/>
+      <c r="CA15" s="117">
         <f>CA4</f>
         <v>24</v>
       </c>
-      <c r="CB15" s="103"/>
-      <c r="CC15" s="103"/>
-      <c r="CD15" s="102">
+      <c r="CB15" s="119"/>
+      <c r="CC15" s="119"/>
+      <c r="CD15" s="117">
         <f>CD4</f>
         <v>25</v>
       </c>
-      <c r="CE15" s="103"/>
-      <c r="CF15" s="103"/>
-      <c r="CG15" s="102">
+      <c r="CE15" s="119"/>
+      <c r="CF15" s="119"/>
+      <c r="CG15" s="117">
         <f>CG4</f>
         <v>26</v>
       </c>
-      <c r="CH15" s="103"/>
-      <c r="CI15" s="103"/>
-      <c r="CJ15" s="102">
+      <c r="CH15" s="119"/>
+      <c r="CI15" s="119"/>
+      <c r="CJ15" s="117">
         <f>CJ4</f>
         <v>27</v>
       </c>
-      <c r="CK15" s="103"/>
-      <c r="CL15" s="103"/>
-      <c r="CM15" s="102">
+      <c r="CK15" s="119"/>
+      <c r="CL15" s="119"/>
+      <c r="CM15" s="117">
         <f>CM4</f>
         <v>28</v>
       </c>
-      <c r="CN15" s="103"/>
-      <c r="CO15" s="103"/>
-      <c r="CP15" s="102">
+      <c r="CN15" s="119"/>
+      <c r="CO15" s="119"/>
+      <c r="CP15" s="117">
         <f>CP4</f>
         <v>29</v>
       </c>
-      <c r="CQ15" s="103"/>
-      <c r="CR15" s="103"/>
-      <c r="CS15" s="102">
+      <c r="CQ15" s="119"/>
+      <c r="CR15" s="119"/>
+      <c r="CS15" s="117">
         <f>CS4</f>
         <v>30</v>
       </c>
-      <c r="CT15" s="103"/>
-      <c r="CU15" s="103"/>
-      <c r="CV15" s="102">
+      <c r="CT15" s="119"/>
+      <c r="CU15" s="119"/>
+      <c r="CV15" s="117">
         <f>CV4</f>
         <v>31</v>
       </c>
-      <c r="CW15" s="103"/>
-      <c r="CX15" s="103"/>
-      <c r="CY15" s="102">
+      <c r="CW15" s="119"/>
+      <c r="CX15" s="119"/>
+      <c r="CY15" s="117">
         <f>CY4</f>
         <v>32</v>
       </c>
-      <c r="CZ15" s="103"/>
-      <c r="DA15" s="103"/>
-      <c r="DB15" s="102">
+      <c r="CZ15" s="119"/>
+      <c r="DA15" s="119"/>
+      <c r="DB15" s="117">
         <f>DB4</f>
         <v>33</v>
       </c>
-      <c r="DC15" s="103"/>
-      <c r="DD15" s="103"/>
-      <c r="DE15" s="102">
+      <c r="DC15" s="119"/>
+      <c r="DD15" s="119"/>
+      <c r="DE15" s="117">
         <f>DE4</f>
         <v>34</v>
       </c>
-      <c r="DF15" s="103"/>
-      <c r="DG15" s="103"/>
-      <c r="DH15" s="102">
+      <c r="DF15" s="119"/>
+      <c r="DG15" s="119"/>
+      <c r="DH15" s="117">
         <f>DH4</f>
         <v>35</v>
       </c>
-      <c r="DI15" s="103"/>
-      <c r="DJ15" s="103"/>
-      <c r="DK15" s="102">
+      <c r="DI15" s="119"/>
+      <c r="DJ15" s="119"/>
+      <c r="DK15" s="117">
         <f>DK4</f>
         <v>36</v>
       </c>
-      <c r="DL15" s="103"/>
-      <c r="DM15" s="103"/>
-      <c r="DN15" s="102">
+      <c r="DL15" s="119"/>
+      <c r="DM15" s="119"/>
+      <c r="DN15" s="117">
         <f>DN4</f>
         <v>37</v>
       </c>
-      <c r="DO15" s="103"/>
-      <c r="DP15" s="103"/>
-      <c r="DQ15" s="102">
+      <c r="DO15" s="119"/>
+      <c r="DP15" s="119"/>
+      <c r="DQ15" s="117">
         <f>DQ4</f>
         <v>38</v>
       </c>
-      <c r="DR15" s="103"/>
-      <c r="DS15" s="103"/>
-      <c r="DT15" s="102">
+      <c r="DR15" s="119"/>
+      <c r="DS15" s="119"/>
+      <c r="DT15" s="117">
         <f>DT4</f>
         <v>39</v>
       </c>
-      <c r="DU15" s="103"/>
-      <c r="DV15" s="103"/>
-      <c r="DW15" s="102">
+      <c r="DU15" s="119"/>
+      <c r="DV15" s="119"/>
+      <c r="DW15" s="117">
         <f>DW4</f>
         <v>40</v>
       </c>
-      <c r="DX15" s="103"/>
-      <c r="DY15" s="103"/>
-      <c r="DZ15" s="102">
+      <c r="DX15" s="119"/>
+      <c r="DY15" s="119"/>
+      <c r="DZ15" s="117">
         <f>DZ4</f>
         <v>41</v>
       </c>
-      <c r="EA15" s="103"/>
-      <c r="EB15" s="103"/>
-      <c r="EC15" s="102">
+      <c r="EA15" s="119"/>
+      <c r="EB15" s="119"/>
+      <c r="EC15" s="117">
         <f>EC4</f>
         <v>42</v>
       </c>
-      <c r="ED15" s="103"/>
-      <c r="EE15" s="103"/>
-      <c r="EF15" s="102">
+      <c r="ED15" s="119"/>
+      <c r="EE15" s="119"/>
+      <c r="EF15" s="117">
         <f>EF4</f>
         <v>43</v>
       </c>
-      <c r="EG15" s="103"/>
-      <c r="EH15" s="103"/>
-      <c r="EI15" s="102">
+      <c r="EG15" s="119"/>
+      <c r="EH15" s="119"/>
+      <c r="EI15" s="117">
         <f>EI4</f>
         <v>44</v>
       </c>
-      <c r="EJ15" s="103"/>
-      <c r="EK15" s="103"/>
-      <c r="EL15" s="102">
+      <c r="EJ15" s="119"/>
+      <c r="EK15" s="119"/>
+      <c r="EL15" s="117">
         <f>EL4</f>
         <v>45</v>
       </c>
-      <c r="EM15" s="103"/>
-      <c r="EN15" s="103"/>
-      <c r="EO15" s="102">
+      <c r="EM15" s="119"/>
+      <c r="EN15" s="119"/>
+      <c r="EO15" s="117">
         <f>EO4</f>
         <v>46</v>
       </c>
-      <c r="EP15" s="103"/>
-      <c r="EQ15" s="103"/>
-      <c r="ER15" s="102">
+      <c r="EP15" s="119"/>
+      <c r="EQ15" s="119"/>
+      <c r="ER15" s="117">
         <f>ER4</f>
         <v>47</v>
       </c>
-      <c r="ES15" s="103"/>
-      <c r="ET15" s="103"/>
-      <c r="EU15" s="102">
+      <c r="ES15" s="119"/>
+      <c r="ET15" s="119"/>
+      <c r="EU15" s="117">
         <f>EU4</f>
         <v>48</v>
       </c>
-      <c r="EV15" s="103"/>
-      <c r="EW15" s="103"/>
-      <c r="EX15" s="102">
+      <c r="EV15" s="119"/>
+      <c r="EW15" s="119"/>
+      <c r="EX15" s="117">
         <f>EX4</f>
         <v>49</v>
       </c>
-      <c r="EY15" s="103"/>
-      <c r="EZ15" s="103"/>
-      <c r="FA15" s="102">
+      <c r="EY15" s="119"/>
+      <c r="EZ15" s="119"/>
+      <c r="FA15" s="117">
         <f>FA4</f>
         <v>50</v>
       </c>
-      <c r="FB15" s="103"/>
-      <c r="FC15" s="103"/>
-      <c r="FD15" s="102">
+      <c r="FB15" s="119"/>
+      <c r="FC15" s="119"/>
+      <c r="FD15" s="117">
         <f>FD4</f>
         <v>51</v>
       </c>
-      <c r="FE15" s="103"/>
-      <c r="FF15" s="103"/>
-      <c r="FG15" s="102">
+      <c r="FE15" s="119"/>
+      <c r="FF15" s="119"/>
+      <c r="FG15" s="117">
         <f>FG4</f>
         <v>52</v>
       </c>
-      <c r="FH15" s="103"/>
-      <c r="FI15" s="103"/>
-      <c r="FJ15" s="102">
+      <c r="FH15" s="119"/>
+      <c r="FI15" s="119"/>
+      <c r="FJ15" s="117">
         <f>FJ4</f>
         <v>53</v>
       </c>
-      <c r="FK15" s="103"/>
-      <c r="FL15" s="103"/>
-      <c r="FM15" s="102">
+      <c r="FK15" s="119"/>
+      <c r="FL15" s="119"/>
+      <c r="FM15" s="117">
         <f>FM4</f>
         <v>54</v>
       </c>
-      <c r="FN15" s="103"/>
-      <c r="FO15" s="103"/>
-      <c r="FP15" s="102">
+      <c r="FN15" s="119"/>
+      <c r="FO15" s="119"/>
+      <c r="FP15" s="117">
         <f>FP4</f>
         <v>55</v>
       </c>
-      <c r="FQ15" s="103"/>
-      <c r="FR15" s="103"/>
-      <c r="FS15" s="102">
+      <c r="FQ15" s="119"/>
+      <c r="FR15" s="119"/>
+      <c r="FS15" s="117">
         <f>FS4</f>
         <v>56</v>
       </c>
-      <c r="FT15" s="103"/>
-      <c r="FU15" s="103"/>
-      <c r="FV15" s="102">
+      <c r="FT15" s="119"/>
+      <c r="FU15" s="119"/>
+      <c r="FV15" s="117">
         <f>FV4</f>
         <v>57</v>
       </c>
-      <c r="FW15" s="103"/>
-      <c r="FX15" s="103"/>
-      <c r="FY15" s="102">
+      <c r="FW15" s="119"/>
+      <c r="FX15" s="119"/>
+      <c r="FY15" s="117">
         <f>FY4</f>
         <v>58</v>
       </c>
-      <c r="FZ15" s="103"/>
-      <c r="GA15" s="103"/>
-      <c r="GB15" s="102">
+      <c r="FZ15" s="119"/>
+      <c r="GA15" s="119"/>
+      <c r="GB15" s="117">
         <f>GB4</f>
         <v>59</v>
       </c>
-      <c r="GC15" s="103"/>
-      <c r="GD15" s="103"/>
-      <c r="GE15" s="102">
+      <c r="GC15" s="119"/>
+      <c r="GD15" s="119"/>
+      <c r="GE15" s="117">
         <f>GE4</f>
         <v>60</v>
       </c>
-      <c r="GF15" s="103"/>
-      <c r="GG15" s="103"/>
-      <c r="GH15" s="102">
+      <c r="GF15" s="119"/>
+      <c r="GG15" s="119"/>
+      <c r="GH15" s="117">
         <f>GH4</f>
         <v>61</v>
       </c>
-      <c r="GI15" s="103"/>
-      <c r="GJ15" s="103"/>
-      <c r="GK15" s="102">
+      <c r="GI15" s="119"/>
+      <c r="GJ15" s="119"/>
+      <c r="GK15" s="117">
         <f>GK4</f>
         <v>62</v>
       </c>
-      <c r="GL15" s="103"/>
-      <c r="GM15" s="103"/>
-      <c r="GN15" s="102">
+      <c r="GL15" s="119"/>
+      <c r="GM15" s="119"/>
+      <c r="GN15" s="117">
         <f>GN4</f>
         <v>63</v>
       </c>
-      <c r="GO15" s="103"/>
-      <c r="GP15" s="103"/>
-      <c r="GQ15" s="102">
+      <c r="GO15" s="119"/>
+      <c r="GP15" s="119"/>
+      <c r="GQ15" s="117">
         <f>GQ4</f>
         <v>64</v>
       </c>
-      <c r="GR15" s="103"/>
-      <c r="GS15" s="104"/>
+      <c r="GR15" s="119"/>
+      <c r="GS15" s="118"/>
     </row>
     <row r="16" spans="2:201" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H16" s="23"/>
@@ -5712,7 +5715,7 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" s="99" t="s">
+      <c r="H17" s="120" t="s">
         <v>3</v>
       </c>
       <c r="I17" s="25">
@@ -6491,7 +6494,7 @@
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="H18" s="100"/>
+      <c r="H18" s="121"/>
       <c r="I18" s="1">
         <v>2</v>
       </c>
@@ -7268,7 +7271,7 @@
       <c r="G19">
         <v>3</v>
       </c>
-      <c r="H19" s="100"/>
+      <c r="H19" s="121"/>
       <c r="I19" s="1">
         <v>3</v>
       </c>
@@ -8045,7 +8048,7 @@
       <c r="G20">
         <v>4</v>
       </c>
-      <c r="H20" s="101"/>
+      <c r="H20" s="122"/>
       <c r="I20" s="3">
         <v>4</v>
       </c>
@@ -8819,10 +8822,10 @@
       </c>
     </row>
     <row r="21" spans="7:201" x14ac:dyDescent="0.2">
-      <c r="H21" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="104"/>
+      <c r="H21" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="118"/>
       <c r="J21" s="3" t="s">
         <v>10</v>
       </c>
@@ -9146,6 +9149,115 @@
     </row>
   </sheetData>
   <mergeCells count="133">
+    <mergeCell ref="FA4:FC4"/>
+    <mergeCell ref="FD4:FF4"/>
+    <mergeCell ref="FG4:FI4"/>
+    <mergeCell ref="FJ4:FL4"/>
+    <mergeCell ref="FM4:FO4"/>
+    <mergeCell ref="EL4:EN4"/>
+    <mergeCell ref="EO4:EQ4"/>
+    <mergeCell ref="ER4:ET4"/>
+    <mergeCell ref="EU4:EW4"/>
+    <mergeCell ref="EX4:EZ4"/>
+    <mergeCell ref="GQ4:GS4"/>
+    <mergeCell ref="FP4:FR4"/>
+    <mergeCell ref="FS4:FU4"/>
+    <mergeCell ref="FV4:FX4"/>
+    <mergeCell ref="FY4:GA4"/>
+    <mergeCell ref="GB4:GD4"/>
+    <mergeCell ref="GE4:GG4"/>
+    <mergeCell ref="GH4:GJ4"/>
+    <mergeCell ref="GK4:GM4"/>
+    <mergeCell ref="GN4:GP4"/>
+    <mergeCell ref="DB4:DD4"/>
+    <mergeCell ref="DE4:DG4"/>
+    <mergeCell ref="DZ4:EB4"/>
+    <mergeCell ref="EC4:EE4"/>
+    <mergeCell ref="EF4:EH4"/>
+    <mergeCell ref="EI4:EK4"/>
+    <mergeCell ref="DH4:DJ4"/>
+    <mergeCell ref="DK4:DM4"/>
+    <mergeCell ref="DN4:DP4"/>
+    <mergeCell ref="DQ4:DS4"/>
+    <mergeCell ref="DT4:DV4"/>
+    <mergeCell ref="DW4:DY4"/>
+    <mergeCell ref="CA4:CC4"/>
+    <mergeCell ref="CD4:CF4"/>
+    <mergeCell ref="CG4:CI4"/>
+    <mergeCell ref="CJ4:CL4"/>
+    <mergeCell ref="CM4:CO4"/>
+    <mergeCell ref="CP4:CR4"/>
+    <mergeCell ref="CS4:CU4"/>
+    <mergeCell ref="CV4:CX4"/>
+    <mergeCell ref="CY4:DA4"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="BC4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BK4"/>
+    <mergeCell ref="BL4:BN4"/>
+    <mergeCell ref="BO4:BQ4"/>
+    <mergeCell ref="BR4:BT4"/>
+    <mergeCell ref="BU4:BW4"/>
+    <mergeCell ref="BX4:BZ4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="AT4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="AN15:AP15"/>
+    <mergeCell ref="AQ15:AS15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="BI15:BK15"/>
+    <mergeCell ref="BL15:BN15"/>
+    <mergeCell ref="BO15:BQ15"/>
+    <mergeCell ref="BR15:BT15"/>
+    <mergeCell ref="BU15:BW15"/>
+    <mergeCell ref="AT15:AV15"/>
+    <mergeCell ref="AW15:AY15"/>
+    <mergeCell ref="AZ15:BB15"/>
+    <mergeCell ref="BC15:BE15"/>
+    <mergeCell ref="BF15:BH15"/>
+    <mergeCell ref="CM15:CO15"/>
+    <mergeCell ref="CP15:CR15"/>
+    <mergeCell ref="CS15:CU15"/>
+    <mergeCell ref="CV15:CX15"/>
+    <mergeCell ref="CY15:DA15"/>
+    <mergeCell ref="BX15:BZ15"/>
+    <mergeCell ref="CA15:CC15"/>
+    <mergeCell ref="CD15:CF15"/>
+    <mergeCell ref="CG15:CI15"/>
+    <mergeCell ref="CJ15:CL15"/>
+    <mergeCell ref="DT15:DV15"/>
+    <mergeCell ref="DW15:DY15"/>
+    <mergeCell ref="DZ15:EB15"/>
+    <mergeCell ref="EC15:EE15"/>
+    <mergeCell ref="DB15:DD15"/>
+    <mergeCell ref="DE15:DG15"/>
+    <mergeCell ref="DH15:DJ15"/>
+    <mergeCell ref="DK15:DM15"/>
+    <mergeCell ref="DN15:DP15"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="GN15:GP15"/>
     <mergeCell ref="GQ15:GS15"/>
@@ -9170,115 +9282,6 @@
     <mergeCell ref="EO15:EQ15"/>
     <mergeCell ref="ER15:ET15"/>
     <mergeCell ref="DQ15:DS15"/>
-    <mergeCell ref="DT15:DV15"/>
-    <mergeCell ref="DW15:DY15"/>
-    <mergeCell ref="DZ15:EB15"/>
-    <mergeCell ref="EC15:EE15"/>
-    <mergeCell ref="DB15:DD15"/>
-    <mergeCell ref="DE15:DG15"/>
-    <mergeCell ref="DH15:DJ15"/>
-    <mergeCell ref="DK15:DM15"/>
-    <mergeCell ref="DN15:DP15"/>
-    <mergeCell ref="CM15:CO15"/>
-    <mergeCell ref="CP15:CR15"/>
-    <mergeCell ref="CS15:CU15"/>
-    <mergeCell ref="CV15:CX15"/>
-    <mergeCell ref="CY15:DA15"/>
-    <mergeCell ref="BX15:BZ15"/>
-    <mergeCell ref="CA15:CC15"/>
-    <mergeCell ref="CD15:CF15"/>
-    <mergeCell ref="CG15:CI15"/>
-    <mergeCell ref="CJ15:CL15"/>
-    <mergeCell ref="BI15:BK15"/>
-    <mergeCell ref="BL15:BN15"/>
-    <mergeCell ref="BO15:BQ15"/>
-    <mergeCell ref="BR15:BT15"/>
-    <mergeCell ref="BU15:BW15"/>
-    <mergeCell ref="AT15:AV15"/>
-    <mergeCell ref="AW15:AY15"/>
-    <mergeCell ref="AZ15:BB15"/>
-    <mergeCell ref="BC15:BE15"/>
-    <mergeCell ref="BF15:BH15"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="AN15:AP15"/>
-    <mergeCell ref="AQ15:AS15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AQ4:AS4"/>
-    <mergeCell ref="AT4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="BC4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BK4"/>
-    <mergeCell ref="BL4:BN4"/>
-    <mergeCell ref="BO4:BQ4"/>
-    <mergeCell ref="BR4:BT4"/>
-    <mergeCell ref="BU4:BW4"/>
-    <mergeCell ref="BX4:BZ4"/>
-    <mergeCell ref="CA4:CC4"/>
-    <mergeCell ref="CD4:CF4"/>
-    <mergeCell ref="CG4:CI4"/>
-    <mergeCell ref="CJ4:CL4"/>
-    <mergeCell ref="CM4:CO4"/>
-    <mergeCell ref="CP4:CR4"/>
-    <mergeCell ref="CS4:CU4"/>
-    <mergeCell ref="CV4:CX4"/>
-    <mergeCell ref="CY4:DA4"/>
-    <mergeCell ref="DB4:DD4"/>
-    <mergeCell ref="DE4:DG4"/>
-    <mergeCell ref="DZ4:EB4"/>
-    <mergeCell ref="EC4:EE4"/>
-    <mergeCell ref="EF4:EH4"/>
-    <mergeCell ref="EI4:EK4"/>
-    <mergeCell ref="DH4:DJ4"/>
-    <mergeCell ref="DK4:DM4"/>
-    <mergeCell ref="DN4:DP4"/>
-    <mergeCell ref="DQ4:DS4"/>
-    <mergeCell ref="DT4:DV4"/>
-    <mergeCell ref="DW4:DY4"/>
-    <mergeCell ref="GQ4:GS4"/>
-    <mergeCell ref="FP4:FR4"/>
-    <mergeCell ref="FS4:FU4"/>
-    <mergeCell ref="FV4:FX4"/>
-    <mergeCell ref="FY4:GA4"/>
-    <mergeCell ref="GB4:GD4"/>
-    <mergeCell ref="GE4:GG4"/>
-    <mergeCell ref="GH4:GJ4"/>
-    <mergeCell ref="GK4:GM4"/>
-    <mergeCell ref="GN4:GP4"/>
-    <mergeCell ref="FA4:FC4"/>
-    <mergeCell ref="FD4:FF4"/>
-    <mergeCell ref="FG4:FI4"/>
-    <mergeCell ref="FJ4:FL4"/>
-    <mergeCell ref="FM4:FO4"/>
-    <mergeCell ref="EL4:EN4"/>
-    <mergeCell ref="EO4:EQ4"/>
-    <mergeCell ref="ER4:ET4"/>
-    <mergeCell ref="EU4:EW4"/>
-    <mergeCell ref="EX4:EZ4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J17:L20">
@@ -9938,8 +9941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:GT21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="283" zoomScaleNormal="283" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F14"/>
+    <sheetView tabSelected="1" zoomScale="283" zoomScaleNormal="283" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9976,10 +9979,10 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="104"/>
+      <c r="H2" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="118"/>
       <c r="J2" s="25">
         <f>G2+1</f>
         <v>1</v>
@@ -10366,34 +10369,34 @@
       <c r="GS2" s="46"/>
     </row>
     <row r="3" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="112">
-        <v>1</v>
-      </c>
-      <c r="D3" s="136">
+      <c r="C3" s="133">
+        <v>1</v>
+      </c>
+      <c r="D3" s="105">
         <v>5.5E-2</v>
       </c>
-      <c r="E3" s="140">
+      <c r="E3" s="109">
         <v>0.16600000000000001</v>
       </c>
-      <c r="F3" s="134">
+      <c r="F3" s="103">
         <v>0.11700000000000001</v>
       </c>
-      <c r="H3" s="96" t="s">
+      <c r="H3" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="111"/>
-      <c r="J3" s="127">
+      <c r="I3" s="132"/>
+      <c r="J3" s="96">
         <f>Data!J5</f>
         <v>1</v>
       </c>
-      <c r="K3" s="133">
+      <c r="K3" s="102">
         <f>Data!K5</f>
         <v>1</v>
       </c>
-      <c r="L3" s="135">
+      <c r="L3" s="104">
         <f>Data!L5</f>
         <v>1</v>
       </c>
@@ -11155,20 +11158,20 @@
       </c>
     </row>
     <row r="4" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="116"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="137">
+      <c r="B4" s="137"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="106">
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="E4" s="75">
         <v>0.33300000000000002</v>
       </c>
-      <c r="F4" s="139">
+      <c r="F4" s="108">
         <v>0.17899999999999999</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="56"/>
-      <c r="J4" s="128">
+      <c r="J4" s="97">
         <f>Data!J6</f>
         <v>1</v>
       </c>
@@ -11176,7 +11179,7 @@
         <f>Data!K6</f>
         <v>0</v>
       </c>
-      <c r="L4" s="129">
+      <c r="L4" s="98">
         <f>Data!L6</f>
         <v>1</v>
       </c>
@@ -11938,20 +11941,20 @@
       </c>
     </row>
     <row r="5" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="116"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="137">
+      <c r="B5" s="137"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="106">
         <v>0.15</v>
       </c>
       <c r="E5" s="75">
         <v>0.92300000000000004</v>
       </c>
-      <c r="F5" s="139">
+      <c r="F5" s="108">
         <v>0.11899999999999999</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="56"/>
-      <c r="J5" s="128">
+      <c r="J5" s="97">
         <f>Data!J7</f>
         <v>1</v>
       </c>
@@ -11959,7 +11962,7 @@
         <f>Data!K7</f>
         <v>0</v>
       </c>
-      <c r="L5" s="129">
+      <c r="L5" s="98">
         <f>Data!L7</f>
         <v>1</v>
       </c>
@@ -12721,28 +12724,28 @@
       </c>
     </row>
     <row r="6" spans="2:201" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="116"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="137">
+      <c r="B6" s="137"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="106">
         <v>0.98</v>
       </c>
-      <c r="E6" s="138">
+      <c r="E6" s="107">
         <v>0.111</v>
       </c>
-      <c r="F6" s="139">
+      <c r="F6" s="108">
         <v>0.19800000000000001</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="57"/>
-      <c r="J6" s="130">
+      <c r="J6" s="99">
         <f>Data!J8</f>
         <v>1</v>
       </c>
-      <c r="K6" s="131">
+      <c r="K6" s="100">
         <f>Data!K8</f>
         <v>1</v>
       </c>
-      <c r="L6" s="132">
+      <c r="L6" s="101">
         <f>Data!L8</f>
         <v>1</v>
       </c>
@@ -13504,8 +13507,8 @@
       </c>
     </row>
     <row r="7" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="116"/>
-      <c r="C7" s="112">
+      <c r="B7" s="137"/>
+      <c r="C7" s="133">
         <v>2</v>
       </c>
       <c r="D7" s="71">
@@ -13517,10 +13520,10 @@
       <c r="F7" s="73">
         <v>0.121</v>
       </c>
-      <c r="H7" s="118" t="s">
+      <c r="H7" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="119"/>
+      <c r="I7" s="140"/>
       <c r="J7" s="5">
         <f>IF(Data!J9="〇",1,0)</f>
         <v>1</v>
@@ -14099,8 +14102,8 @@
       <c r="GS7" s="4"/>
     </row>
     <row r="8" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="116"/>
-      <c r="C8" s="113"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="134"/>
       <c r="D8" s="74">
         <v>0.29399999999999998</v>
       </c>
@@ -14112,8 +14115,8 @@
       </c>
     </row>
     <row r="9" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="116"/>
-      <c r="C9" s="113"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="134"/>
       <c r="D9" s="74">
         <v>0.34599999999999997</v>
       </c>
@@ -14123,10 +14126,10 @@
       <c r="F9" s="76">
         <v>0.218</v>
       </c>
-      <c r="H9" s="118" t="s">
+      <c r="H9" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="119"/>
+      <c r="I9" s="140"/>
       <c r="J9" s="47">
         <v>1</v>
       </c>
@@ -14705,8 +14708,8 @@
       </c>
     </row>
     <row r="10" spans="2:201" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="116"/>
-      <c r="C10" s="114"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="74">
         <v>0.191</v>
       </c>
@@ -14716,19 +14719,19 @@
       <c r="F10" s="76">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H10" s="120" t="s">
+      <c r="H10" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="121"/>
-      <c r="J10" s="146">
+      <c r="I10" s="142"/>
+      <c r="J10" s="115">
         <f>1/(1+EXP(-SUMPRODUCT(J3:L6,$D$3:$F$6)+$D$15))</f>
         <v>0.7658456258197972</v>
       </c>
-      <c r="K10" s="147">
+      <c r="K10" s="116">
         <f>1/(1+EXP(-SUMPRODUCT(J3:L6,$D$7:$F$10)+$E$15))</f>
         <v>0.92099911351520103</v>
       </c>
-      <c r="L10" s="147">
+      <c r="L10" s="116">
         <f>1/(1+EXP(-SUMPRODUCT(J3:L6,$D$11:$F$14)+$F$15))</f>
         <v>0.96789152481148033</v>
       </c>
@@ -15490,8 +15493,8 @@
       </c>
     </row>
     <row r="11" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="116"/>
-      <c r="C11" s="112">
+      <c r="B11" s="137"/>
+      <c r="C11" s="133">
         <v>3</v>
       </c>
       <c r="D11" s="71">
@@ -15708,8 +15711,8 @@
       <c r="GS11" s="53"/>
     </row>
     <row r="12" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="116"/>
-      <c r="C12" s="113"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="74">
         <v>0.89200000000000002</v>
       </c>
@@ -15914,8 +15917,8 @@
       <c r="GS12" s="22"/>
     </row>
     <row r="13" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="116"/>
-      <c r="C13" s="113"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="74">
         <v>0.93600000000000005</v>
       </c>
@@ -15928,7 +15931,9 @@
       <c r="J13" s="1"/>
       <c r="L13" s="22"/>
       <c r="M13" s="1"/>
-      <c r="O13" s="22"/>
+      <c r="O13" s="22" t="s">
+        <v>33</v>
+      </c>
       <c r="P13" s="1"/>
       <c r="R13" s="22"/>
       <c r="S13" s="1"/>
@@ -16055,8 +16060,8 @@
       <c r="GS13" s="22"/>
     </row>
     <row r="14" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="116"/>
-      <c r="C14" s="114"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="77">
         <v>3.7999999999999999E-2</v>
       </c>
@@ -16196,7 +16201,7 @@
       <c r="GS14" s="22"/>
     </row>
     <row r="15" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="117"/>
+      <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
         <v>9</v>
       </c>
@@ -16339,25 +16344,25 @@
       <c r="GS15" s="22"/>
     </row>
     <row r="16" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="136" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
-      <c r="D16" s="143">
+      <c r="D16" s="112">
         <v>0.18099999999999999</v>
       </c>
-      <c r="E16" s="144">
+      <c r="E16" s="113">
         <v>0.92300000000000004</v>
       </c>
-      <c r="F16" s="145">
+      <c r="F16" s="114">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H16" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="119"/>
+      <c r="H16" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="140"/>
       <c r="J16" s="47">
         <v>1</v>
       </c>
@@ -16808,7 +16813,7 @@
       <c r="GS16" s="36"/>
     </row>
     <row r="17" spans="2:202" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="116"/>
+      <c r="B17" s="137"/>
       <c r="C17" s="34">
         <v>2</v>
       </c>
@@ -16821,15 +16826,15 @@
       <c r="F17" s="62">
         <v>0.84199999999999997</v>
       </c>
-      <c r="H17" s="120" t="s">
+      <c r="H17" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="121"/>
-      <c r="J17" s="141">
+      <c r="I17" s="142"/>
+      <c r="J17" s="110">
         <f>1/(1+EXP(-SUMPRODUCT($D$16:$F$16,J10:L10)+$D$18))</f>
         <v>0.51243284239605658</v>
       </c>
-      <c r="K17" s="141">
+      <c r="K17" s="110">
         <f>1/(1+EXP(-SUMPRODUCT($D$17:$F$17,J10:L10)+$E$18))</f>
         <v>0.67345979259945399</v>
       </c>
@@ -17403,7 +17408,7 @@
       <c r="GS17" s="65"/>
     </row>
     <row r="18" spans="2:202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="117"/>
+      <c r="B18" s="138"/>
       <c r="C18" s="35" t="s">
         <v>9</v>
       </c>
@@ -17944,7 +17949,7 @@
         <v>31.19400531292812</v>
       </c>
       <c r="I20" s="84"/>
-      <c r="J20" s="142">
+      <c r="J20" s="111">
         <f>SUMXMY2(J7:K7,J17:K17)</f>
         <v>0.69126982542208815</v>
       </c>
@@ -18415,6 +18420,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -18423,7 +18429,7 @@
   <dimension ref="B1:GT26"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="K15" sqref="K15:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18460,10 +18466,10 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="104"/>
+      <c r="H2" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="118"/>
       <c r="J2" s="25">
         <f>G2+1</f>
         <v>1</v>
@@ -18850,10 +18856,10 @@
       <c r="GS2" s="46"/>
     </row>
     <row r="3" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="112">
+      <c r="C3" s="133">
         <v>1</v>
       </c>
       <c r="D3" s="71">
@@ -18865,10 +18871,10 @@
       <c r="F3" s="73">
         <v>0.92489802724863956</v>
       </c>
-      <c r="H3" s="96" t="s">
+      <c r="H3" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="111"/>
+      <c r="I3" s="132"/>
       <c r="J3" s="6">
         <f>Data!J5</f>
         <v>1</v>
@@ -19639,8 +19645,8 @@
       </c>
     </row>
     <row r="4" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="116"/>
-      <c r="C4" s="113"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="134"/>
       <c r="D4" s="74">
         <v>0</v>
       </c>
@@ -20422,8 +20428,8 @@
       </c>
     </row>
     <row r="5" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="116"/>
-      <c r="C5" s="113"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="134"/>
       <c r="D5" s="74">
         <v>0</v>
       </c>
@@ -21205,8 +21211,8 @@
       </c>
     </row>
     <row r="6" spans="2:201" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="116"/>
-      <c r="C6" s="114"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="74">
         <v>4.7530809944782435</v>
       </c>
@@ -21988,8 +21994,8 @@
       </c>
     </row>
     <row r="7" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="116"/>
-      <c r="C7" s="112">
+      <c r="B7" s="137"/>
+      <c r="C7" s="133">
         <v>2</v>
       </c>
       <c r="D7" s="71">
@@ -22001,10 +22007,10 @@
       <c r="F7" s="73">
         <v>4.261242829744246E-2</v>
       </c>
-      <c r="H7" s="118" t="s">
+      <c r="H7" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="119"/>
+      <c r="I7" s="140"/>
       <c r="J7" s="5">
         <f>IF(Data!J9="〇",1,0)</f>
         <v>1</v>
@@ -22583,8 +22589,8 @@
       <c r="GS7" s="94"/>
     </row>
     <row r="8" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="116"/>
-      <c r="C8" s="113"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="134"/>
       <c r="D8" s="74">
         <v>0.56872467967799278</v>
       </c>
@@ -22596,8 +22602,8 @@
       </c>
     </row>
     <row r="9" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="116"/>
-      <c r="C9" s="113"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="134"/>
       <c r="D9" s="74">
         <v>0.6833065195081186</v>
       </c>
@@ -22607,10 +22613,10 @@
       <c r="F9" s="76">
         <v>0.39974311308496541</v>
       </c>
-      <c r="H9" s="118" t="s">
+      <c r="H9" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="119"/>
+      <c r="I9" s="140"/>
       <c r="J9" s="47">
         <v>1</v>
       </c>
@@ -23189,8 +23195,8 @@
       </c>
     </row>
     <row r="10" spans="2:201" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="116"/>
-      <c r="C10" s="114"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="74">
         <v>1.1943655286343625E-2</v>
       </c>
@@ -23200,10 +23206,10 @@
       <c r="F10" s="76">
         <v>2.4405696583152021E-2</v>
       </c>
-      <c r="H10" s="120" t="s">
+      <c r="H10" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="121"/>
+      <c r="I10" s="142"/>
       <c r="J10" s="65">
         <f>1/(1+EXP(-SUMPRODUCT(J3:L6,$D$3:$F$6)+$D$15))</f>
         <v>1.1779417339519331E-2</v>
@@ -23974,8 +23980,8 @@
       </c>
     </row>
     <row r="11" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="116"/>
-      <c r="C11" s="112">
+      <c r="B11" s="137"/>
+      <c r="C11" s="133">
         <v>3</v>
       </c>
       <c r="D11" s="71">
@@ -24183,8 +24189,8 @@
       <c r="GS11" s="51"/>
     </row>
     <row r="12" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="116"/>
-      <c r="C12" s="113"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="74">
         <v>0</v>
       </c>
@@ -24389,8 +24395,8 @@
       <c r="GS12" s="21"/>
     </row>
     <row r="13" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="116"/>
-      <c r="C13" s="113"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="74">
         <v>0</v>
       </c>
@@ -24530,8 +24536,8 @@
       <c r="GS13" s="21"/>
     </row>
     <row r="14" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="116"/>
-      <c r="C14" s="114"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="77">
         <v>1.6173377257457294E-2</v>
       </c>
@@ -24671,7 +24677,7 @@
       <c r="GS14" s="21"/>
     </row>
     <row r="15" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="117"/>
+      <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
         <v>9</v>
       </c>
@@ -24814,7 +24820,7 @@
       <c r="GS15" s="21"/>
     </row>
     <row r="16" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="136" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="5">
@@ -24829,10 +24835,10 @@
       <c r="F16" s="62">
         <v>4.9948166575926406E-2</v>
       </c>
-      <c r="H16" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="119"/>
+      <c r="H16" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="140"/>
       <c r="J16" s="47">
         <v>1</v>
       </c>
@@ -25283,7 +25289,7 @@
       <c r="GS16" s="54"/>
     </row>
     <row r="17" spans="2:202" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="116"/>
+      <c r="B17" s="137"/>
       <c r="C17" s="34">
         <v>2</v>
       </c>
@@ -25296,10 +25302,10 @@
       <c r="F17" s="62">
         <v>10.508825428759916</v>
       </c>
-      <c r="H17" s="120" t="s">
+      <c r="H17" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="121"/>
+      <c r="I17" s="142"/>
       <c r="J17" s="67">
         <f>1/(1+EXP(-SUMPRODUCT($D$16:$F$16,J10:L10)+$D$18))</f>
         <v>0.99729847358420498</v>
@@ -25878,7 +25884,7 @@
       <c r="GS17" s="95"/>
     </row>
     <row r="18" spans="2:202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="117"/>
+      <c r="B18" s="138"/>
       <c r="C18" s="35" t="s">
         <v>9</v>
       </c>
@@ -26873,10 +26879,10 @@
       <c r="GQ21" s="1"/>
     </row>
     <row r="22" spans="2:202" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H22" s="118" t="s">
+      <c r="H22" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="119"/>
+      <c r="I22" s="140"/>
       <c r="J22" s="40">
         <f>IF(J17&gt;=K17,1,0)</f>
         <v>1</v>
@@ -27461,10 +27467,10 @@
         <f>COUNTIF(J23:GS23,"正")/COUNTA(J23:GS23)</f>
         <v>1</v>
       </c>
-      <c r="H23" s="118" t="s">
+      <c r="H23" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="122"/>
+      <c r="I23" s="143"/>
       <c r="J23" s="32" t="str">
         <f>IF(SUMPRODUCT(J7:K7,J22:K22)=1,"正","誤")</f>
         <v>正</v>
@@ -28249,6 +28255,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B3:B15"/>
     <mergeCell ref="C3:C6"/>
@@ -28258,11 +28269,6 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C11:C14"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28314,11 +28320,11 @@
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="124" t="s">
+      <c r="J2" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="125"/>
-      <c r="L2" s="126"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="147"/>
       <c r="N2" s="12" t="s">
         <v>29</v>
       </c>
@@ -28326,11 +28332,11 @@
       <c r="P2" s="12"/>
       <c r="S2" s="18"/>
       <c r="T2" s="53"/>
-      <c r="U2" s="124" t="s">
+      <c r="U2" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="125"/>
-      <c r="W2" s="126"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="147"/>
       <c r="Y2" s="12" t="s">
         <v>29</v>
       </c>
@@ -28338,10 +28344,10 @@
       <c r="AA2" s="12"/>
     </row>
     <row r="3" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="112">
+      <c r="C3" s="133">
         <v>1</v>
       </c>
       <c r="D3" s="71">
@@ -28404,8 +28410,8 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="116"/>
-      <c r="C4" s="113"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="134"/>
       <c r="D4" s="74">
         <f>例題_学習済!D4</f>
         <v>0</v>
@@ -28466,8 +28472,8 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="116"/>
-      <c r="C5" s="113"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="134"/>
       <c r="D5" s="74">
         <f>例題_学習済!D5</f>
         <v>0</v>
@@ -28528,8 +28534,8 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="116"/>
-      <c r="C6" s="114"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="74">
         <f>例題_学習済!D6</f>
         <v>4.7530809944782435</v>
@@ -28590,8 +28596,8 @@
       </c>
     </row>
     <row r="7" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="116"/>
-      <c r="C7" s="112">
+      <c r="B7" s="137"/>
+      <c r="C7" s="133">
         <v>2</v>
       </c>
       <c r="D7" s="71">
@@ -28616,8 +28622,8 @@
       <c r="V7" s="51"/>
     </row>
     <row r="8" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="116"/>
-      <c r="C8" s="113"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="134"/>
       <c r="D8" s="74">
         <f>例題_学習済!D8</f>
         <v>0.56872467967799278</v>
@@ -28632,8 +28638,8 @@
       </c>
     </row>
     <row r="9" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="116"/>
-      <c r="C9" s="113"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="134"/>
       <c r="D9" s="74">
         <f>例題_学習済!D9</f>
         <v>0.6833065195081186</v>
@@ -28646,10 +28652,10 @@
         <f>例題_学習済!F9</f>
         <v>0.39974311308496541</v>
       </c>
-      <c r="H9" s="118" t="s">
+      <c r="H9" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="119"/>
+      <c r="I9" s="140"/>
       <c r="J9" s="47">
         <v>1</v>
       </c>
@@ -28659,10 +28665,10 @@
       <c r="L9" s="47">
         <v>3</v>
       </c>
-      <c r="S9" s="118" t="s">
+      <c r="S9" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="T9" s="119"/>
+      <c r="T9" s="140"/>
       <c r="U9" s="47">
         <v>1</v>
       </c>
@@ -28674,8 +28680,8 @@
       </c>
     </row>
     <row r="10" spans="2:27" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="116"/>
-      <c r="C10" s="114"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="74">
         <f>例題_学習済!D10</f>
         <v>1.1943655286343625E-2</v>
@@ -28688,10 +28694,10 @@
         <f>例題_学習済!F10</f>
         <v>2.4405696583152021E-2</v>
       </c>
-      <c r="H10" s="120" t="s">
+      <c r="H10" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="121"/>
+      <c r="I10" s="142"/>
       <c r="J10" s="65">
         <f>1/(1+EXP(-SUMPRODUCT(J3:L6,$D$3:$F$6)+$D$15))</f>
         <v>9.1427810030412018E-3</v>
@@ -28704,10 +28710,10 @@
         <f>1/(1+EXP(-SUMPRODUCT(J3:L6,$D$11:$F$14)+$F$15))</f>
         <v>3.9919804524753419E-3</v>
       </c>
-      <c r="S10" s="120" t="s">
+      <c r="S10" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="T10" s="121"/>
+      <c r="T10" s="142"/>
       <c r="U10" s="65">
         <f>1/(1+EXP(-SUMPRODUCT(U3:W6,$D$3:$F$6)+$D$15))</f>
         <v>0.25433507076451989</v>
@@ -28722,8 +28728,8 @@
       </c>
     </row>
     <row r="11" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="116"/>
-      <c r="C11" s="112">
+      <c r="B11" s="137"/>
+      <c r="C11" s="133">
         <v>3</v>
       </c>
       <c r="D11" s="71">
@@ -28750,8 +28756,8 @@
       <c r="W11" s="51"/>
     </row>
     <row r="12" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="116"/>
-      <c r="C12" s="113"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="74">
         <f>例題_学習済!D12</f>
         <v>0</v>
@@ -28774,8 +28780,8 @@
       <c r="W12" s="21"/>
     </row>
     <row r="13" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="116"/>
-      <c r="C13" s="113"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="74">
         <f>例題_学習済!D13</f>
         <v>0</v>
@@ -28792,8 +28798,8 @@
       <c r="W13" s="21"/>
     </row>
     <row r="14" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="116"/>
-      <c r="C14" s="114"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="77">
         <f>例題_学習済!D14</f>
         <v>1.6173377257457294E-2</v>
@@ -28810,7 +28816,7 @@
       <c r="W14" s="21"/>
     </row>
     <row r="15" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="117"/>
+      <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
         <v>9</v>
       </c>
@@ -28832,7 +28838,7 @@
       <c r="W15" s="21"/>
     </row>
     <row r="16" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="136" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="5">
@@ -28850,10 +28856,10 @@
         <f>例題_学習済!F16</f>
         <v>4.9948166575926406E-2</v>
       </c>
-      <c r="H16" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="119"/>
+      <c r="H16" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="140"/>
       <c r="J16" s="47">
         <v>1</v>
       </c>
@@ -28861,10 +28867,10 @@
         <v>2</v>
       </c>
       <c r="L16" s="54"/>
-      <c r="S16" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="T16" s="119"/>
+      <c r="S16" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" s="140"/>
       <c r="U16" s="47">
         <v>1</v>
       </c>
@@ -28874,7 +28880,7 @@
       <c r="W16" s="54"/>
     </row>
     <row r="17" spans="2:23" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="116"/>
+      <c r="B17" s="137"/>
       <c r="C17" s="34">
         <v>2</v>
       </c>
@@ -28890,10 +28896,10 @@
         <f>例題_学習済!F17</f>
         <v>10.508825428759916</v>
       </c>
-      <c r="H17" s="120" t="s">
+      <c r="H17" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="121"/>
+      <c r="I17" s="142"/>
       <c r="J17" s="67">
         <f>1/(1+EXP(-SUMPRODUCT($D$16:$F$16,J10:L10)+$D$18))</f>
         <v>0.9972842269988903</v>
@@ -28903,10 +28909,10 @@
         <v>2.7461914195362623E-3</v>
       </c>
       <c r="L17" s="92"/>
-      <c r="S17" s="120" t="s">
+      <c r="S17" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="T17" s="121"/>
+      <c r="T17" s="142"/>
       <c r="U17" s="67">
         <f>1/(1+EXP(-SUMPRODUCT($D$16:$F$16,U10:W10)+$D$18))</f>
         <v>6.6865696763405216E-3</v>
@@ -28918,7 +28924,7 @@
       <c r="W17" s="92"/>
     </row>
     <row r="18" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="117"/>
+      <c r="B18" s="138"/>
       <c r="C18" s="35" t="s">
         <v>9</v>
       </c>
@@ -28955,19 +28961,19 @@
       <c r="W19" s="21"/>
     </row>
     <row r="20" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H20" s="123" t="s">
+      <c r="H20" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="123"/>
+      <c r="I20" s="144"/>
       <c r="J20" s="34" t="str">
         <f>IF(J17&gt;=K17,"〇","×")</f>
         <v>〇</v>
       </c>
       <c r="K20" s="70"/>
-      <c r="S20" s="123" t="s">
+      <c r="S20" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="T20" s="123"/>
+      <c r="T20" s="144"/>
       <c r="U20" s="34" t="str">
         <f>IF(U17&gt;=V17,"〇","×")</f>
         <v>×</v>
@@ -28998,12 +29004,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -29015,6 +29015,12 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C11:C14"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="N3:P6">

--- a/4.xlsx
+++ b/4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/workspace/Excel-AI-Book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F17AF0-0F6F-624D-A516-074F5CB45699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43E6ACD-52FF-AC4D-933F-FAA41BF5EE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51060" windowHeight="26960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18060" yWindow="500" windowWidth="33000" windowHeight="26960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,18 +430,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -454,7 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFF893B4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,7 +871,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1172,76 +1160,34 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1253,10 +1199,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1276,9 +1225,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1327,6 +1273,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1385,6 +1391,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF893B4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1698,399 +1709,399 @@
       </c>
     </row>
     <row r="4" spans="2:201" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="117" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="118"/>
-      <c r="J4" s="123">
-        <v>1</v>
-      </c>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="123">
+      <c r="H4" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="111"/>
+      <c r="J4" s="103">
+        <v>1</v>
+      </c>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="103">
         <f>J4+1</f>
         <v>2</v>
       </c>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="123">
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="103">
         <f>M4+1</f>
         <v>3</v>
       </c>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="123">
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="103">
         <f>P4+1</f>
         <v>4</v>
       </c>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="123">
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="103">
         <f>S4+1</f>
         <v>5</v>
       </c>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="123">
+      <c r="W4" s="104"/>
+      <c r="X4" s="104"/>
+      <c r="Y4" s="103">
         <f>V4+1</f>
         <v>6</v>
       </c>
-      <c r="Z4" s="124"/>
-      <c r="AA4" s="124"/>
-      <c r="AB4" s="123">
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="103">
         <f>Y4+1</f>
         <v>7</v>
       </c>
-      <c r="AC4" s="124"/>
-      <c r="AD4" s="124"/>
-      <c r="AE4" s="123">
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="104"/>
+      <c r="AE4" s="103">
         <f>AB4+1</f>
         <v>8</v>
       </c>
-      <c r="AF4" s="124"/>
-      <c r="AG4" s="124"/>
-      <c r="AH4" s="123">
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="103">
         <f>AE4+1</f>
         <v>9</v>
       </c>
-      <c r="AI4" s="124"/>
-      <c r="AJ4" s="124"/>
-      <c r="AK4" s="123">
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="103">
         <f>AH4+1</f>
         <v>10</v>
       </c>
-      <c r="AL4" s="124"/>
-      <c r="AM4" s="124"/>
-      <c r="AN4" s="123">
+      <c r="AL4" s="104"/>
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="103">
         <f>AK4+1</f>
         <v>11</v>
       </c>
-      <c r="AO4" s="124"/>
-      <c r="AP4" s="124"/>
-      <c r="AQ4" s="123">
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="103">
         <f>AN4+1</f>
         <v>12</v>
       </c>
-      <c r="AR4" s="124"/>
-      <c r="AS4" s="124"/>
-      <c r="AT4" s="123">
+      <c r="AR4" s="104"/>
+      <c r="AS4" s="104"/>
+      <c r="AT4" s="103">
         <f>AQ4+1</f>
         <v>13</v>
       </c>
-      <c r="AU4" s="124"/>
-      <c r="AV4" s="124"/>
-      <c r="AW4" s="123">
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="103">
         <f>AT4+1</f>
         <v>14</v>
       </c>
-      <c r="AX4" s="124"/>
-      <c r="AY4" s="124"/>
-      <c r="AZ4" s="123">
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="104"/>
+      <c r="AZ4" s="103">
         <f>AW4+1</f>
         <v>15</v>
       </c>
-      <c r="BA4" s="124"/>
-      <c r="BB4" s="124"/>
-      <c r="BC4" s="123">
+      <c r="BA4" s="104"/>
+      <c r="BB4" s="104"/>
+      <c r="BC4" s="103">
         <f>AZ4+1</f>
         <v>16</v>
       </c>
-      <c r="BD4" s="124"/>
-      <c r="BE4" s="124"/>
-      <c r="BF4" s="123">
+      <c r="BD4" s="104"/>
+      <c r="BE4" s="104"/>
+      <c r="BF4" s="103">
         <f>BC4+1</f>
         <v>17</v>
       </c>
-      <c r="BG4" s="124"/>
-      <c r="BH4" s="124"/>
-      <c r="BI4" s="123">
+      <c r="BG4" s="104"/>
+      <c r="BH4" s="104"/>
+      <c r="BI4" s="103">
         <f>BF4+1</f>
         <v>18</v>
       </c>
-      <c r="BJ4" s="124"/>
-      <c r="BK4" s="124"/>
-      <c r="BL4" s="123">
+      <c r="BJ4" s="104"/>
+      <c r="BK4" s="104"/>
+      <c r="BL4" s="103">
         <f>BI4+1</f>
         <v>19</v>
       </c>
-      <c r="BM4" s="124"/>
-      <c r="BN4" s="124"/>
-      <c r="BO4" s="123">
+      <c r="BM4" s="104"/>
+      <c r="BN4" s="104"/>
+      <c r="BO4" s="103">
         <f>BL4+1</f>
         <v>20</v>
       </c>
-      <c r="BP4" s="124"/>
-      <c r="BQ4" s="124"/>
-      <c r="BR4" s="123">
+      <c r="BP4" s="104"/>
+      <c r="BQ4" s="104"/>
+      <c r="BR4" s="103">
         <f>BO4+1</f>
         <v>21</v>
       </c>
-      <c r="BS4" s="124"/>
-      <c r="BT4" s="124"/>
-      <c r="BU4" s="123">
+      <c r="BS4" s="104"/>
+      <c r="BT4" s="104"/>
+      <c r="BU4" s="103">
         <f>BR4+1</f>
         <v>22</v>
       </c>
-      <c r="BV4" s="124"/>
-      <c r="BW4" s="124"/>
-      <c r="BX4" s="123">
+      <c r="BV4" s="104"/>
+      <c r="BW4" s="104"/>
+      <c r="BX4" s="103">
         <f>BU4+1</f>
         <v>23</v>
       </c>
-      <c r="BY4" s="124"/>
-      <c r="BZ4" s="124"/>
-      <c r="CA4" s="123">
+      <c r="BY4" s="104"/>
+      <c r="BZ4" s="104"/>
+      <c r="CA4" s="103">
         <f>BX4+1</f>
         <v>24</v>
       </c>
-      <c r="CB4" s="124"/>
-      <c r="CC4" s="124"/>
-      <c r="CD4" s="123">
+      <c r="CB4" s="104"/>
+      <c r="CC4" s="104"/>
+      <c r="CD4" s="103">
         <f>CA4+1</f>
         <v>25</v>
       </c>
-      <c r="CE4" s="124"/>
-      <c r="CF4" s="124"/>
-      <c r="CG4" s="123">
+      <c r="CE4" s="104"/>
+      <c r="CF4" s="104"/>
+      <c r="CG4" s="103">
         <f>CD4+1</f>
         <v>26</v>
       </c>
-      <c r="CH4" s="124"/>
-      <c r="CI4" s="124"/>
-      <c r="CJ4" s="123">
+      <c r="CH4" s="104"/>
+      <c r="CI4" s="104"/>
+      <c r="CJ4" s="103">
         <f>CG4+1</f>
         <v>27</v>
       </c>
-      <c r="CK4" s="124"/>
-      <c r="CL4" s="124"/>
-      <c r="CM4" s="123">
+      <c r="CK4" s="104"/>
+      <c r="CL4" s="104"/>
+      <c r="CM4" s="103">
         <f>CJ4+1</f>
         <v>28</v>
       </c>
-      <c r="CN4" s="124"/>
-      <c r="CO4" s="124"/>
-      <c r="CP4" s="123">
+      <c r="CN4" s="104"/>
+      <c r="CO4" s="104"/>
+      <c r="CP4" s="103">
         <f>CM4+1</f>
         <v>29</v>
       </c>
-      <c r="CQ4" s="124"/>
-      <c r="CR4" s="124"/>
-      <c r="CS4" s="123">
+      <c r="CQ4" s="104"/>
+      <c r="CR4" s="104"/>
+      <c r="CS4" s="103">
         <f>CP4+1</f>
         <v>30</v>
       </c>
-      <c r="CT4" s="124"/>
-      <c r="CU4" s="124"/>
-      <c r="CV4" s="123">
+      <c r="CT4" s="104"/>
+      <c r="CU4" s="104"/>
+      <c r="CV4" s="103">
         <f>CS4+1</f>
         <v>31</v>
       </c>
-      <c r="CW4" s="124"/>
-      <c r="CX4" s="124"/>
-      <c r="CY4" s="123">
+      <c r="CW4" s="104"/>
+      <c r="CX4" s="104"/>
+      <c r="CY4" s="103">
         <f>CV4+1</f>
         <v>32</v>
       </c>
-      <c r="CZ4" s="124"/>
-      <c r="DA4" s="124"/>
-      <c r="DB4" s="123">
+      <c r="CZ4" s="104"/>
+      <c r="DA4" s="104"/>
+      <c r="DB4" s="103">
         <f>CY4+1</f>
         <v>33</v>
       </c>
-      <c r="DC4" s="124"/>
-      <c r="DD4" s="124"/>
-      <c r="DE4" s="123">
+      <c r="DC4" s="104"/>
+      <c r="DD4" s="104"/>
+      <c r="DE4" s="103">
         <f>DB4+1</f>
         <v>34</v>
       </c>
-      <c r="DF4" s="124"/>
-      <c r="DG4" s="124"/>
-      <c r="DH4" s="123">
+      <c r="DF4" s="104"/>
+      <c r="DG4" s="104"/>
+      <c r="DH4" s="103">
         <f>DE4+1</f>
         <v>35</v>
       </c>
-      <c r="DI4" s="124"/>
-      <c r="DJ4" s="124"/>
-      <c r="DK4" s="123">
+      <c r="DI4" s="104"/>
+      <c r="DJ4" s="104"/>
+      <c r="DK4" s="103">
         <f>DH4+1</f>
         <v>36</v>
       </c>
-      <c r="DL4" s="124"/>
-      <c r="DM4" s="124"/>
-      <c r="DN4" s="123">
+      <c r="DL4" s="104"/>
+      <c r="DM4" s="104"/>
+      <c r="DN4" s="103">
         <f>DK4+1</f>
         <v>37</v>
       </c>
-      <c r="DO4" s="124"/>
-      <c r="DP4" s="124"/>
-      <c r="DQ4" s="123">
+      <c r="DO4" s="104"/>
+      <c r="DP4" s="104"/>
+      <c r="DQ4" s="103">
         <f>DN4+1</f>
         <v>38</v>
       </c>
-      <c r="DR4" s="124"/>
-      <c r="DS4" s="124"/>
-      <c r="DT4" s="123">
+      <c r="DR4" s="104"/>
+      <c r="DS4" s="104"/>
+      <c r="DT4" s="103">
         <f>DQ4+1</f>
         <v>39</v>
       </c>
-      <c r="DU4" s="124"/>
-      <c r="DV4" s="124"/>
-      <c r="DW4" s="123">
+      <c r="DU4" s="104"/>
+      <c r="DV4" s="104"/>
+      <c r="DW4" s="103">
         <f>DT4+1</f>
         <v>40</v>
       </c>
-      <c r="DX4" s="124"/>
-      <c r="DY4" s="124"/>
-      <c r="DZ4" s="123">
+      <c r="DX4" s="104"/>
+      <c r="DY4" s="104"/>
+      <c r="DZ4" s="103">
         <f>DW4+1</f>
         <v>41</v>
       </c>
-      <c r="EA4" s="124"/>
-      <c r="EB4" s="124"/>
-      <c r="EC4" s="123">
+      <c r="EA4" s="104"/>
+      <c r="EB4" s="104"/>
+      <c r="EC4" s="103">
         <f>DZ4+1</f>
         <v>42</v>
       </c>
-      <c r="ED4" s="124"/>
-      <c r="EE4" s="124"/>
-      <c r="EF4" s="123">
+      <c r="ED4" s="104"/>
+      <c r="EE4" s="104"/>
+      <c r="EF4" s="103">
         <f>EC4+1</f>
         <v>43</v>
       </c>
-      <c r="EG4" s="124"/>
-      <c r="EH4" s="124"/>
-      <c r="EI4" s="123">
+      <c r="EG4" s="104"/>
+      <c r="EH4" s="104"/>
+      <c r="EI4" s="103">
         <f>EF4+1</f>
         <v>44</v>
       </c>
-      <c r="EJ4" s="124"/>
-      <c r="EK4" s="124"/>
-      <c r="EL4" s="123">
+      <c r="EJ4" s="104"/>
+      <c r="EK4" s="104"/>
+      <c r="EL4" s="103">
         <f>EI4+1</f>
         <v>45</v>
       </c>
-      <c r="EM4" s="124"/>
-      <c r="EN4" s="124"/>
-      <c r="EO4" s="123">
+      <c r="EM4" s="104"/>
+      <c r="EN4" s="104"/>
+      <c r="EO4" s="103">
         <f>EL4+1</f>
         <v>46</v>
       </c>
-      <c r="EP4" s="124"/>
-      <c r="EQ4" s="124"/>
-      <c r="ER4" s="123">
+      <c r="EP4" s="104"/>
+      <c r="EQ4" s="104"/>
+      <c r="ER4" s="103">
         <f>EO4+1</f>
         <v>47</v>
       </c>
-      <c r="ES4" s="124"/>
-      <c r="ET4" s="124"/>
-      <c r="EU4" s="123">
+      <c r="ES4" s="104"/>
+      <c r="ET4" s="104"/>
+      <c r="EU4" s="103">
         <f>ER4+1</f>
         <v>48</v>
       </c>
-      <c r="EV4" s="124"/>
-      <c r="EW4" s="124"/>
-      <c r="EX4" s="123">
+      <c r="EV4" s="104"/>
+      <c r="EW4" s="104"/>
+      <c r="EX4" s="103">
         <f>EU4+1</f>
         <v>49</v>
       </c>
-      <c r="EY4" s="124"/>
-      <c r="EZ4" s="124"/>
-      <c r="FA4" s="123">
+      <c r="EY4" s="104"/>
+      <c r="EZ4" s="104"/>
+      <c r="FA4" s="103">
         <f>EX4+1</f>
         <v>50</v>
       </c>
-      <c r="FB4" s="124"/>
-      <c r="FC4" s="124"/>
-      <c r="FD4" s="123">
+      <c r="FB4" s="104"/>
+      <c r="FC4" s="104"/>
+      <c r="FD4" s="103">
         <f>FA4+1</f>
         <v>51</v>
       </c>
-      <c r="FE4" s="124"/>
-      <c r="FF4" s="124"/>
-      <c r="FG4" s="123">
+      <c r="FE4" s="104"/>
+      <c r="FF4" s="104"/>
+      <c r="FG4" s="103">
         <f>FD4+1</f>
         <v>52</v>
       </c>
-      <c r="FH4" s="124"/>
-      <c r="FI4" s="124"/>
-      <c r="FJ4" s="123">
+      <c r="FH4" s="104"/>
+      <c r="FI4" s="104"/>
+      <c r="FJ4" s="103">
         <f>FG4+1</f>
         <v>53</v>
       </c>
-      <c r="FK4" s="124"/>
-      <c r="FL4" s="124"/>
-      <c r="FM4" s="123">
+      <c r="FK4" s="104"/>
+      <c r="FL4" s="104"/>
+      <c r="FM4" s="103">
         <f>FJ4+1</f>
         <v>54</v>
       </c>
-      <c r="FN4" s="124"/>
-      <c r="FO4" s="124"/>
-      <c r="FP4" s="123">
+      <c r="FN4" s="104"/>
+      <c r="FO4" s="104"/>
+      <c r="FP4" s="103">
         <f>FM4+1</f>
         <v>55</v>
       </c>
-      <c r="FQ4" s="124"/>
-      <c r="FR4" s="124"/>
-      <c r="FS4" s="123">
+      <c r="FQ4" s="104"/>
+      <c r="FR4" s="104"/>
+      <c r="FS4" s="103">
         <f>FP4+1</f>
         <v>56</v>
       </c>
-      <c r="FT4" s="124"/>
-      <c r="FU4" s="124"/>
-      <c r="FV4" s="123">
+      <c r="FT4" s="104"/>
+      <c r="FU4" s="104"/>
+      <c r="FV4" s="103">
         <f>FS4+1</f>
         <v>57</v>
       </c>
-      <c r="FW4" s="124"/>
-      <c r="FX4" s="124"/>
-      <c r="FY4" s="123">
+      <c r="FW4" s="104"/>
+      <c r="FX4" s="104"/>
+      <c r="FY4" s="103">
         <f>FV4+1</f>
         <v>58</v>
       </c>
-      <c r="FZ4" s="124"/>
-      <c r="GA4" s="124"/>
-      <c r="GB4" s="123">
+      <c r="FZ4" s="104"/>
+      <c r="GA4" s="104"/>
+      <c r="GB4" s="103">
         <f>FY4+1</f>
         <v>59</v>
       </c>
-      <c r="GC4" s="124"/>
-      <c r="GD4" s="124"/>
-      <c r="GE4" s="123">
+      <c r="GC4" s="104"/>
+      <c r="GD4" s="104"/>
+      <c r="GE4" s="103">
         <f>GB4+1</f>
         <v>60</v>
       </c>
-      <c r="GF4" s="124"/>
-      <c r="GG4" s="124"/>
-      <c r="GH4" s="123">
+      <c r="GF4" s="104"/>
+      <c r="GG4" s="104"/>
+      <c r="GH4" s="103">
         <f>GE4+1</f>
         <v>61</v>
       </c>
-      <c r="GI4" s="124"/>
-      <c r="GJ4" s="124"/>
-      <c r="GK4" s="123">
+      <c r="GI4" s="104"/>
+      <c r="GJ4" s="104"/>
+      <c r="GK4" s="103">
         <f>GH4+1</f>
         <v>62</v>
       </c>
-      <c r="GL4" s="124"/>
-      <c r="GM4" s="124"/>
-      <c r="GN4" s="123">
+      <c r="GL4" s="104"/>
+      <c r="GM4" s="104"/>
+      <c r="GN4" s="103">
         <f>GK4+1</f>
         <v>63</v>
       </c>
-      <c r="GO4" s="124"/>
-      <c r="GP4" s="124"/>
-      <c r="GQ4" s="123">
+      <c r="GO4" s="104"/>
+      <c r="GP4" s="104"/>
+      <c r="GQ4" s="103">
         <f>GN4+1</f>
         <v>64</v>
       </c>
-      <c r="GR4" s="124"/>
-      <c r="GS4" s="131"/>
+      <c r="GR4" s="104"/>
+      <c r="GS4" s="105"/>
     </row>
     <row r="5" spans="2:201" x14ac:dyDescent="0.2">
-      <c r="H5" s="125" t="s">
+      <c r="H5" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="126"/>
+      <c r="I5" s="113"/>
       <c r="J5" s="6">
         <v>1</v>
       </c>
@@ -2669,8 +2680,8 @@
       </c>
     </row>
     <row r="6" spans="2:201" x14ac:dyDescent="0.2">
-      <c r="H6" s="127"/>
-      <c r="I6" s="128"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="115"/>
       <c r="J6" s="9">
         <v>1</v>
       </c>
@@ -3249,8 +3260,8 @@
       </c>
     </row>
     <row r="7" spans="2:201" x14ac:dyDescent="0.2">
-      <c r="H7" s="127"/>
-      <c r="I7" s="128"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="115"/>
       <c r="J7" s="9">
         <v>1</v>
       </c>
@@ -3829,8 +3840,8 @@
       </c>
     </row>
     <row r="8" spans="2:201" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="129"/>
-      <c r="I8" s="130"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="117"/>
       <c r="J8" s="11">
         <v>1</v>
       </c>
@@ -4409,10 +4420,10 @@
       </c>
     </row>
     <row r="9" spans="2:201" x14ac:dyDescent="0.2">
-      <c r="H9" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="118"/>
+      <c r="H9" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="111"/>
       <c r="J9" s="28" t="s">
         <v>12</v>
       </c>
@@ -4746,390 +4757,390 @@
       <c r="I15" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="117">
+      <c r="J15" s="109">
         <f>J4</f>
         <v>1</v>
       </c>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="117">
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="109">
         <f>M4</f>
         <v>2</v>
       </c>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="117">
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="109">
         <f>P4</f>
         <v>3</v>
       </c>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="117">
+      <c r="Q15" s="110"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="109">
         <f>S4</f>
         <v>4</v>
       </c>
-      <c r="T15" s="119"/>
-      <c r="U15" s="119"/>
-      <c r="V15" s="117">
+      <c r="T15" s="110"/>
+      <c r="U15" s="110"/>
+      <c r="V15" s="109">
         <f>V4</f>
         <v>5</v>
       </c>
-      <c r="W15" s="119"/>
-      <c r="X15" s="119"/>
-      <c r="Y15" s="117">
+      <c r="W15" s="110"/>
+      <c r="X15" s="110"/>
+      <c r="Y15" s="109">
         <f>Y4</f>
         <v>6</v>
       </c>
-      <c r="Z15" s="119"/>
-      <c r="AA15" s="119"/>
-      <c r="AB15" s="117">
+      <c r="Z15" s="110"/>
+      <c r="AA15" s="110"/>
+      <c r="AB15" s="109">
         <f>AB4</f>
         <v>7</v>
       </c>
-      <c r="AC15" s="119"/>
-      <c r="AD15" s="119"/>
-      <c r="AE15" s="117">
+      <c r="AC15" s="110"/>
+      <c r="AD15" s="110"/>
+      <c r="AE15" s="109">
         <f>AE4</f>
         <v>8</v>
       </c>
-      <c r="AF15" s="119"/>
-      <c r="AG15" s="119"/>
-      <c r="AH15" s="117">
+      <c r="AF15" s="110"/>
+      <c r="AG15" s="110"/>
+      <c r="AH15" s="109">
         <f>AH4</f>
         <v>9</v>
       </c>
-      <c r="AI15" s="119"/>
-      <c r="AJ15" s="119"/>
-      <c r="AK15" s="117">
+      <c r="AI15" s="110"/>
+      <c r="AJ15" s="110"/>
+      <c r="AK15" s="109">
         <f>AK4</f>
         <v>10</v>
       </c>
-      <c r="AL15" s="119"/>
-      <c r="AM15" s="119"/>
-      <c r="AN15" s="117">
+      <c r="AL15" s="110"/>
+      <c r="AM15" s="110"/>
+      <c r="AN15" s="109">
         <f>AN4</f>
         <v>11</v>
       </c>
-      <c r="AO15" s="119"/>
-      <c r="AP15" s="119"/>
-      <c r="AQ15" s="117">
+      <c r="AO15" s="110"/>
+      <c r="AP15" s="110"/>
+      <c r="AQ15" s="109">
         <f>AQ4</f>
         <v>12</v>
       </c>
-      <c r="AR15" s="119"/>
-      <c r="AS15" s="119"/>
-      <c r="AT15" s="117">
+      <c r="AR15" s="110"/>
+      <c r="AS15" s="110"/>
+      <c r="AT15" s="109">
         <f>AT4</f>
         <v>13</v>
       </c>
-      <c r="AU15" s="119"/>
-      <c r="AV15" s="119"/>
-      <c r="AW15" s="117">
+      <c r="AU15" s="110"/>
+      <c r="AV15" s="110"/>
+      <c r="AW15" s="109">
         <f>AW4</f>
         <v>14</v>
       </c>
-      <c r="AX15" s="119"/>
-      <c r="AY15" s="119"/>
-      <c r="AZ15" s="117">
+      <c r="AX15" s="110"/>
+      <c r="AY15" s="110"/>
+      <c r="AZ15" s="109">
         <f>AZ4</f>
         <v>15</v>
       </c>
-      <c r="BA15" s="119"/>
-      <c r="BB15" s="119"/>
-      <c r="BC15" s="117">
+      <c r="BA15" s="110"/>
+      <c r="BB15" s="110"/>
+      <c r="BC15" s="109">
         <f>BC4</f>
         <v>16</v>
       </c>
-      <c r="BD15" s="119"/>
-      <c r="BE15" s="119"/>
-      <c r="BF15" s="117">
+      <c r="BD15" s="110"/>
+      <c r="BE15" s="110"/>
+      <c r="BF15" s="109">
         <f>BF4</f>
         <v>17</v>
       </c>
-      <c r="BG15" s="119"/>
-      <c r="BH15" s="119"/>
-      <c r="BI15" s="117">
+      <c r="BG15" s="110"/>
+      <c r="BH15" s="110"/>
+      <c r="BI15" s="109">
         <f>BI4</f>
         <v>18</v>
       </c>
-      <c r="BJ15" s="119"/>
-      <c r="BK15" s="119"/>
-      <c r="BL15" s="117">
+      <c r="BJ15" s="110"/>
+      <c r="BK15" s="110"/>
+      <c r="BL15" s="109">
         <f>BL4</f>
         <v>19</v>
       </c>
-      <c r="BM15" s="119"/>
-      <c r="BN15" s="119"/>
-      <c r="BO15" s="117">
+      <c r="BM15" s="110"/>
+      <c r="BN15" s="110"/>
+      <c r="BO15" s="109">
         <f>BO4</f>
         <v>20</v>
       </c>
-      <c r="BP15" s="119"/>
-      <c r="BQ15" s="119"/>
-      <c r="BR15" s="117">
+      <c r="BP15" s="110"/>
+      <c r="BQ15" s="110"/>
+      <c r="BR15" s="109">
         <f>BR4</f>
         <v>21</v>
       </c>
-      <c r="BS15" s="119"/>
-      <c r="BT15" s="119"/>
-      <c r="BU15" s="117">
+      <c r="BS15" s="110"/>
+      <c r="BT15" s="110"/>
+      <c r="BU15" s="109">
         <f>BU4</f>
         <v>22</v>
       </c>
-      <c r="BV15" s="119"/>
-      <c r="BW15" s="119"/>
-      <c r="BX15" s="117">
+      <c r="BV15" s="110"/>
+      <c r="BW15" s="110"/>
+      <c r="BX15" s="109">
         <f>BX4</f>
         <v>23</v>
       </c>
-      <c r="BY15" s="119"/>
-      <c r="BZ15" s="119"/>
-      <c r="CA15" s="117">
+      <c r="BY15" s="110"/>
+      <c r="BZ15" s="110"/>
+      <c r="CA15" s="109">
         <f>CA4</f>
         <v>24</v>
       </c>
-      <c r="CB15" s="119"/>
-      <c r="CC15" s="119"/>
-      <c r="CD15" s="117">
+      <c r="CB15" s="110"/>
+      <c r="CC15" s="110"/>
+      <c r="CD15" s="109">
         <f>CD4</f>
         <v>25</v>
       </c>
-      <c r="CE15" s="119"/>
-      <c r="CF15" s="119"/>
-      <c r="CG15" s="117">
+      <c r="CE15" s="110"/>
+      <c r="CF15" s="110"/>
+      <c r="CG15" s="109">
         <f>CG4</f>
         <v>26</v>
       </c>
-      <c r="CH15" s="119"/>
-      <c r="CI15" s="119"/>
-      <c r="CJ15" s="117">
+      <c r="CH15" s="110"/>
+      <c r="CI15" s="110"/>
+      <c r="CJ15" s="109">
         <f>CJ4</f>
         <v>27</v>
       </c>
-      <c r="CK15" s="119"/>
-      <c r="CL15" s="119"/>
-      <c r="CM15" s="117">
+      <c r="CK15" s="110"/>
+      <c r="CL15" s="110"/>
+      <c r="CM15" s="109">
         <f>CM4</f>
         <v>28</v>
       </c>
-      <c r="CN15" s="119"/>
-      <c r="CO15" s="119"/>
-      <c r="CP15" s="117">
+      <c r="CN15" s="110"/>
+      <c r="CO15" s="110"/>
+      <c r="CP15" s="109">
         <f>CP4</f>
         <v>29</v>
       </c>
-      <c r="CQ15" s="119"/>
-      <c r="CR15" s="119"/>
-      <c r="CS15" s="117">
+      <c r="CQ15" s="110"/>
+      <c r="CR15" s="110"/>
+      <c r="CS15" s="109">
         <f>CS4</f>
         <v>30</v>
       </c>
-      <c r="CT15" s="119"/>
-      <c r="CU15" s="119"/>
-      <c r="CV15" s="117">
+      <c r="CT15" s="110"/>
+      <c r="CU15" s="110"/>
+      <c r="CV15" s="109">
         <f>CV4</f>
         <v>31</v>
       </c>
-      <c r="CW15" s="119"/>
-      <c r="CX15" s="119"/>
-      <c r="CY15" s="117">
+      <c r="CW15" s="110"/>
+      <c r="CX15" s="110"/>
+      <c r="CY15" s="109">
         <f>CY4</f>
         <v>32</v>
       </c>
-      <c r="CZ15" s="119"/>
-      <c r="DA15" s="119"/>
-      <c r="DB15" s="117">
+      <c r="CZ15" s="110"/>
+      <c r="DA15" s="110"/>
+      <c r="DB15" s="109">
         <f>DB4</f>
         <v>33</v>
       </c>
-      <c r="DC15" s="119"/>
-      <c r="DD15" s="119"/>
-      <c r="DE15" s="117">
+      <c r="DC15" s="110"/>
+      <c r="DD15" s="110"/>
+      <c r="DE15" s="109">
         <f>DE4</f>
         <v>34</v>
       </c>
-      <c r="DF15" s="119"/>
-      <c r="DG15" s="119"/>
-      <c r="DH15" s="117">
+      <c r="DF15" s="110"/>
+      <c r="DG15" s="110"/>
+      <c r="DH15" s="109">
         <f>DH4</f>
         <v>35</v>
       </c>
-      <c r="DI15" s="119"/>
-      <c r="DJ15" s="119"/>
-      <c r="DK15" s="117">
+      <c r="DI15" s="110"/>
+      <c r="DJ15" s="110"/>
+      <c r="DK15" s="109">
         <f>DK4</f>
         <v>36</v>
       </c>
-      <c r="DL15" s="119"/>
-      <c r="DM15" s="119"/>
-      <c r="DN15" s="117">
+      <c r="DL15" s="110"/>
+      <c r="DM15" s="110"/>
+      <c r="DN15" s="109">
         <f>DN4</f>
         <v>37</v>
       </c>
-      <c r="DO15" s="119"/>
-      <c r="DP15" s="119"/>
-      <c r="DQ15" s="117">
+      <c r="DO15" s="110"/>
+      <c r="DP15" s="110"/>
+      <c r="DQ15" s="109">
         <f>DQ4</f>
         <v>38</v>
       </c>
-      <c r="DR15" s="119"/>
-      <c r="DS15" s="119"/>
-      <c r="DT15" s="117">
+      <c r="DR15" s="110"/>
+      <c r="DS15" s="110"/>
+      <c r="DT15" s="109">
         <f>DT4</f>
         <v>39</v>
       </c>
-      <c r="DU15" s="119"/>
-      <c r="DV15" s="119"/>
-      <c r="DW15" s="117">
+      <c r="DU15" s="110"/>
+      <c r="DV15" s="110"/>
+      <c r="DW15" s="109">
         <f>DW4</f>
         <v>40</v>
       </c>
-      <c r="DX15" s="119"/>
-      <c r="DY15" s="119"/>
-      <c r="DZ15" s="117">
+      <c r="DX15" s="110"/>
+      <c r="DY15" s="110"/>
+      <c r="DZ15" s="109">
         <f>DZ4</f>
         <v>41</v>
       </c>
-      <c r="EA15" s="119"/>
-      <c r="EB15" s="119"/>
-      <c r="EC15" s="117">
+      <c r="EA15" s="110"/>
+      <c r="EB15" s="110"/>
+      <c r="EC15" s="109">
         <f>EC4</f>
         <v>42</v>
       </c>
-      <c r="ED15" s="119"/>
-      <c r="EE15" s="119"/>
-      <c r="EF15" s="117">
+      <c r="ED15" s="110"/>
+      <c r="EE15" s="110"/>
+      <c r="EF15" s="109">
         <f>EF4</f>
         <v>43</v>
       </c>
-      <c r="EG15" s="119"/>
-      <c r="EH15" s="119"/>
-      <c r="EI15" s="117">
+      <c r="EG15" s="110"/>
+      <c r="EH15" s="110"/>
+      <c r="EI15" s="109">
         <f>EI4</f>
         <v>44</v>
       </c>
-      <c r="EJ15" s="119"/>
-      <c r="EK15" s="119"/>
-      <c r="EL15" s="117">
+      <c r="EJ15" s="110"/>
+      <c r="EK15" s="110"/>
+      <c r="EL15" s="109">
         <f>EL4</f>
         <v>45</v>
       </c>
-      <c r="EM15" s="119"/>
-      <c r="EN15" s="119"/>
-      <c r="EO15" s="117">
+      <c r="EM15" s="110"/>
+      <c r="EN15" s="110"/>
+      <c r="EO15" s="109">
         <f>EO4</f>
         <v>46</v>
       </c>
-      <c r="EP15" s="119"/>
-      <c r="EQ15" s="119"/>
-      <c r="ER15" s="117">
+      <c r="EP15" s="110"/>
+      <c r="EQ15" s="110"/>
+      <c r="ER15" s="109">
         <f>ER4</f>
         <v>47</v>
       </c>
-      <c r="ES15" s="119"/>
-      <c r="ET15" s="119"/>
-      <c r="EU15" s="117">
+      <c r="ES15" s="110"/>
+      <c r="ET15" s="110"/>
+      <c r="EU15" s="109">
         <f>EU4</f>
         <v>48</v>
       </c>
-      <c r="EV15" s="119"/>
-      <c r="EW15" s="119"/>
-      <c r="EX15" s="117">
+      <c r="EV15" s="110"/>
+      <c r="EW15" s="110"/>
+      <c r="EX15" s="109">
         <f>EX4</f>
         <v>49</v>
       </c>
-      <c r="EY15" s="119"/>
-      <c r="EZ15" s="119"/>
-      <c r="FA15" s="117">
+      <c r="EY15" s="110"/>
+      <c r="EZ15" s="110"/>
+      <c r="FA15" s="109">
         <f>FA4</f>
         <v>50</v>
       </c>
-      <c r="FB15" s="119"/>
-      <c r="FC15" s="119"/>
-      <c r="FD15" s="117">
+      <c r="FB15" s="110"/>
+      <c r="FC15" s="110"/>
+      <c r="FD15" s="109">
         <f>FD4</f>
         <v>51</v>
       </c>
-      <c r="FE15" s="119"/>
-      <c r="FF15" s="119"/>
-      <c r="FG15" s="117">
+      <c r="FE15" s="110"/>
+      <c r="FF15" s="110"/>
+      <c r="FG15" s="109">
         <f>FG4</f>
         <v>52</v>
       </c>
-      <c r="FH15" s="119"/>
-      <c r="FI15" s="119"/>
-      <c r="FJ15" s="117">
+      <c r="FH15" s="110"/>
+      <c r="FI15" s="110"/>
+      <c r="FJ15" s="109">
         <f>FJ4</f>
         <v>53</v>
       </c>
-      <c r="FK15" s="119"/>
-      <c r="FL15" s="119"/>
-      <c r="FM15" s="117">
+      <c r="FK15" s="110"/>
+      <c r="FL15" s="110"/>
+      <c r="FM15" s="109">
         <f>FM4</f>
         <v>54</v>
       </c>
-      <c r="FN15" s="119"/>
-      <c r="FO15" s="119"/>
-      <c r="FP15" s="117">
+      <c r="FN15" s="110"/>
+      <c r="FO15" s="110"/>
+      <c r="FP15" s="109">
         <f>FP4</f>
         <v>55</v>
       </c>
-      <c r="FQ15" s="119"/>
-      <c r="FR15" s="119"/>
-      <c r="FS15" s="117">
+      <c r="FQ15" s="110"/>
+      <c r="FR15" s="110"/>
+      <c r="FS15" s="109">
         <f>FS4</f>
         <v>56</v>
       </c>
-      <c r="FT15" s="119"/>
-      <c r="FU15" s="119"/>
-      <c r="FV15" s="117">
+      <c r="FT15" s="110"/>
+      <c r="FU15" s="110"/>
+      <c r="FV15" s="109">
         <f>FV4</f>
         <v>57</v>
       </c>
-      <c r="FW15" s="119"/>
-      <c r="FX15" s="119"/>
-      <c r="FY15" s="117">
+      <c r="FW15" s="110"/>
+      <c r="FX15" s="110"/>
+      <c r="FY15" s="109">
         <f>FY4</f>
         <v>58</v>
       </c>
-      <c r="FZ15" s="119"/>
-      <c r="GA15" s="119"/>
-      <c r="GB15" s="117">
+      <c r="FZ15" s="110"/>
+      <c r="GA15" s="110"/>
+      <c r="GB15" s="109">
         <f>GB4</f>
         <v>59</v>
       </c>
-      <c r="GC15" s="119"/>
-      <c r="GD15" s="119"/>
-      <c r="GE15" s="117">
+      <c r="GC15" s="110"/>
+      <c r="GD15" s="110"/>
+      <c r="GE15" s="109">
         <f>GE4</f>
         <v>60</v>
       </c>
-      <c r="GF15" s="119"/>
-      <c r="GG15" s="119"/>
-      <c r="GH15" s="117">
+      <c r="GF15" s="110"/>
+      <c r="GG15" s="110"/>
+      <c r="GH15" s="109">
         <f>GH4</f>
         <v>61</v>
       </c>
-      <c r="GI15" s="119"/>
-      <c r="GJ15" s="119"/>
-      <c r="GK15" s="117">
+      <c r="GI15" s="110"/>
+      <c r="GJ15" s="110"/>
+      <c r="GK15" s="109">
         <f>GK4</f>
         <v>62</v>
       </c>
-      <c r="GL15" s="119"/>
-      <c r="GM15" s="119"/>
-      <c r="GN15" s="117">
+      <c r="GL15" s="110"/>
+      <c r="GM15" s="110"/>
+      <c r="GN15" s="109">
         <f>GN4</f>
         <v>63</v>
       </c>
-      <c r="GO15" s="119"/>
-      <c r="GP15" s="119"/>
-      <c r="GQ15" s="117">
+      <c r="GO15" s="110"/>
+      <c r="GP15" s="110"/>
+      <c r="GQ15" s="109">
         <f>GQ4</f>
         <v>64</v>
       </c>
-      <c r="GR15" s="119"/>
-      <c r="GS15" s="118"/>
+      <c r="GR15" s="110"/>
+      <c r="GS15" s="111"/>
     </row>
     <row r="16" spans="2:201" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H16" s="23"/>
@@ -5715,7 +5726,7 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" s="120" t="s">
+      <c r="H17" s="106" t="s">
         <v>3</v>
       </c>
       <c r="I17" s="25">
@@ -6494,7 +6505,7 @@
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="H18" s="121"/>
+      <c r="H18" s="107"/>
       <c r="I18" s="1">
         <v>2</v>
       </c>
@@ -7271,7 +7282,7 @@
       <c r="G19">
         <v>3</v>
       </c>
-      <c r="H19" s="121"/>
+      <c r="H19" s="107"/>
       <c r="I19" s="1">
         <v>3</v>
       </c>
@@ -8048,7 +8059,7 @@
       <c r="G20">
         <v>4</v>
       </c>
-      <c r="H20" s="122"/>
+      <c r="H20" s="108"/>
       <c r="I20" s="3">
         <v>4</v>
       </c>
@@ -8822,10 +8833,10 @@
       </c>
     </row>
     <row r="21" spans="7:201" x14ac:dyDescent="0.2">
-      <c r="H21" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="118"/>
+      <c r="H21" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="111"/>
       <c r="J21" s="3" t="s">
         <v>10</v>
       </c>
@@ -9149,115 +9160,6 @@
     </row>
   </sheetData>
   <mergeCells count="133">
-    <mergeCell ref="FA4:FC4"/>
-    <mergeCell ref="FD4:FF4"/>
-    <mergeCell ref="FG4:FI4"/>
-    <mergeCell ref="FJ4:FL4"/>
-    <mergeCell ref="FM4:FO4"/>
-    <mergeCell ref="EL4:EN4"/>
-    <mergeCell ref="EO4:EQ4"/>
-    <mergeCell ref="ER4:ET4"/>
-    <mergeCell ref="EU4:EW4"/>
-    <mergeCell ref="EX4:EZ4"/>
-    <mergeCell ref="GQ4:GS4"/>
-    <mergeCell ref="FP4:FR4"/>
-    <mergeCell ref="FS4:FU4"/>
-    <mergeCell ref="FV4:FX4"/>
-    <mergeCell ref="FY4:GA4"/>
-    <mergeCell ref="GB4:GD4"/>
-    <mergeCell ref="GE4:GG4"/>
-    <mergeCell ref="GH4:GJ4"/>
-    <mergeCell ref="GK4:GM4"/>
-    <mergeCell ref="GN4:GP4"/>
-    <mergeCell ref="DB4:DD4"/>
-    <mergeCell ref="DE4:DG4"/>
-    <mergeCell ref="DZ4:EB4"/>
-    <mergeCell ref="EC4:EE4"/>
-    <mergeCell ref="EF4:EH4"/>
-    <mergeCell ref="EI4:EK4"/>
-    <mergeCell ref="DH4:DJ4"/>
-    <mergeCell ref="DK4:DM4"/>
-    <mergeCell ref="DN4:DP4"/>
-    <mergeCell ref="DQ4:DS4"/>
-    <mergeCell ref="DT4:DV4"/>
-    <mergeCell ref="DW4:DY4"/>
-    <mergeCell ref="CA4:CC4"/>
-    <mergeCell ref="CD4:CF4"/>
-    <mergeCell ref="CG4:CI4"/>
-    <mergeCell ref="CJ4:CL4"/>
-    <mergeCell ref="CM4:CO4"/>
-    <mergeCell ref="CP4:CR4"/>
-    <mergeCell ref="CS4:CU4"/>
-    <mergeCell ref="CV4:CX4"/>
-    <mergeCell ref="CY4:DA4"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="BC4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BK4"/>
-    <mergeCell ref="BL4:BN4"/>
-    <mergeCell ref="BO4:BQ4"/>
-    <mergeCell ref="BR4:BT4"/>
-    <mergeCell ref="BU4:BW4"/>
-    <mergeCell ref="BX4:BZ4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AQ4:AS4"/>
-    <mergeCell ref="AT4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="AN15:AP15"/>
-    <mergeCell ref="AQ15:AS15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="BI15:BK15"/>
-    <mergeCell ref="BL15:BN15"/>
-    <mergeCell ref="BO15:BQ15"/>
-    <mergeCell ref="BR15:BT15"/>
-    <mergeCell ref="BU15:BW15"/>
-    <mergeCell ref="AT15:AV15"/>
-    <mergeCell ref="AW15:AY15"/>
-    <mergeCell ref="AZ15:BB15"/>
-    <mergeCell ref="BC15:BE15"/>
-    <mergeCell ref="BF15:BH15"/>
-    <mergeCell ref="CM15:CO15"/>
-    <mergeCell ref="CP15:CR15"/>
-    <mergeCell ref="CS15:CU15"/>
-    <mergeCell ref="CV15:CX15"/>
-    <mergeCell ref="CY15:DA15"/>
-    <mergeCell ref="BX15:BZ15"/>
-    <mergeCell ref="CA15:CC15"/>
-    <mergeCell ref="CD15:CF15"/>
-    <mergeCell ref="CG15:CI15"/>
-    <mergeCell ref="CJ15:CL15"/>
-    <mergeCell ref="DT15:DV15"/>
-    <mergeCell ref="DW15:DY15"/>
-    <mergeCell ref="DZ15:EB15"/>
-    <mergeCell ref="EC15:EE15"/>
-    <mergeCell ref="DB15:DD15"/>
-    <mergeCell ref="DE15:DG15"/>
-    <mergeCell ref="DH15:DJ15"/>
-    <mergeCell ref="DK15:DM15"/>
-    <mergeCell ref="DN15:DP15"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="GN15:GP15"/>
     <mergeCell ref="GQ15:GS15"/>
@@ -9282,6 +9184,115 @@
     <mergeCell ref="EO15:EQ15"/>
     <mergeCell ref="ER15:ET15"/>
     <mergeCell ref="DQ15:DS15"/>
+    <mergeCell ref="DT15:DV15"/>
+    <mergeCell ref="DW15:DY15"/>
+    <mergeCell ref="DZ15:EB15"/>
+    <mergeCell ref="EC15:EE15"/>
+    <mergeCell ref="DB15:DD15"/>
+    <mergeCell ref="DE15:DG15"/>
+    <mergeCell ref="DH15:DJ15"/>
+    <mergeCell ref="DK15:DM15"/>
+    <mergeCell ref="DN15:DP15"/>
+    <mergeCell ref="CM15:CO15"/>
+    <mergeCell ref="CP15:CR15"/>
+    <mergeCell ref="CS15:CU15"/>
+    <mergeCell ref="CV15:CX15"/>
+    <mergeCell ref="CY15:DA15"/>
+    <mergeCell ref="BX15:BZ15"/>
+    <mergeCell ref="CA15:CC15"/>
+    <mergeCell ref="CD15:CF15"/>
+    <mergeCell ref="CG15:CI15"/>
+    <mergeCell ref="CJ15:CL15"/>
+    <mergeCell ref="BI15:BK15"/>
+    <mergeCell ref="BL15:BN15"/>
+    <mergeCell ref="BO15:BQ15"/>
+    <mergeCell ref="BR15:BT15"/>
+    <mergeCell ref="BU15:BW15"/>
+    <mergeCell ref="AT15:AV15"/>
+    <mergeCell ref="AW15:AY15"/>
+    <mergeCell ref="AZ15:BB15"/>
+    <mergeCell ref="BC15:BE15"/>
+    <mergeCell ref="BF15:BH15"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="AN15:AP15"/>
+    <mergeCell ref="AQ15:AS15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="AT4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="BC4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BK4"/>
+    <mergeCell ref="BL4:BN4"/>
+    <mergeCell ref="BO4:BQ4"/>
+    <mergeCell ref="BR4:BT4"/>
+    <mergeCell ref="BU4:BW4"/>
+    <mergeCell ref="BX4:BZ4"/>
+    <mergeCell ref="CA4:CC4"/>
+    <mergeCell ref="CD4:CF4"/>
+    <mergeCell ref="CG4:CI4"/>
+    <mergeCell ref="CJ4:CL4"/>
+    <mergeCell ref="CM4:CO4"/>
+    <mergeCell ref="CP4:CR4"/>
+    <mergeCell ref="CS4:CU4"/>
+    <mergeCell ref="CV4:CX4"/>
+    <mergeCell ref="CY4:DA4"/>
+    <mergeCell ref="DB4:DD4"/>
+    <mergeCell ref="DE4:DG4"/>
+    <mergeCell ref="DZ4:EB4"/>
+    <mergeCell ref="EC4:EE4"/>
+    <mergeCell ref="EF4:EH4"/>
+    <mergeCell ref="EI4:EK4"/>
+    <mergeCell ref="DH4:DJ4"/>
+    <mergeCell ref="DK4:DM4"/>
+    <mergeCell ref="DN4:DP4"/>
+    <mergeCell ref="DQ4:DS4"/>
+    <mergeCell ref="DT4:DV4"/>
+    <mergeCell ref="DW4:DY4"/>
+    <mergeCell ref="GQ4:GS4"/>
+    <mergeCell ref="FP4:FR4"/>
+    <mergeCell ref="FS4:FU4"/>
+    <mergeCell ref="FV4:FX4"/>
+    <mergeCell ref="FY4:GA4"/>
+    <mergeCell ref="GB4:GD4"/>
+    <mergeCell ref="GE4:GG4"/>
+    <mergeCell ref="GH4:GJ4"/>
+    <mergeCell ref="GK4:GM4"/>
+    <mergeCell ref="GN4:GP4"/>
+    <mergeCell ref="FA4:FC4"/>
+    <mergeCell ref="FD4:FF4"/>
+    <mergeCell ref="FG4:FI4"/>
+    <mergeCell ref="FJ4:FL4"/>
+    <mergeCell ref="FM4:FO4"/>
+    <mergeCell ref="EL4:EN4"/>
+    <mergeCell ref="EO4:EQ4"/>
+    <mergeCell ref="ER4:ET4"/>
+    <mergeCell ref="EU4:EW4"/>
+    <mergeCell ref="EX4:EZ4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J17:L20">
@@ -9941,8 +9952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:GT21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="283" zoomScaleNormal="283" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="283" zoomScaleNormal="283" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9979,10 +9990,10 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="117" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="118"/>
+      <c r="H2" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="111"/>
       <c r="J2" s="25">
         <f>G2+1</f>
         <v>1</v>
@@ -10369,34 +10380,34 @@
       <c r="GS2" s="46"/>
     </row>
     <row r="3" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="133">
-        <v>1</v>
-      </c>
-      <c r="D3" s="105">
+      <c r="C3" s="119">
+        <v>1</v>
+      </c>
+      <c r="D3" s="97">
         <v>5.5E-2</v>
       </c>
-      <c r="E3" s="109">
+      <c r="E3" s="101">
         <v>0.16600000000000001</v>
       </c>
-      <c r="F3" s="103">
+      <c r="F3" s="96">
         <v>0.11700000000000001</v>
       </c>
-      <c r="H3" s="123" t="s">
+      <c r="H3" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="132"/>
-      <c r="J3" s="96">
+      <c r="I3" s="118"/>
+      <c r="J3" s="144">
         <f>Data!J5</f>
         <v>1</v>
       </c>
-      <c r="K3" s="102">
+      <c r="K3" s="145">
         <f>Data!K5</f>
         <v>1</v>
       </c>
-      <c r="L3" s="104">
+      <c r="L3" s="146">
         <f>Data!L5</f>
         <v>1</v>
       </c>
@@ -11158,28 +11169,28 @@
       </c>
     </row>
     <row r="4" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="137"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="106">
+      <c r="B4" s="123"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="98">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="E4" s="75">
+      <c r="E4" s="99">
         <v>0.33300000000000002</v>
       </c>
-      <c r="F4" s="108">
+      <c r="F4" s="100">
         <v>0.17899999999999999</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="56"/>
-      <c r="J4" s="97">
+      <c r="J4" s="147">
         <f>Data!J6</f>
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="148">
         <f>Data!K6</f>
         <v>0</v>
       </c>
-      <c r="L4" s="98">
+      <c r="L4" s="149">
         <f>Data!L6</f>
         <v>1</v>
       </c>
@@ -11941,28 +11952,28 @@
       </c>
     </row>
     <row r="5" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="137"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="106">
+      <c r="B5" s="123"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="98">
         <v>0.15</v>
       </c>
-      <c r="E5" s="75">
+      <c r="E5" s="99">
         <v>0.92300000000000004</v>
       </c>
-      <c r="F5" s="108">
+      <c r="F5" s="100">
         <v>0.11899999999999999</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="56"/>
-      <c r="J5" s="97">
+      <c r="J5" s="147">
         <f>Data!J7</f>
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="148">
         <f>Data!K7</f>
         <v>0</v>
       </c>
-      <c r="L5" s="98">
+      <c r="L5" s="149">
         <f>Data!L7</f>
         <v>1</v>
       </c>
@@ -12724,28 +12735,28 @@
       </c>
     </row>
     <row r="6" spans="2:201" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="137"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="106">
+      <c r="B6" s="123"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="98">
         <v>0.98</v>
       </c>
-      <c r="E6" s="107">
+      <c r="E6" s="99">
         <v>0.111</v>
       </c>
-      <c r="F6" s="108">
+      <c r="F6" s="100">
         <v>0.19800000000000001</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="57"/>
-      <c r="J6" s="99">
+      <c r="J6" s="150">
         <f>Data!J8</f>
         <v>1</v>
       </c>
-      <c r="K6" s="100">
+      <c r="K6" s="151">
         <f>Data!K8</f>
         <v>1</v>
       </c>
-      <c r="L6" s="101">
+      <c r="L6" s="152">
         <f>Data!L8</f>
         <v>1</v>
       </c>
@@ -13507,23 +13518,23 @@
       </c>
     </row>
     <row r="7" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="137"/>
-      <c r="C7" s="133">
-        <v>2</v>
-      </c>
-      <c r="D7" s="71">
+      <c r="B7" s="123"/>
+      <c r="C7" s="119">
+        <v>2</v>
+      </c>
+      <c r="D7" s="97">
         <v>0.08</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="101">
         <v>0.91200000000000003</v>
       </c>
-      <c r="F7" s="73">
+      <c r="F7" s="96">
         <v>0.121</v>
       </c>
-      <c r="H7" s="139" t="s">
+      <c r="H7" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="140"/>
+      <c r="I7" s="126"/>
       <c r="J7" s="5">
         <f>IF(Data!J9="〇",1,0)</f>
         <v>1</v>
@@ -14102,34 +14113,34 @@
       <c r="GS7" s="4"/>
     </row>
     <row r="8" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="137"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="74">
+      <c r="B8" s="123"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="98">
         <v>0.29399999999999998</v>
       </c>
-      <c r="E8" s="75">
+      <c r="E8" s="99">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F8" s="76">
+      <c r="F8" s="100">
         <v>0.20699999999999999</v>
       </c>
     </row>
     <row r="9" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="137"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="74">
+      <c r="B9" s="123"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="98">
         <v>0.34599999999999997</v>
       </c>
-      <c r="E9" s="75">
+      <c r="E9" s="99">
         <v>0.12</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="100">
         <v>0.218</v>
       </c>
-      <c r="H9" s="139" t="s">
+      <c r="H9" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="140"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="47">
         <v>1</v>
       </c>
@@ -14708,30 +14719,30 @@
       </c>
     </row>
     <row r="10" spans="2:201" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="137"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="74">
+      <c r="B10" s="123"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="98">
         <v>0.191</v>
       </c>
-      <c r="E10" s="75">
+      <c r="E10" s="99">
         <v>0.97199999999999998</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="100">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H10" s="141" t="s">
+      <c r="H10" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="142"/>
-      <c r="J10" s="115">
+      <c r="I10" s="128"/>
+      <c r="J10" s="142">
         <f>1/(1+EXP(-SUMPRODUCT(J3:L6,$D$3:$F$6)+$D$15))</f>
         <v>0.7658456258197972</v>
       </c>
-      <c r="K10" s="116">
+      <c r="K10" s="143">
         <f>1/(1+EXP(-SUMPRODUCT(J3:L6,$D$7:$F$10)+$E$15))</f>
         <v>0.92099911351520103</v>
       </c>
-      <c r="L10" s="116">
+      <c r="L10" s="143">
         <f>1/(1+EXP(-SUMPRODUCT(J3:L6,$D$11:$F$14)+$F$15))</f>
         <v>0.96789152481148033</v>
       </c>
@@ -15493,17 +15504,17 @@
       </c>
     </row>
     <row r="11" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="137"/>
-      <c r="C11" s="133">
+      <c r="B11" s="123"/>
+      <c r="C11" s="119">
         <v>3</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="97">
         <v>0.998</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="101">
         <v>0.16400000000000001</v>
       </c>
-      <c r="F11" s="73">
+      <c r="F11" s="96">
         <v>0.92800000000000005</v>
       </c>
       <c r="H11" s="49"/>
@@ -15711,15 +15722,15 @@
       <c r="GS11" s="53"/>
     </row>
     <row r="12" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="137"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="74">
+      <c r="B12" s="123"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="98">
         <v>0.89200000000000002</v>
       </c>
-      <c r="E12" s="75">
+      <c r="E12" s="99">
         <v>0.97299999999999998</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="100">
         <v>0.108</v>
       </c>
       <c r="H12" s="49"/>
@@ -15917,15 +15928,15 @@
       <c r="GS12" s="22"/>
     </row>
     <row r="13" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="137"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="74">
+      <c r="B13" s="123"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="98">
         <v>0.93600000000000005</v>
       </c>
-      <c r="E13" s="75">
+      <c r="E13" s="99">
         <v>0.11700000000000001</v>
       </c>
-      <c r="F13" s="76">
+      <c r="F13" s="100">
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="J13" s="1"/>
@@ -16060,15 +16071,15 @@
       <c r="GS13" s="22"/>
     </row>
     <row r="14" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="137"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="77">
+      <c r="B14" s="123"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="134">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="E14" s="78">
+      <c r="E14" s="135">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="F14" s="79">
+      <c r="F14" s="136">
         <v>0.13</v>
       </c>
       <c r="J14" s="1"/>
@@ -16201,17 +16212,17 @@
       <c r="GS14" s="22"/>
     </row>
     <row r="15" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="138"/>
+      <c r="B15" s="124"/>
       <c r="C15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="80">
+      <c r="D15" s="137">
         <v>0.96899999999999997</v>
       </c>
-      <c r="E15" s="80">
+      <c r="E15" s="137">
         <v>0.91700000000000004</v>
       </c>
-      <c r="F15" s="80">
+      <c r="F15" s="137">
         <v>0.94099999999999995</v>
       </c>
       <c r="J15" s="1"/>
@@ -16344,25 +16355,25 @@
       <c r="GS15" s="22"/>
     </row>
     <row r="16" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="122" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
-      <c r="D16" s="112">
+      <c r="D16" s="139">
         <v>0.18099999999999999</v>
       </c>
-      <c r="E16" s="113">
+      <c r="E16" s="140">
         <v>0.92300000000000004</v>
       </c>
-      <c r="F16" s="114">
+      <c r="F16" s="141">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H16" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="140"/>
+      <c r="H16" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="126"/>
       <c r="J16" s="47">
         <v>1</v>
       </c>
@@ -16813,28 +16824,28 @@
       <c r="GS16" s="36"/>
     </row>
     <row r="17" spans="2:202" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="137"/>
+      <c r="B17" s="123"/>
       <c r="C17" s="34">
         <v>2</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="139">
         <v>0.98699999999999999</v>
       </c>
-      <c r="E17" s="61">
+      <c r="E17" s="140">
         <v>0.10100000000000001</v>
       </c>
-      <c r="F17" s="62">
+      <c r="F17" s="141">
         <v>0.84199999999999997</v>
       </c>
-      <c r="H17" s="141" t="s">
+      <c r="H17" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="142"/>
-      <c r="J17" s="110">
+      <c r="I17" s="128"/>
+      <c r="J17" s="102">
         <f>1/(1+EXP(-SUMPRODUCT($D$16:$F$16,J10:L10)+$D$18))</f>
         <v>0.51243284239605658</v>
       </c>
-      <c r="K17" s="110">
+      <c r="K17" s="102">
         <f>1/(1+EXP(-SUMPRODUCT($D$17:$F$17,J10:L10)+$E$18))</f>
         <v>0.67345979259945399</v>
       </c>
@@ -17408,14 +17419,14 @@
       <c r="GS17" s="65"/>
     </row>
     <row r="18" spans="2:202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="138"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="138">
         <v>0.998</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E18" s="138">
         <v>0.94</v>
       </c>
       <c r="F18" s="64"/>
@@ -17949,7 +17960,7 @@
         <v>31.19400531292812</v>
       </c>
       <c r="I20" s="84"/>
-      <c r="J20" s="111">
+      <c r="J20" s="153">
         <f>SUMXMY2(J7:K7,J17:K17)</f>
         <v>0.69126982542208815</v>
       </c>
@@ -18428,8 +18439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:GT26"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:K17"/>
+    <sheetView topLeftCell="E1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18466,10 +18477,10 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="117" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="118"/>
+      <c r="H2" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="111"/>
       <c r="J2" s="25">
         <f>G2+1</f>
         <v>1</v>
@@ -18856,10 +18867,10 @@
       <c r="GS2" s="46"/>
     </row>
     <row r="3" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="133">
+      <c r="C3" s="119">
         <v>1</v>
       </c>
       <c r="D3" s="71">
@@ -18871,10 +18882,10 @@
       <c r="F3" s="73">
         <v>0.92489802724863956</v>
       </c>
-      <c r="H3" s="123" t="s">
+      <c r="H3" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="132"/>
+      <c r="I3" s="118"/>
       <c r="J3" s="6">
         <f>Data!J5</f>
         <v>1</v>
@@ -19645,8 +19656,8 @@
       </c>
     </row>
     <row r="4" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="137"/>
-      <c r="C4" s="134"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="74">
         <v>0</v>
       </c>
@@ -20428,8 +20439,8 @@
       </c>
     </row>
     <row r="5" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="137"/>
-      <c r="C5" s="134"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="120"/>
       <c r="D5" s="74">
         <v>0</v>
       </c>
@@ -21211,8 +21222,8 @@
       </c>
     </row>
     <row r="6" spans="2:201" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="137"/>
-      <c r="C6" s="135"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="121"/>
       <c r="D6" s="74">
         <v>4.7530809944782435</v>
       </c>
@@ -21994,8 +22005,8 @@
       </c>
     </row>
     <row r="7" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="137"/>
-      <c r="C7" s="133">
+      <c r="B7" s="123"/>
+      <c r="C7" s="119">
         <v>2</v>
       </c>
       <c r="D7" s="71">
@@ -22007,10 +22018,10 @@
       <c r="F7" s="73">
         <v>4.261242829744246E-2</v>
       </c>
-      <c r="H7" s="139" t="s">
+      <c r="H7" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="140"/>
+      <c r="I7" s="126"/>
       <c r="J7" s="5">
         <f>IF(Data!J9="〇",1,0)</f>
         <v>1</v>
@@ -22589,8 +22600,8 @@
       <c r="GS7" s="94"/>
     </row>
     <row r="8" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="137"/>
-      <c r="C8" s="134"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="74">
         <v>0.56872467967799278</v>
       </c>
@@ -22602,8 +22613,8 @@
       </c>
     </row>
     <row r="9" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="137"/>
-      <c r="C9" s="134"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="120"/>
       <c r="D9" s="74">
         <v>0.6833065195081186</v>
       </c>
@@ -22613,10 +22624,10 @@
       <c r="F9" s="76">
         <v>0.39974311308496541</v>
       </c>
-      <c r="H9" s="139" t="s">
+      <c r="H9" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="140"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="47">
         <v>1</v>
       </c>
@@ -23195,8 +23206,8 @@
       </c>
     </row>
     <row r="10" spans="2:201" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="137"/>
-      <c r="C10" s="135"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="121"/>
       <c r="D10" s="74">
         <v>1.1943655286343625E-2</v>
       </c>
@@ -23206,10 +23217,10 @@
       <c r="F10" s="76">
         <v>2.4405696583152021E-2</v>
       </c>
-      <c r="H10" s="141" t="s">
+      <c r="H10" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="142"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="65">
         <f>1/(1+EXP(-SUMPRODUCT(J3:L6,$D$3:$F$6)+$D$15))</f>
         <v>1.1779417339519331E-2</v>
@@ -23980,8 +23991,8 @@
       </c>
     </row>
     <row r="11" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="137"/>
-      <c r="C11" s="133">
+      <c r="B11" s="123"/>
+      <c r="C11" s="119">
         <v>3</v>
       </c>
       <c r="D11" s="71">
@@ -24189,8 +24200,8 @@
       <c r="GS11" s="51"/>
     </row>
     <row r="12" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="137"/>
-      <c r="C12" s="134"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="120"/>
       <c r="D12" s="74">
         <v>0</v>
       </c>
@@ -24395,8 +24406,8 @@
       <c r="GS12" s="21"/>
     </row>
     <row r="13" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="137"/>
-      <c r="C13" s="134"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="74">
         <v>0</v>
       </c>
@@ -24536,8 +24547,8 @@
       <c r="GS13" s="21"/>
     </row>
     <row r="14" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="137"/>
-      <c r="C14" s="135"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="121"/>
       <c r="D14" s="77">
         <v>1.6173377257457294E-2</v>
       </c>
@@ -24677,7 +24688,7 @@
       <c r="GS14" s="21"/>
     </row>
     <row r="15" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="138"/>
+      <c r="B15" s="124"/>
       <c r="C15" s="35" t="s">
         <v>9</v>
       </c>
@@ -24820,7 +24831,7 @@
       <c r="GS15" s="21"/>
     </row>
     <row r="16" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="122" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="5">
@@ -24835,10 +24846,10 @@
       <c r="F16" s="62">
         <v>4.9948166575926406E-2</v>
       </c>
-      <c r="H16" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="140"/>
+      <c r="H16" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="126"/>
       <c r="J16" s="47">
         <v>1</v>
       </c>
@@ -25289,7 +25300,7 @@
       <c r="GS16" s="54"/>
     </row>
     <row r="17" spans="2:202" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="137"/>
+      <c r="B17" s="123"/>
       <c r="C17" s="34">
         <v>2</v>
       </c>
@@ -25302,10 +25313,10 @@
       <c r="F17" s="62">
         <v>10.508825428759916</v>
       </c>
-      <c r="H17" s="141" t="s">
+      <c r="H17" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="142"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="67">
         <f>1/(1+EXP(-SUMPRODUCT($D$16:$F$16,J10:L10)+$D$18))</f>
         <v>0.99729847358420498</v>
@@ -25884,7 +25895,7 @@
       <c r="GS17" s="95"/>
     </row>
     <row r="18" spans="2:202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="138"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="35" t="s">
         <v>9</v>
       </c>
@@ -26879,10 +26890,10 @@
       <c r="GQ21" s="1"/>
     </row>
     <row r="22" spans="2:202" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H22" s="139" t="s">
+      <c r="H22" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="140"/>
+      <c r="I22" s="126"/>
       <c r="J22" s="40">
         <f>IF(J17&gt;=K17,1,0)</f>
         <v>1</v>
@@ -27467,10 +27478,10 @@
         <f>COUNTIF(J23:GS23,"正")/COUNTA(J23:GS23)</f>
         <v>1</v>
       </c>
-      <c r="H23" s="139" t="s">
+      <c r="H23" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="143"/>
+      <c r="I23" s="129"/>
       <c r="J23" s="32" t="str">
         <f>IF(SUMPRODUCT(J7:K7,J22:K22)=1,"正","誤")</f>
         <v>正</v>
@@ -28255,11 +28266,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B3:B15"/>
     <mergeCell ref="C3:C6"/>
@@ -28269,6 +28275,11 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28320,11 +28331,11 @@
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="145" t="s">
+      <c r="J2" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="146"/>
-      <c r="L2" s="147"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="133"/>
       <c r="N2" s="12" t="s">
         <v>29</v>
       </c>
@@ -28332,11 +28343,11 @@
       <c r="P2" s="12"/>
       <c r="S2" s="18"/>
       <c r="T2" s="53"/>
-      <c r="U2" s="145" t="s">
+      <c r="U2" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="146"/>
-      <c r="W2" s="147"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="133"/>
       <c r="Y2" s="12" t="s">
         <v>29</v>
       </c>
@@ -28344,10 +28355,10 @@
       <c r="AA2" s="12"/>
     </row>
     <row r="3" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="133">
+      <c r="C3" s="119">
         <v>1</v>
       </c>
       <c r="D3" s="71">
@@ -28410,8 +28421,8 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="137"/>
-      <c r="C4" s="134"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="74">
         <f>例題_学習済!D4</f>
         <v>0</v>
@@ -28472,8 +28483,8 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="137"/>
-      <c r="C5" s="134"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="120"/>
       <c r="D5" s="74">
         <f>例題_学習済!D5</f>
         <v>0</v>
@@ -28534,8 +28545,8 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="137"/>
-      <c r="C6" s="135"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="121"/>
       <c r="D6" s="74">
         <f>例題_学習済!D6</f>
         <v>4.7530809944782435</v>
@@ -28596,8 +28607,8 @@
       </c>
     </row>
     <row r="7" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="137"/>
-      <c r="C7" s="133">
+      <c r="B7" s="123"/>
+      <c r="C7" s="119">
         <v>2</v>
       </c>
       <c r="D7" s="71">
@@ -28622,8 +28633,8 @@
       <c r="V7" s="51"/>
     </row>
     <row r="8" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="137"/>
-      <c r="C8" s="134"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="74">
         <f>例題_学習済!D8</f>
         <v>0.56872467967799278</v>
@@ -28638,8 +28649,8 @@
       </c>
     </row>
     <row r="9" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="137"/>
-      <c r="C9" s="134"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="120"/>
       <c r="D9" s="74">
         <f>例題_学習済!D9</f>
         <v>0.6833065195081186</v>
@@ -28652,10 +28663,10 @@
         <f>例題_学習済!F9</f>
         <v>0.39974311308496541</v>
       </c>
-      <c r="H9" s="139" t="s">
+      <c r="H9" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="140"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="47">
         <v>1</v>
       </c>
@@ -28665,10 +28676,10 @@
       <c r="L9" s="47">
         <v>3</v>
       </c>
-      <c r="S9" s="139" t="s">
+      <c r="S9" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="T9" s="140"/>
+      <c r="T9" s="126"/>
       <c r="U9" s="47">
         <v>1</v>
       </c>
@@ -28680,8 +28691,8 @@
       </c>
     </row>
     <row r="10" spans="2:27" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="137"/>
-      <c r="C10" s="135"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="121"/>
       <c r="D10" s="74">
         <f>例題_学習済!D10</f>
         <v>1.1943655286343625E-2</v>
@@ -28694,10 +28705,10 @@
         <f>例題_学習済!F10</f>
         <v>2.4405696583152021E-2</v>
       </c>
-      <c r="H10" s="141" t="s">
+      <c r="H10" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="142"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="65">
         <f>1/(1+EXP(-SUMPRODUCT(J3:L6,$D$3:$F$6)+$D$15))</f>
         <v>9.1427810030412018E-3</v>
@@ -28710,10 +28721,10 @@
         <f>1/(1+EXP(-SUMPRODUCT(J3:L6,$D$11:$F$14)+$F$15))</f>
         <v>3.9919804524753419E-3</v>
       </c>
-      <c r="S10" s="141" t="s">
+      <c r="S10" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="T10" s="142"/>
+      <c r="T10" s="128"/>
       <c r="U10" s="65">
         <f>1/(1+EXP(-SUMPRODUCT(U3:W6,$D$3:$F$6)+$D$15))</f>
         <v>0.25433507076451989</v>
@@ -28728,8 +28739,8 @@
       </c>
     </row>
     <row r="11" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="137"/>
-      <c r="C11" s="133">
+      <c r="B11" s="123"/>
+      <c r="C11" s="119">
         <v>3</v>
       </c>
       <c r="D11" s="71">
@@ -28756,8 +28767,8 @@
       <c r="W11" s="51"/>
     </row>
     <row r="12" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="137"/>
-      <c r="C12" s="134"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="120"/>
       <c r="D12" s="74">
         <f>例題_学習済!D12</f>
         <v>0</v>
@@ -28780,8 +28791,8 @@
       <c r="W12" s="21"/>
     </row>
     <row r="13" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="137"/>
-      <c r="C13" s="134"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="74">
         <f>例題_学習済!D13</f>
         <v>0</v>
@@ -28798,8 +28809,8 @@
       <c r="W13" s="21"/>
     </row>
     <row r="14" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="137"/>
-      <c r="C14" s="135"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="121"/>
       <c r="D14" s="77">
         <f>例題_学習済!D14</f>
         <v>1.6173377257457294E-2</v>
@@ -28816,7 +28827,7 @@
       <c r="W14" s="21"/>
     </row>
     <row r="15" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="138"/>
+      <c r="B15" s="124"/>
       <c r="C15" s="35" t="s">
         <v>9</v>
       </c>
@@ -28838,7 +28849,7 @@
       <c r="W15" s="21"/>
     </row>
     <row r="16" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="122" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="5">
@@ -28856,10 +28867,10 @@
         <f>例題_学習済!F16</f>
         <v>4.9948166575926406E-2</v>
       </c>
-      <c r="H16" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="140"/>
+      <c r="H16" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="126"/>
       <c r="J16" s="47">
         <v>1</v>
       </c>
@@ -28867,10 +28878,10 @@
         <v>2</v>
       </c>
       <c r="L16" s="54"/>
-      <c r="S16" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="T16" s="140"/>
+      <c r="S16" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" s="126"/>
       <c r="U16" s="47">
         <v>1</v>
       </c>
@@ -28880,7 +28891,7 @@
       <c r="W16" s="54"/>
     </row>
     <row r="17" spans="2:23" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="137"/>
+      <c r="B17" s="123"/>
       <c r="C17" s="34">
         <v>2</v>
       </c>
@@ -28896,10 +28907,10 @@
         <f>例題_学習済!F17</f>
         <v>10.508825428759916</v>
       </c>
-      <c r="H17" s="141" t="s">
+      <c r="H17" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="142"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="67">
         <f>1/(1+EXP(-SUMPRODUCT($D$16:$F$16,J10:L10)+$D$18))</f>
         <v>0.9972842269988903</v>
@@ -28909,10 +28920,10 @@
         <v>2.7461914195362623E-3</v>
       </c>
       <c r="L17" s="92"/>
-      <c r="S17" s="141" t="s">
+      <c r="S17" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="T17" s="142"/>
+      <c r="T17" s="128"/>
       <c r="U17" s="67">
         <f>1/(1+EXP(-SUMPRODUCT($D$16:$F$16,U10:W10)+$D$18))</f>
         <v>6.6865696763405216E-3</v>
@@ -28924,7 +28935,7 @@
       <c r="W17" s="92"/>
     </row>
     <row r="18" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="138"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="35" t="s">
         <v>9</v>
       </c>
@@ -28961,19 +28972,19 @@
       <c r="W19" s="21"/>
     </row>
     <row r="20" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H20" s="144" t="s">
+      <c r="H20" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="144"/>
+      <c r="I20" s="130"/>
       <c r="J20" s="34" t="str">
         <f>IF(J17&gt;=K17,"〇","×")</f>
         <v>〇</v>
       </c>
       <c r="K20" s="70"/>
-      <c r="S20" s="144" t="s">
+      <c r="S20" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="T20" s="144"/>
+      <c r="T20" s="130"/>
       <c r="U20" s="34" t="str">
         <f>IF(U17&gt;=V17,"〇","×")</f>
         <v>×</v>
@@ -29004,6 +29015,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -29015,12 +29032,6 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C11:C14"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="N3:P6">

--- a/4.xlsx
+++ b/4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/workspace/Excel-AI-Book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43E6ACD-52FF-AC4D-933F-FAA41BF5EE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DB19D8-5EF4-7C4B-AEED-487B29447B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18060" yWindow="500" windowWidth="33000" windowHeight="26960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16980" yWindow="620" windowWidth="33000" windowHeight="26960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -871,7 +871,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1181,13 +1181,67 @@
     <xf numFmtId="168" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1199,13 +1253,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1225,6 +1276,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1273,66 +1327,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1709,399 +1703,399 @@
       </c>
     </row>
     <row r="4" spans="2:201" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="109" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="111"/>
-      <c r="J4" s="103">
-        <v>1</v>
-      </c>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="103">
+      <c r="H4" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="122"/>
+      <c r="J4" s="127">
+        <v>1</v>
+      </c>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="127">
         <f>J4+1</f>
         <v>2</v>
       </c>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="103">
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="127">
         <f>M4+1</f>
         <v>3</v>
       </c>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="103">
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="127">
         <f>P4+1</f>
         <v>4</v>
       </c>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="103">
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="127">
         <f>S4+1</f>
         <v>5</v>
       </c>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="103">
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="127">
         <f>V4+1</f>
         <v>6</v>
       </c>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="103">
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="127">
         <f>Y4+1</f>
         <v>7</v>
       </c>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="103">
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="127">
         <f>AB4+1</f>
         <v>8</v>
       </c>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="103">
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="128"/>
+      <c r="AH4" s="127">
         <f>AE4+1</f>
         <v>9</v>
       </c>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="103">
+      <c r="AI4" s="128"/>
+      <c r="AJ4" s="128"/>
+      <c r="AK4" s="127">
         <f>AH4+1</f>
         <v>10</v>
       </c>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="103">
+      <c r="AL4" s="128"/>
+      <c r="AM4" s="128"/>
+      <c r="AN4" s="127">
         <f>AK4+1</f>
         <v>11</v>
       </c>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="103">
+      <c r="AO4" s="128"/>
+      <c r="AP4" s="128"/>
+      <c r="AQ4" s="127">
         <f>AN4+1</f>
         <v>12</v>
       </c>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="103">
+      <c r="AR4" s="128"/>
+      <c r="AS4" s="128"/>
+      <c r="AT4" s="127">
         <f>AQ4+1</f>
         <v>13</v>
       </c>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="103">
+      <c r="AU4" s="128"/>
+      <c r="AV4" s="128"/>
+      <c r="AW4" s="127">
         <f>AT4+1</f>
         <v>14</v>
       </c>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="104"/>
-      <c r="AZ4" s="103">
+      <c r="AX4" s="128"/>
+      <c r="AY4" s="128"/>
+      <c r="AZ4" s="127">
         <f>AW4+1</f>
         <v>15</v>
       </c>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="103">
+      <c r="BA4" s="128"/>
+      <c r="BB4" s="128"/>
+      <c r="BC4" s="127">
         <f>AZ4+1</f>
         <v>16</v>
       </c>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="103">
+      <c r="BD4" s="128"/>
+      <c r="BE4" s="128"/>
+      <c r="BF4" s="127">
         <f>BC4+1</f>
         <v>17</v>
       </c>
-      <c r="BG4" s="104"/>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="103">
+      <c r="BG4" s="128"/>
+      <c r="BH4" s="128"/>
+      <c r="BI4" s="127">
         <f>BF4+1</f>
         <v>18</v>
       </c>
-      <c r="BJ4" s="104"/>
-      <c r="BK4" s="104"/>
-      <c r="BL4" s="103">
+      <c r="BJ4" s="128"/>
+      <c r="BK4" s="128"/>
+      <c r="BL4" s="127">
         <f>BI4+1</f>
         <v>19</v>
       </c>
-      <c r="BM4" s="104"/>
-      <c r="BN4" s="104"/>
-      <c r="BO4" s="103">
+      <c r="BM4" s="128"/>
+      <c r="BN4" s="128"/>
+      <c r="BO4" s="127">
         <f>BL4+1</f>
         <v>20</v>
       </c>
-      <c r="BP4" s="104"/>
-      <c r="BQ4" s="104"/>
-      <c r="BR4" s="103">
+      <c r="BP4" s="128"/>
+      <c r="BQ4" s="128"/>
+      <c r="BR4" s="127">
         <f>BO4+1</f>
         <v>21</v>
       </c>
-      <c r="BS4" s="104"/>
-      <c r="BT4" s="104"/>
-      <c r="BU4" s="103">
+      <c r="BS4" s="128"/>
+      <c r="BT4" s="128"/>
+      <c r="BU4" s="127">
         <f>BR4+1</f>
         <v>22</v>
       </c>
-      <c r="BV4" s="104"/>
-      <c r="BW4" s="104"/>
-      <c r="BX4" s="103">
+      <c r="BV4" s="128"/>
+      <c r="BW4" s="128"/>
+      <c r="BX4" s="127">
         <f>BU4+1</f>
         <v>23</v>
       </c>
-      <c r="BY4" s="104"/>
-      <c r="BZ4" s="104"/>
-      <c r="CA4" s="103">
+      <c r="BY4" s="128"/>
+      <c r="BZ4" s="128"/>
+      <c r="CA4" s="127">
         <f>BX4+1</f>
         <v>24</v>
       </c>
-      <c r="CB4" s="104"/>
-      <c r="CC4" s="104"/>
-      <c r="CD4" s="103">
+      <c r="CB4" s="128"/>
+      <c r="CC4" s="128"/>
+      <c r="CD4" s="127">
         <f>CA4+1</f>
         <v>25</v>
       </c>
-      <c r="CE4" s="104"/>
-      <c r="CF4" s="104"/>
-      <c r="CG4" s="103">
+      <c r="CE4" s="128"/>
+      <c r="CF4" s="128"/>
+      <c r="CG4" s="127">
         <f>CD4+1</f>
         <v>26</v>
       </c>
-      <c r="CH4" s="104"/>
-      <c r="CI4" s="104"/>
-      <c r="CJ4" s="103">
+      <c r="CH4" s="128"/>
+      <c r="CI4" s="128"/>
+      <c r="CJ4" s="127">
         <f>CG4+1</f>
         <v>27</v>
       </c>
-      <c r="CK4" s="104"/>
-      <c r="CL4" s="104"/>
-      <c r="CM4" s="103">
+      <c r="CK4" s="128"/>
+      <c r="CL4" s="128"/>
+      <c r="CM4" s="127">
         <f>CJ4+1</f>
         <v>28</v>
       </c>
-      <c r="CN4" s="104"/>
-      <c r="CO4" s="104"/>
-      <c r="CP4" s="103">
+      <c r="CN4" s="128"/>
+      <c r="CO4" s="128"/>
+      <c r="CP4" s="127">
         <f>CM4+1</f>
         <v>29</v>
       </c>
-      <c r="CQ4" s="104"/>
-      <c r="CR4" s="104"/>
-      <c r="CS4" s="103">
+      <c r="CQ4" s="128"/>
+      <c r="CR4" s="128"/>
+      <c r="CS4" s="127">
         <f>CP4+1</f>
         <v>30</v>
       </c>
-      <c r="CT4" s="104"/>
-      <c r="CU4" s="104"/>
-      <c r="CV4" s="103">
+      <c r="CT4" s="128"/>
+      <c r="CU4" s="128"/>
+      <c r="CV4" s="127">
         <f>CS4+1</f>
         <v>31</v>
       </c>
-      <c r="CW4" s="104"/>
-      <c r="CX4" s="104"/>
-      <c r="CY4" s="103">
+      <c r="CW4" s="128"/>
+      <c r="CX4" s="128"/>
+      <c r="CY4" s="127">
         <f>CV4+1</f>
         <v>32</v>
       </c>
-      <c r="CZ4" s="104"/>
-      <c r="DA4" s="104"/>
-      <c r="DB4" s="103">
+      <c r="CZ4" s="128"/>
+      <c r="DA4" s="128"/>
+      <c r="DB4" s="127">
         <f>CY4+1</f>
         <v>33</v>
       </c>
-      <c r="DC4" s="104"/>
-      <c r="DD4" s="104"/>
-      <c r="DE4" s="103">
+      <c r="DC4" s="128"/>
+      <c r="DD4" s="128"/>
+      <c r="DE4" s="127">
         <f>DB4+1</f>
         <v>34</v>
       </c>
-      <c r="DF4" s="104"/>
-      <c r="DG4" s="104"/>
-      <c r="DH4" s="103">
+      <c r="DF4" s="128"/>
+      <c r="DG4" s="128"/>
+      <c r="DH4" s="127">
         <f>DE4+1</f>
         <v>35</v>
       </c>
-      <c r="DI4" s="104"/>
-      <c r="DJ4" s="104"/>
-      <c r="DK4" s="103">
+      <c r="DI4" s="128"/>
+      <c r="DJ4" s="128"/>
+      <c r="DK4" s="127">
         <f>DH4+1</f>
         <v>36</v>
       </c>
-      <c r="DL4" s="104"/>
-      <c r="DM4" s="104"/>
-      <c r="DN4" s="103">
+      <c r="DL4" s="128"/>
+      <c r="DM4" s="128"/>
+      <c r="DN4" s="127">
         <f>DK4+1</f>
         <v>37</v>
       </c>
-      <c r="DO4" s="104"/>
-      <c r="DP4" s="104"/>
-      <c r="DQ4" s="103">
+      <c r="DO4" s="128"/>
+      <c r="DP4" s="128"/>
+      <c r="DQ4" s="127">
         <f>DN4+1</f>
         <v>38</v>
       </c>
-      <c r="DR4" s="104"/>
-      <c r="DS4" s="104"/>
-      <c r="DT4" s="103">
+      <c r="DR4" s="128"/>
+      <c r="DS4" s="128"/>
+      <c r="DT4" s="127">
         <f>DQ4+1</f>
         <v>39</v>
       </c>
-      <c r="DU4" s="104"/>
-      <c r="DV4" s="104"/>
-      <c r="DW4" s="103">
+      <c r="DU4" s="128"/>
+      <c r="DV4" s="128"/>
+      <c r="DW4" s="127">
         <f>DT4+1</f>
         <v>40</v>
       </c>
-      <c r="DX4" s="104"/>
-      <c r="DY4" s="104"/>
-      <c r="DZ4" s="103">
+      <c r="DX4" s="128"/>
+      <c r="DY4" s="128"/>
+      <c r="DZ4" s="127">
         <f>DW4+1</f>
         <v>41</v>
       </c>
-      <c r="EA4" s="104"/>
-      <c r="EB4" s="104"/>
-      <c r="EC4" s="103">
+      <c r="EA4" s="128"/>
+      <c r="EB4" s="128"/>
+      <c r="EC4" s="127">
         <f>DZ4+1</f>
         <v>42</v>
       </c>
-      <c r="ED4" s="104"/>
-      <c r="EE4" s="104"/>
-      <c r="EF4" s="103">
+      <c r="ED4" s="128"/>
+      <c r="EE4" s="128"/>
+      <c r="EF4" s="127">
         <f>EC4+1</f>
         <v>43</v>
       </c>
-      <c r="EG4" s="104"/>
-      <c r="EH4" s="104"/>
-      <c r="EI4" s="103">
+      <c r="EG4" s="128"/>
+      <c r="EH4" s="128"/>
+      <c r="EI4" s="127">
         <f>EF4+1</f>
         <v>44</v>
       </c>
-      <c r="EJ4" s="104"/>
-      <c r="EK4" s="104"/>
-      <c r="EL4" s="103">
+      <c r="EJ4" s="128"/>
+      <c r="EK4" s="128"/>
+      <c r="EL4" s="127">
         <f>EI4+1</f>
         <v>45</v>
       </c>
-      <c r="EM4" s="104"/>
-      <c r="EN4" s="104"/>
-      <c r="EO4" s="103">
+      <c r="EM4" s="128"/>
+      <c r="EN4" s="128"/>
+      <c r="EO4" s="127">
         <f>EL4+1</f>
         <v>46</v>
       </c>
-      <c r="EP4" s="104"/>
-      <c r="EQ4" s="104"/>
-      <c r="ER4" s="103">
+      <c r="EP4" s="128"/>
+      <c r="EQ4" s="128"/>
+      <c r="ER4" s="127">
         <f>EO4+1</f>
         <v>47</v>
       </c>
-      <c r="ES4" s="104"/>
-      <c r="ET4" s="104"/>
-      <c r="EU4" s="103">
+      <c r="ES4" s="128"/>
+      <c r="ET4" s="128"/>
+      <c r="EU4" s="127">
         <f>ER4+1</f>
         <v>48</v>
       </c>
-      <c r="EV4" s="104"/>
-      <c r="EW4" s="104"/>
-      <c r="EX4" s="103">
+      <c r="EV4" s="128"/>
+      <c r="EW4" s="128"/>
+      <c r="EX4" s="127">
         <f>EU4+1</f>
         <v>49</v>
       </c>
-      <c r="EY4" s="104"/>
-      <c r="EZ4" s="104"/>
-      <c r="FA4" s="103">
+      <c r="EY4" s="128"/>
+      <c r="EZ4" s="128"/>
+      <c r="FA4" s="127">
         <f>EX4+1</f>
         <v>50</v>
       </c>
-      <c r="FB4" s="104"/>
-      <c r="FC4" s="104"/>
-      <c r="FD4" s="103">
+      <c r="FB4" s="128"/>
+      <c r="FC4" s="128"/>
+      <c r="FD4" s="127">
         <f>FA4+1</f>
         <v>51</v>
       </c>
-      <c r="FE4" s="104"/>
-      <c r="FF4" s="104"/>
-      <c r="FG4" s="103">
+      <c r="FE4" s="128"/>
+      <c r="FF4" s="128"/>
+      <c r="FG4" s="127">
         <f>FD4+1</f>
         <v>52</v>
       </c>
-      <c r="FH4" s="104"/>
-      <c r="FI4" s="104"/>
-      <c r="FJ4" s="103">
+      <c r="FH4" s="128"/>
+      <c r="FI4" s="128"/>
+      <c r="FJ4" s="127">
         <f>FG4+1</f>
         <v>53</v>
       </c>
-      <c r="FK4" s="104"/>
-      <c r="FL4" s="104"/>
-      <c r="FM4" s="103">
+      <c r="FK4" s="128"/>
+      <c r="FL4" s="128"/>
+      <c r="FM4" s="127">
         <f>FJ4+1</f>
         <v>54</v>
       </c>
-      <c r="FN4" s="104"/>
-      <c r="FO4" s="104"/>
-      <c r="FP4" s="103">
+      <c r="FN4" s="128"/>
+      <c r="FO4" s="128"/>
+      <c r="FP4" s="127">
         <f>FM4+1</f>
         <v>55</v>
       </c>
-      <c r="FQ4" s="104"/>
-      <c r="FR4" s="104"/>
-      <c r="FS4" s="103">
+      <c r="FQ4" s="128"/>
+      <c r="FR4" s="128"/>
+      <c r="FS4" s="127">
         <f>FP4+1</f>
         <v>56</v>
       </c>
-      <c r="FT4" s="104"/>
-      <c r="FU4" s="104"/>
-      <c r="FV4" s="103">
+      <c r="FT4" s="128"/>
+      <c r="FU4" s="128"/>
+      <c r="FV4" s="127">
         <f>FS4+1</f>
         <v>57</v>
       </c>
-      <c r="FW4" s="104"/>
-      <c r="FX4" s="104"/>
-      <c r="FY4" s="103">
+      <c r="FW4" s="128"/>
+      <c r="FX4" s="128"/>
+      <c r="FY4" s="127">
         <f>FV4+1</f>
         <v>58</v>
       </c>
-      <c r="FZ4" s="104"/>
-      <c r="GA4" s="104"/>
-      <c r="GB4" s="103">
+      <c r="FZ4" s="128"/>
+      <c r="GA4" s="128"/>
+      <c r="GB4" s="127">
         <f>FY4+1</f>
         <v>59</v>
       </c>
-      <c r="GC4" s="104"/>
-      <c r="GD4" s="104"/>
-      <c r="GE4" s="103">
+      <c r="GC4" s="128"/>
+      <c r="GD4" s="128"/>
+      <c r="GE4" s="127">
         <f>GB4+1</f>
         <v>60</v>
       </c>
-      <c r="GF4" s="104"/>
-      <c r="GG4" s="104"/>
-      <c r="GH4" s="103">
+      <c r="GF4" s="128"/>
+      <c r="GG4" s="128"/>
+      <c r="GH4" s="127">
         <f>GE4+1</f>
         <v>61</v>
       </c>
-      <c r="GI4" s="104"/>
-      <c r="GJ4" s="104"/>
-      <c r="GK4" s="103">
+      <c r="GI4" s="128"/>
+      <c r="GJ4" s="128"/>
+      <c r="GK4" s="127">
         <f>GH4+1</f>
         <v>62</v>
       </c>
-      <c r="GL4" s="104"/>
-      <c r="GM4" s="104"/>
-      <c r="GN4" s="103">
+      <c r="GL4" s="128"/>
+      <c r="GM4" s="128"/>
+      <c r="GN4" s="127">
         <f>GK4+1</f>
         <v>63</v>
       </c>
-      <c r="GO4" s="104"/>
-      <c r="GP4" s="104"/>
-      <c r="GQ4" s="103">
+      <c r="GO4" s="128"/>
+      <c r="GP4" s="128"/>
+      <c r="GQ4" s="127">
         <f>GN4+1</f>
         <v>64</v>
       </c>
-      <c r="GR4" s="104"/>
-      <c r="GS4" s="105"/>
+      <c r="GR4" s="128"/>
+      <c r="GS4" s="135"/>
     </row>
     <row r="5" spans="2:201" x14ac:dyDescent="0.2">
-      <c r="H5" s="112" t="s">
+      <c r="H5" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="113"/>
+      <c r="I5" s="130"/>
       <c r="J5" s="6">
         <v>1</v>
       </c>
@@ -2680,8 +2674,8 @@
       </c>
     </row>
     <row r="6" spans="2:201" x14ac:dyDescent="0.2">
-      <c r="H6" s="114"/>
-      <c r="I6" s="115"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
       <c r="J6" s="9">
         <v>1</v>
       </c>
@@ -3260,8 +3254,8 @@
       </c>
     </row>
     <row r="7" spans="2:201" x14ac:dyDescent="0.2">
-      <c r="H7" s="114"/>
-      <c r="I7" s="115"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="132"/>
       <c r="J7" s="9">
         <v>1</v>
       </c>
@@ -3840,8 +3834,8 @@
       </c>
     </row>
     <row r="8" spans="2:201" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="116"/>
-      <c r="I8" s="117"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="134"/>
       <c r="J8" s="11">
         <v>1</v>
       </c>
@@ -4420,10 +4414,10 @@
       </c>
     </row>
     <row r="9" spans="2:201" x14ac:dyDescent="0.2">
-      <c r="H9" s="109" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="111"/>
+      <c r="H9" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="122"/>
       <c r="J9" s="28" t="s">
         <v>12</v>
       </c>
@@ -4757,390 +4751,390 @@
       <c r="I15" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="109">
+      <c r="J15" s="121">
         <f>J4</f>
         <v>1</v>
       </c>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="109">
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="121">
         <f>M4</f>
         <v>2</v>
       </c>
-      <c r="N15" s="110"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="109">
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="121">
         <f>P4</f>
         <v>3</v>
       </c>
-      <c r="Q15" s="110"/>
-      <c r="R15" s="110"/>
-      <c r="S15" s="109">
+      <c r="Q15" s="123"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="121">
         <f>S4</f>
         <v>4</v>
       </c>
-      <c r="T15" s="110"/>
-      <c r="U15" s="110"/>
-      <c r="V15" s="109">
+      <c r="T15" s="123"/>
+      <c r="U15" s="123"/>
+      <c r="V15" s="121">
         <f>V4</f>
         <v>5</v>
       </c>
-      <c r="W15" s="110"/>
-      <c r="X15" s="110"/>
-      <c r="Y15" s="109">
+      <c r="W15" s="123"/>
+      <c r="X15" s="123"/>
+      <c r="Y15" s="121">
         <f>Y4</f>
         <v>6</v>
       </c>
-      <c r="Z15" s="110"/>
-      <c r="AA15" s="110"/>
-      <c r="AB15" s="109">
+      <c r="Z15" s="123"/>
+      <c r="AA15" s="123"/>
+      <c r="AB15" s="121">
         <f>AB4</f>
         <v>7</v>
       </c>
-      <c r="AC15" s="110"/>
-      <c r="AD15" s="110"/>
-      <c r="AE15" s="109">
+      <c r="AC15" s="123"/>
+      <c r="AD15" s="123"/>
+      <c r="AE15" s="121">
         <f>AE4</f>
         <v>8</v>
       </c>
-      <c r="AF15" s="110"/>
-      <c r="AG15" s="110"/>
-      <c r="AH15" s="109">
+      <c r="AF15" s="123"/>
+      <c r="AG15" s="123"/>
+      <c r="AH15" s="121">
         <f>AH4</f>
         <v>9</v>
       </c>
-      <c r="AI15" s="110"/>
-      <c r="AJ15" s="110"/>
-      <c r="AK15" s="109">
+      <c r="AI15" s="123"/>
+      <c r="AJ15" s="123"/>
+      <c r="AK15" s="121">
         <f>AK4</f>
         <v>10</v>
       </c>
-      <c r="AL15" s="110"/>
-      <c r="AM15" s="110"/>
-      <c r="AN15" s="109">
+      <c r="AL15" s="123"/>
+      <c r="AM15" s="123"/>
+      <c r="AN15" s="121">
         <f>AN4</f>
         <v>11</v>
       </c>
-      <c r="AO15" s="110"/>
-      <c r="AP15" s="110"/>
-      <c r="AQ15" s="109">
+      <c r="AO15" s="123"/>
+      <c r="AP15" s="123"/>
+      <c r="AQ15" s="121">
         <f>AQ4</f>
         <v>12</v>
       </c>
-      <c r="AR15" s="110"/>
-      <c r="AS15" s="110"/>
-      <c r="AT15" s="109">
+      <c r="AR15" s="123"/>
+      <c r="AS15" s="123"/>
+      <c r="AT15" s="121">
         <f>AT4</f>
         <v>13</v>
       </c>
-      <c r="AU15" s="110"/>
-      <c r="AV15" s="110"/>
-      <c r="AW15" s="109">
+      <c r="AU15" s="123"/>
+      <c r="AV15" s="123"/>
+      <c r="AW15" s="121">
         <f>AW4</f>
         <v>14</v>
       </c>
-      <c r="AX15" s="110"/>
-      <c r="AY15" s="110"/>
-      <c r="AZ15" s="109">
+      <c r="AX15" s="123"/>
+      <c r="AY15" s="123"/>
+      <c r="AZ15" s="121">
         <f>AZ4</f>
         <v>15</v>
       </c>
-      <c r="BA15" s="110"/>
-      <c r="BB15" s="110"/>
-      <c r="BC15" s="109">
+      <c r="BA15" s="123"/>
+      <c r="BB15" s="123"/>
+      <c r="BC15" s="121">
         <f>BC4</f>
         <v>16</v>
       </c>
-      <c r="BD15" s="110"/>
-      <c r="BE15" s="110"/>
-      <c r="BF15" s="109">
+      <c r="BD15" s="123"/>
+      <c r="BE15" s="123"/>
+      <c r="BF15" s="121">
         <f>BF4</f>
         <v>17</v>
       </c>
-      <c r="BG15" s="110"/>
-      <c r="BH15" s="110"/>
-      <c r="BI15" s="109">
+      <c r="BG15" s="123"/>
+      <c r="BH15" s="123"/>
+      <c r="BI15" s="121">
         <f>BI4</f>
         <v>18</v>
       </c>
-      <c r="BJ15" s="110"/>
-      <c r="BK15" s="110"/>
-      <c r="BL15" s="109">
+      <c r="BJ15" s="123"/>
+      <c r="BK15" s="123"/>
+      <c r="BL15" s="121">
         <f>BL4</f>
         <v>19</v>
       </c>
-      <c r="BM15" s="110"/>
-      <c r="BN15" s="110"/>
-      <c r="BO15" s="109">
+      <c r="BM15" s="123"/>
+      <c r="BN15" s="123"/>
+      <c r="BO15" s="121">
         <f>BO4</f>
         <v>20</v>
       </c>
-      <c r="BP15" s="110"/>
-      <c r="BQ15" s="110"/>
-      <c r="BR15" s="109">
+      <c r="BP15" s="123"/>
+      <c r="BQ15" s="123"/>
+      <c r="BR15" s="121">
         <f>BR4</f>
         <v>21</v>
       </c>
-      <c r="BS15" s="110"/>
-      <c r="BT15" s="110"/>
-      <c r="BU15" s="109">
+      <c r="BS15" s="123"/>
+      <c r="BT15" s="123"/>
+      <c r="BU15" s="121">
         <f>BU4</f>
         <v>22</v>
       </c>
-      <c r="BV15" s="110"/>
-      <c r="BW15" s="110"/>
-      <c r="BX15" s="109">
+      <c r="BV15" s="123"/>
+      <c r="BW15" s="123"/>
+      <c r="BX15" s="121">
         <f>BX4</f>
         <v>23</v>
       </c>
-      <c r="BY15" s="110"/>
-      <c r="BZ15" s="110"/>
-      <c r="CA15" s="109">
+      <c r="BY15" s="123"/>
+      <c r="BZ15" s="123"/>
+      <c r="CA15" s="121">
         <f>CA4</f>
         <v>24</v>
       </c>
-      <c r="CB15" s="110"/>
-      <c r="CC15" s="110"/>
-      <c r="CD15" s="109">
+      <c r="CB15" s="123"/>
+      <c r="CC15" s="123"/>
+      <c r="CD15" s="121">
         <f>CD4</f>
         <v>25</v>
       </c>
-      <c r="CE15" s="110"/>
-      <c r="CF15" s="110"/>
-      <c r="CG15" s="109">
+      <c r="CE15" s="123"/>
+      <c r="CF15" s="123"/>
+      <c r="CG15" s="121">
         <f>CG4</f>
         <v>26</v>
       </c>
-      <c r="CH15" s="110"/>
-      <c r="CI15" s="110"/>
-      <c r="CJ15" s="109">
+      <c r="CH15" s="123"/>
+      <c r="CI15" s="123"/>
+      <c r="CJ15" s="121">
         <f>CJ4</f>
         <v>27</v>
       </c>
-      <c r="CK15" s="110"/>
-      <c r="CL15" s="110"/>
-      <c r="CM15" s="109">
+      <c r="CK15" s="123"/>
+      <c r="CL15" s="123"/>
+      <c r="CM15" s="121">
         <f>CM4</f>
         <v>28</v>
       </c>
-      <c r="CN15" s="110"/>
-      <c r="CO15" s="110"/>
-      <c r="CP15" s="109">
+      <c r="CN15" s="123"/>
+      <c r="CO15" s="123"/>
+      <c r="CP15" s="121">
         <f>CP4</f>
         <v>29</v>
       </c>
-      <c r="CQ15" s="110"/>
-      <c r="CR15" s="110"/>
-      <c r="CS15" s="109">
+      <c r="CQ15" s="123"/>
+      <c r="CR15" s="123"/>
+      <c r="CS15" s="121">
         <f>CS4</f>
         <v>30</v>
       </c>
-      <c r="CT15" s="110"/>
-      <c r="CU15" s="110"/>
-      <c r="CV15" s="109">
+      <c r="CT15" s="123"/>
+      <c r="CU15" s="123"/>
+      <c r="CV15" s="121">
         <f>CV4</f>
         <v>31</v>
       </c>
-      <c r="CW15" s="110"/>
-      <c r="CX15" s="110"/>
-      <c r="CY15" s="109">
+      <c r="CW15" s="123"/>
+      <c r="CX15" s="123"/>
+      <c r="CY15" s="121">
         <f>CY4</f>
         <v>32</v>
       </c>
-      <c r="CZ15" s="110"/>
-      <c r="DA15" s="110"/>
-      <c r="DB15" s="109">
+      <c r="CZ15" s="123"/>
+      <c r="DA15" s="123"/>
+      <c r="DB15" s="121">
         <f>DB4</f>
         <v>33</v>
       </c>
-      <c r="DC15" s="110"/>
-      <c r="DD15" s="110"/>
-      <c r="DE15" s="109">
+      <c r="DC15" s="123"/>
+      <c r="DD15" s="123"/>
+      <c r="DE15" s="121">
         <f>DE4</f>
         <v>34</v>
       </c>
-      <c r="DF15" s="110"/>
-      <c r="DG15" s="110"/>
-      <c r="DH15" s="109">
+      <c r="DF15" s="123"/>
+      <c r="DG15" s="123"/>
+      <c r="DH15" s="121">
         <f>DH4</f>
         <v>35</v>
       </c>
-      <c r="DI15" s="110"/>
-      <c r="DJ15" s="110"/>
-      <c r="DK15" s="109">
+      <c r="DI15" s="123"/>
+      <c r="DJ15" s="123"/>
+      <c r="DK15" s="121">
         <f>DK4</f>
         <v>36</v>
       </c>
-      <c r="DL15" s="110"/>
-      <c r="DM15" s="110"/>
-      <c r="DN15" s="109">
+      <c r="DL15" s="123"/>
+      <c r="DM15" s="123"/>
+      <c r="DN15" s="121">
         <f>DN4</f>
         <v>37</v>
       </c>
-      <c r="DO15" s="110"/>
-      <c r="DP15" s="110"/>
-      <c r="DQ15" s="109">
+      <c r="DO15" s="123"/>
+      <c r="DP15" s="123"/>
+      <c r="DQ15" s="121">
         <f>DQ4</f>
         <v>38</v>
       </c>
-      <c r="DR15" s="110"/>
-      <c r="DS15" s="110"/>
-      <c r="DT15" s="109">
+      <c r="DR15" s="123"/>
+      <c r="DS15" s="123"/>
+      <c r="DT15" s="121">
         <f>DT4</f>
         <v>39</v>
       </c>
-      <c r="DU15" s="110"/>
-      <c r="DV15" s="110"/>
-      <c r="DW15" s="109">
+      <c r="DU15" s="123"/>
+      <c r="DV15" s="123"/>
+      <c r="DW15" s="121">
         <f>DW4</f>
         <v>40</v>
       </c>
-      <c r="DX15" s="110"/>
-      <c r="DY15" s="110"/>
-      <c r="DZ15" s="109">
+      <c r="DX15" s="123"/>
+      <c r="DY15" s="123"/>
+      <c r="DZ15" s="121">
         <f>DZ4</f>
         <v>41</v>
       </c>
-      <c r="EA15" s="110"/>
-      <c r="EB15" s="110"/>
-      <c r="EC15" s="109">
+      <c r="EA15" s="123"/>
+      <c r="EB15" s="123"/>
+      <c r="EC15" s="121">
         <f>EC4</f>
         <v>42</v>
       </c>
-      <c r="ED15" s="110"/>
-      <c r="EE15" s="110"/>
-      <c r="EF15" s="109">
+      <c r="ED15" s="123"/>
+      <c r="EE15" s="123"/>
+      <c r="EF15" s="121">
         <f>EF4</f>
         <v>43</v>
       </c>
-      <c r="EG15" s="110"/>
-      <c r="EH15" s="110"/>
-      <c r="EI15" s="109">
+      <c r="EG15" s="123"/>
+      <c r="EH15" s="123"/>
+      <c r="EI15" s="121">
         <f>EI4</f>
         <v>44</v>
       </c>
-      <c r="EJ15" s="110"/>
-      <c r="EK15" s="110"/>
-      <c r="EL15" s="109">
+      <c r="EJ15" s="123"/>
+      <c r="EK15" s="123"/>
+      <c r="EL15" s="121">
         <f>EL4</f>
         <v>45</v>
       </c>
-      <c r="EM15" s="110"/>
-      <c r="EN15" s="110"/>
-      <c r="EO15" s="109">
+      <c r="EM15" s="123"/>
+      <c r="EN15" s="123"/>
+      <c r="EO15" s="121">
         <f>EO4</f>
         <v>46</v>
       </c>
-      <c r="EP15" s="110"/>
-      <c r="EQ15" s="110"/>
-      <c r="ER15" s="109">
+      <c r="EP15" s="123"/>
+      <c r="EQ15" s="123"/>
+      <c r="ER15" s="121">
         <f>ER4</f>
         <v>47</v>
       </c>
-      <c r="ES15" s="110"/>
-      <c r="ET15" s="110"/>
-      <c r="EU15" s="109">
+      <c r="ES15" s="123"/>
+      <c r="ET15" s="123"/>
+      <c r="EU15" s="121">
         <f>EU4</f>
         <v>48</v>
       </c>
-      <c r="EV15" s="110"/>
-      <c r="EW15" s="110"/>
-      <c r="EX15" s="109">
+      <c r="EV15" s="123"/>
+      <c r="EW15" s="123"/>
+      <c r="EX15" s="121">
         <f>EX4</f>
         <v>49</v>
       </c>
-      <c r="EY15" s="110"/>
-      <c r="EZ15" s="110"/>
-      <c r="FA15" s="109">
+      <c r="EY15" s="123"/>
+      <c r="EZ15" s="123"/>
+      <c r="FA15" s="121">
         <f>FA4</f>
         <v>50</v>
       </c>
-      <c r="FB15" s="110"/>
-      <c r="FC15" s="110"/>
-      <c r="FD15" s="109">
+      <c r="FB15" s="123"/>
+      <c r="FC15" s="123"/>
+      <c r="FD15" s="121">
         <f>FD4</f>
         <v>51</v>
       </c>
-      <c r="FE15" s="110"/>
-      <c r="FF15" s="110"/>
-      <c r="FG15" s="109">
+      <c r="FE15" s="123"/>
+      <c r="FF15" s="123"/>
+      <c r="FG15" s="121">
         <f>FG4</f>
         <v>52</v>
       </c>
-      <c r="FH15" s="110"/>
-      <c r="FI15" s="110"/>
-      <c r="FJ15" s="109">
+      <c r="FH15" s="123"/>
+      <c r="FI15" s="123"/>
+      <c r="FJ15" s="121">
         <f>FJ4</f>
         <v>53</v>
       </c>
-      <c r="FK15" s="110"/>
-      <c r="FL15" s="110"/>
-      <c r="FM15" s="109">
+      <c r="FK15" s="123"/>
+      <c r="FL15" s="123"/>
+      <c r="FM15" s="121">
         <f>FM4</f>
         <v>54</v>
       </c>
-      <c r="FN15" s="110"/>
-      <c r="FO15" s="110"/>
-      <c r="FP15" s="109">
+      <c r="FN15" s="123"/>
+      <c r="FO15" s="123"/>
+      <c r="FP15" s="121">
         <f>FP4</f>
         <v>55</v>
       </c>
-      <c r="FQ15" s="110"/>
-      <c r="FR15" s="110"/>
-      <c r="FS15" s="109">
+      <c r="FQ15" s="123"/>
+      <c r="FR15" s="123"/>
+      <c r="FS15" s="121">
         <f>FS4</f>
         <v>56</v>
       </c>
-      <c r="FT15" s="110"/>
-      <c r="FU15" s="110"/>
-      <c r="FV15" s="109">
+      <c r="FT15" s="123"/>
+      <c r="FU15" s="123"/>
+      <c r="FV15" s="121">
         <f>FV4</f>
         <v>57</v>
       </c>
-      <c r="FW15" s="110"/>
-      <c r="FX15" s="110"/>
-      <c r="FY15" s="109">
+      <c r="FW15" s="123"/>
+      <c r="FX15" s="123"/>
+      <c r="FY15" s="121">
         <f>FY4</f>
         <v>58</v>
       </c>
-      <c r="FZ15" s="110"/>
-      <c r="GA15" s="110"/>
-      <c r="GB15" s="109">
+      <c r="FZ15" s="123"/>
+      <c r="GA15" s="123"/>
+      <c r="GB15" s="121">
         <f>GB4</f>
         <v>59</v>
       </c>
-      <c r="GC15" s="110"/>
-      <c r="GD15" s="110"/>
-      <c r="GE15" s="109">
+      <c r="GC15" s="123"/>
+      <c r="GD15" s="123"/>
+      <c r="GE15" s="121">
         <f>GE4</f>
         <v>60</v>
       </c>
-      <c r="GF15" s="110"/>
-      <c r="GG15" s="110"/>
-      <c r="GH15" s="109">
+      <c r="GF15" s="123"/>
+      <c r="GG15" s="123"/>
+      <c r="GH15" s="121">
         <f>GH4</f>
         <v>61</v>
       </c>
-      <c r="GI15" s="110"/>
-      <c r="GJ15" s="110"/>
-      <c r="GK15" s="109">
+      <c r="GI15" s="123"/>
+      <c r="GJ15" s="123"/>
+      <c r="GK15" s="121">
         <f>GK4</f>
         <v>62</v>
       </c>
-      <c r="GL15" s="110"/>
-      <c r="GM15" s="110"/>
-      <c r="GN15" s="109">
+      <c r="GL15" s="123"/>
+      <c r="GM15" s="123"/>
+      <c r="GN15" s="121">
         <f>GN4</f>
         <v>63</v>
       </c>
-      <c r="GO15" s="110"/>
-      <c r="GP15" s="110"/>
-      <c r="GQ15" s="109">
+      <c r="GO15" s="123"/>
+      <c r="GP15" s="123"/>
+      <c r="GQ15" s="121">
         <f>GQ4</f>
         <v>64</v>
       </c>
-      <c r="GR15" s="110"/>
-      <c r="GS15" s="111"/>
+      <c r="GR15" s="123"/>
+      <c r="GS15" s="122"/>
     </row>
     <row r="16" spans="2:201" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H16" s="23"/>
@@ -5726,7 +5720,7 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" s="106" t="s">
+      <c r="H17" s="124" t="s">
         <v>3</v>
       </c>
       <c r="I17" s="25">
@@ -6505,7 +6499,7 @@
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="H18" s="107"/>
+      <c r="H18" s="125"/>
       <c r="I18" s="1">
         <v>2</v>
       </c>
@@ -7282,7 +7276,7 @@
       <c r="G19">
         <v>3</v>
       </c>
-      <c r="H19" s="107"/>
+      <c r="H19" s="125"/>
       <c r="I19" s="1">
         <v>3</v>
       </c>
@@ -8059,7 +8053,7 @@
       <c r="G20">
         <v>4</v>
       </c>
-      <c r="H20" s="108"/>
+      <c r="H20" s="126"/>
       <c r="I20" s="3">
         <v>4</v>
       </c>
@@ -8833,10 +8827,10 @@
       </c>
     </row>
     <row r="21" spans="7:201" x14ac:dyDescent="0.2">
-      <c r="H21" s="109" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="111"/>
+      <c r="H21" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="122"/>
       <c r="J21" s="3" t="s">
         <v>10</v>
       </c>
@@ -9160,6 +9154,115 @@
     </row>
   </sheetData>
   <mergeCells count="133">
+    <mergeCell ref="FA4:FC4"/>
+    <mergeCell ref="FD4:FF4"/>
+    <mergeCell ref="FG4:FI4"/>
+    <mergeCell ref="FJ4:FL4"/>
+    <mergeCell ref="FM4:FO4"/>
+    <mergeCell ref="EL4:EN4"/>
+    <mergeCell ref="EO4:EQ4"/>
+    <mergeCell ref="ER4:ET4"/>
+    <mergeCell ref="EU4:EW4"/>
+    <mergeCell ref="EX4:EZ4"/>
+    <mergeCell ref="GQ4:GS4"/>
+    <mergeCell ref="FP4:FR4"/>
+    <mergeCell ref="FS4:FU4"/>
+    <mergeCell ref="FV4:FX4"/>
+    <mergeCell ref="FY4:GA4"/>
+    <mergeCell ref="GB4:GD4"/>
+    <mergeCell ref="GE4:GG4"/>
+    <mergeCell ref="GH4:GJ4"/>
+    <mergeCell ref="GK4:GM4"/>
+    <mergeCell ref="GN4:GP4"/>
+    <mergeCell ref="DB4:DD4"/>
+    <mergeCell ref="DE4:DG4"/>
+    <mergeCell ref="DZ4:EB4"/>
+    <mergeCell ref="EC4:EE4"/>
+    <mergeCell ref="EF4:EH4"/>
+    <mergeCell ref="EI4:EK4"/>
+    <mergeCell ref="DH4:DJ4"/>
+    <mergeCell ref="DK4:DM4"/>
+    <mergeCell ref="DN4:DP4"/>
+    <mergeCell ref="DQ4:DS4"/>
+    <mergeCell ref="DT4:DV4"/>
+    <mergeCell ref="DW4:DY4"/>
+    <mergeCell ref="CA4:CC4"/>
+    <mergeCell ref="CD4:CF4"/>
+    <mergeCell ref="CG4:CI4"/>
+    <mergeCell ref="CJ4:CL4"/>
+    <mergeCell ref="CM4:CO4"/>
+    <mergeCell ref="CP4:CR4"/>
+    <mergeCell ref="CS4:CU4"/>
+    <mergeCell ref="CV4:CX4"/>
+    <mergeCell ref="CY4:DA4"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="BC4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BK4"/>
+    <mergeCell ref="BL4:BN4"/>
+    <mergeCell ref="BO4:BQ4"/>
+    <mergeCell ref="BR4:BT4"/>
+    <mergeCell ref="BU4:BW4"/>
+    <mergeCell ref="BX4:BZ4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="AT4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="AN15:AP15"/>
+    <mergeCell ref="AQ15:AS15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="BI15:BK15"/>
+    <mergeCell ref="BL15:BN15"/>
+    <mergeCell ref="BO15:BQ15"/>
+    <mergeCell ref="BR15:BT15"/>
+    <mergeCell ref="BU15:BW15"/>
+    <mergeCell ref="AT15:AV15"/>
+    <mergeCell ref="AW15:AY15"/>
+    <mergeCell ref="AZ15:BB15"/>
+    <mergeCell ref="BC15:BE15"/>
+    <mergeCell ref="BF15:BH15"/>
+    <mergeCell ref="CM15:CO15"/>
+    <mergeCell ref="CP15:CR15"/>
+    <mergeCell ref="CS15:CU15"/>
+    <mergeCell ref="CV15:CX15"/>
+    <mergeCell ref="CY15:DA15"/>
+    <mergeCell ref="BX15:BZ15"/>
+    <mergeCell ref="CA15:CC15"/>
+    <mergeCell ref="CD15:CF15"/>
+    <mergeCell ref="CG15:CI15"/>
+    <mergeCell ref="CJ15:CL15"/>
+    <mergeCell ref="DT15:DV15"/>
+    <mergeCell ref="DW15:DY15"/>
+    <mergeCell ref="DZ15:EB15"/>
+    <mergeCell ref="EC15:EE15"/>
+    <mergeCell ref="DB15:DD15"/>
+    <mergeCell ref="DE15:DG15"/>
+    <mergeCell ref="DH15:DJ15"/>
+    <mergeCell ref="DK15:DM15"/>
+    <mergeCell ref="DN15:DP15"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="GN15:GP15"/>
     <mergeCell ref="GQ15:GS15"/>
@@ -9184,115 +9287,6 @@
     <mergeCell ref="EO15:EQ15"/>
     <mergeCell ref="ER15:ET15"/>
     <mergeCell ref="DQ15:DS15"/>
-    <mergeCell ref="DT15:DV15"/>
-    <mergeCell ref="DW15:DY15"/>
-    <mergeCell ref="DZ15:EB15"/>
-    <mergeCell ref="EC15:EE15"/>
-    <mergeCell ref="DB15:DD15"/>
-    <mergeCell ref="DE15:DG15"/>
-    <mergeCell ref="DH15:DJ15"/>
-    <mergeCell ref="DK15:DM15"/>
-    <mergeCell ref="DN15:DP15"/>
-    <mergeCell ref="CM15:CO15"/>
-    <mergeCell ref="CP15:CR15"/>
-    <mergeCell ref="CS15:CU15"/>
-    <mergeCell ref="CV15:CX15"/>
-    <mergeCell ref="CY15:DA15"/>
-    <mergeCell ref="BX15:BZ15"/>
-    <mergeCell ref="CA15:CC15"/>
-    <mergeCell ref="CD15:CF15"/>
-    <mergeCell ref="CG15:CI15"/>
-    <mergeCell ref="CJ15:CL15"/>
-    <mergeCell ref="BI15:BK15"/>
-    <mergeCell ref="BL15:BN15"/>
-    <mergeCell ref="BO15:BQ15"/>
-    <mergeCell ref="BR15:BT15"/>
-    <mergeCell ref="BU15:BW15"/>
-    <mergeCell ref="AT15:AV15"/>
-    <mergeCell ref="AW15:AY15"/>
-    <mergeCell ref="AZ15:BB15"/>
-    <mergeCell ref="BC15:BE15"/>
-    <mergeCell ref="BF15:BH15"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="AN15:AP15"/>
-    <mergeCell ref="AQ15:AS15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AQ4:AS4"/>
-    <mergeCell ref="AT4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="BC4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BK4"/>
-    <mergeCell ref="BL4:BN4"/>
-    <mergeCell ref="BO4:BQ4"/>
-    <mergeCell ref="BR4:BT4"/>
-    <mergeCell ref="BU4:BW4"/>
-    <mergeCell ref="BX4:BZ4"/>
-    <mergeCell ref="CA4:CC4"/>
-    <mergeCell ref="CD4:CF4"/>
-    <mergeCell ref="CG4:CI4"/>
-    <mergeCell ref="CJ4:CL4"/>
-    <mergeCell ref="CM4:CO4"/>
-    <mergeCell ref="CP4:CR4"/>
-    <mergeCell ref="CS4:CU4"/>
-    <mergeCell ref="CV4:CX4"/>
-    <mergeCell ref="CY4:DA4"/>
-    <mergeCell ref="DB4:DD4"/>
-    <mergeCell ref="DE4:DG4"/>
-    <mergeCell ref="DZ4:EB4"/>
-    <mergeCell ref="EC4:EE4"/>
-    <mergeCell ref="EF4:EH4"/>
-    <mergeCell ref="EI4:EK4"/>
-    <mergeCell ref="DH4:DJ4"/>
-    <mergeCell ref="DK4:DM4"/>
-    <mergeCell ref="DN4:DP4"/>
-    <mergeCell ref="DQ4:DS4"/>
-    <mergeCell ref="DT4:DV4"/>
-    <mergeCell ref="DW4:DY4"/>
-    <mergeCell ref="GQ4:GS4"/>
-    <mergeCell ref="FP4:FR4"/>
-    <mergeCell ref="FS4:FU4"/>
-    <mergeCell ref="FV4:FX4"/>
-    <mergeCell ref="FY4:GA4"/>
-    <mergeCell ref="GB4:GD4"/>
-    <mergeCell ref="GE4:GG4"/>
-    <mergeCell ref="GH4:GJ4"/>
-    <mergeCell ref="GK4:GM4"/>
-    <mergeCell ref="GN4:GP4"/>
-    <mergeCell ref="FA4:FC4"/>
-    <mergeCell ref="FD4:FF4"/>
-    <mergeCell ref="FG4:FI4"/>
-    <mergeCell ref="FJ4:FL4"/>
-    <mergeCell ref="FM4:FO4"/>
-    <mergeCell ref="EL4:EN4"/>
-    <mergeCell ref="EO4:EQ4"/>
-    <mergeCell ref="ER4:ET4"/>
-    <mergeCell ref="EU4:EW4"/>
-    <mergeCell ref="EX4:EZ4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J17:L20">
@@ -9952,8 +9946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:GT21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="283" zoomScaleNormal="283" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScale="283" zoomScaleNormal="283" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9990,10 +9984,10 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="109" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="111"/>
+      <c r="H2" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="122"/>
       <c r="J2" s="25">
         <f>G2+1</f>
         <v>1</v>
@@ -10380,10 +10374,10 @@
       <c r="GS2" s="46"/>
     </row>
     <row r="3" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="119">
+      <c r="C3" s="137">
         <v>1</v>
       </c>
       <c r="D3" s="97">
@@ -10395,19 +10389,19 @@
       <c r="F3" s="96">
         <v>0.11700000000000001</v>
       </c>
-      <c r="H3" s="103" t="s">
+      <c r="H3" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="118"/>
-      <c r="J3" s="144">
+      <c r="I3" s="136"/>
+      <c r="J3" s="111">
         <f>Data!J5</f>
         <v>1</v>
       </c>
-      <c r="K3" s="145">
+      <c r="K3" s="112">
         <f>Data!K5</f>
         <v>1</v>
       </c>
-      <c r="L3" s="146">
+      <c r="L3" s="113">
         <f>Data!L5</f>
         <v>1</v>
       </c>
@@ -11169,8 +11163,8 @@
       </c>
     </row>
     <row r="4" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="123"/>
-      <c r="C4" s="120"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="98">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -11182,15 +11176,15 @@
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="56"/>
-      <c r="J4" s="147">
+      <c r="J4" s="114">
         <f>Data!J6</f>
         <v>1</v>
       </c>
-      <c r="K4" s="148">
+      <c r="K4" s="115">
         <f>Data!K6</f>
         <v>0</v>
       </c>
-      <c r="L4" s="149">
+      <c r="L4" s="116">
         <f>Data!L6</f>
         <v>1</v>
       </c>
@@ -11952,8 +11946,8 @@
       </c>
     </row>
     <row r="5" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="123"/>
-      <c r="C5" s="120"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="138"/>
       <c r="D5" s="98">
         <v>0.15</v>
       </c>
@@ -11965,15 +11959,15 @@
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="56"/>
-      <c r="J5" s="147">
+      <c r="J5" s="114">
         <f>Data!J7</f>
         <v>1</v>
       </c>
-      <c r="K5" s="148">
+      <c r="K5" s="115">
         <f>Data!K7</f>
         <v>0</v>
       </c>
-      <c r="L5" s="149">
+      <c r="L5" s="116">
         <f>Data!L7</f>
         <v>1</v>
       </c>
@@ -12735,8 +12729,8 @@
       </c>
     </row>
     <row r="6" spans="2:201" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="123"/>
-      <c r="C6" s="121"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="139"/>
       <c r="D6" s="98">
         <v>0.98</v>
       </c>
@@ -12748,15 +12742,15 @@
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="57"/>
-      <c r="J6" s="150">
+      <c r="J6" s="117">
         <f>Data!J8</f>
         <v>1</v>
       </c>
-      <c r="K6" s="151">
+      <c r="K6" s="118">
         <f>Data!K8</f>
         <v>1</v>
       </c>
-      <c r="L6" s="152">
+      <c r="L6" s="119">
         <f>Data!L8</f>
         <v>1</v>
       </c>
@@ -13518,8 +13512,8 @@
       </c>
     </row>
     <row r="7" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="123"/>
-      <c r="C7" s="119">
+      <c r="B7" s="141"/>
+      <c r="C7" s="137">
         <v>2</v>
       </c>
       <c r="D7" s="97">
@@ -13531,10 +13525,10 @@
       <c r="F7" s="96">
         <v>0.121</v>
       </c>
-      <c r="H7" s="125" t="s">
+      <c r="H7" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="126"/>
+      <c r="I7" s="144"/>
       <c r="J7" s="5">
         <f>IF(Data!J9="〇",1,0)</f>
         <v>1</v>
@@ -14113,8 +14107,8 @@
       <c r="GS7" s="4"/>
     </row>
     <row r="8" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="123"/>
-      <c r="C8" s="120"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="98">
         <v>0.29399999999999998</v>
       </c>
@@ -14126,8 +14120,8 @@
       </c>
     </row>
     <row r="9" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="123"/>
-      <c r="C9" s="120"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="98">
         <v>0.34599999999999997</v>
       </c>
@@ -14137,10 +14131,10 @@
       <c r="F9" s="100">
         <v>0.218</v>
       </c>
-      <c r="H9" s="125" t="s">
+      <c r="H9" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="126"/>
+      <c r="I9" s="144"/>
       <c r="J9" s="47">
         <v>1</v>
       </c>
@@ -14719,8 +14713,8 @@
       </c>
     </row>
     <row r="10" spans="2:201" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="123"/>
-      <c r="C10" s="121"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="98">
         <v>0.191</v>
       </c>
@@ -14730,19 +14724,19 @@
       <c r="F10" s="100">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H10" s="127" t="s">
+      <c r="H10" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="128"/>
-      <c r="J10" s="142">
+      <c r="I10" s="146"/>
+      <c r="J10" s="65">
         <f>1/(1+EXP(-SUMPRODUCT(J3:L6,$D$3:$F$6)+$D$15))</f>
         <v>0.7658456258197972</v>
       </c>
-      <c r="K10" s="143">
+      <c r="K10" s="66">
         <f>1/(1+EXP(-SUMPRODUCT(J3:L6,$D$7:$F$10)+$E$15))</f>
         <v>0.92099911351520103</v>
       </c>
-      <c r="L10" s="143">
+      <c r="L10" s="66">
         <f>1/(1+EXP(-SUMPRODUCT(J3:L6,$D$11:$F$14)+$F$15))</f>
         <v>0.96789152481148033</v>
       </c>
@@ -15504,8 +15498,8 @@
       </c>
     </row>
     <row r="11" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="123"/>
-      <c r="C11" s="119">
+      <c r="B11" s="141"/>
+      <c r="C11" s="137">
         <v>3</v>
       </c>
       <c r="D11" s="97">
@@ -15722,8 +15716,8 @@
       <c r="GS11" s="53"/>
     </row>
     <row r="12" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="123"/>
-      <c r="C12" s="120"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="98">
         <v>0.89200000000000002</v>
       </c>
@@ -15928,8 +15922,8 @@
       <c r="GS12" s="22"/>
     </row>
     <row r="13" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="123"/>
-      <c r="C13" s="120"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="138"/>
       <c r="D13" s="98">
         <v>0.93600000000000005</v>
       </c>
@@ -16071,15 +16065,15 @@
       <c r="GS13" s="22"/>
     </row>
     <row r="14" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="123"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="134">
+      <c r="B14" s="141"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="103">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="E14" s="135">
+      <c r="E14" s="104">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="F14" s="136">
+      <c r="F14" s="105">
         <v>0.13</v>
       </c>
       <c r="J14" s="1"/>
@@ -16212,17 +16206,17 @@
       <c r="GS14" s="22"/>
     </row>
     <row r="15" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="124"/>
+      <c r="B15" s="142"/>
       <c r="C15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="137">
+      <c r="D15" s="106">
         <v>0.96899999999999997</v>
       </c>
-      <c r="E15" s="137">
+      <c r="E15" s="106">
         <v>0.91700000000000004</v>
       </c>
-      <c r="F15" s="137">
+      <c r="F15" s="106">
         <v>0.94099999999999995</v>
       </c>
       <c r="J15" s="1"/>
@@ -16355,25 +16349,25 @@
       <c r="GS15" s="22"/>
     </row>
     <row r="16" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="140" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
-      <c r="D16" s="139">
+      <c r="D16" s="108">
         <v>0.18099999999999999</v>
       </c>
-      <c r="E16" s="140">
+      <c r="E16" s="109">
         <v>0.92300000000000004</v>
       </c>
-      <c r="F16" s="141">
+      <c r="F16" s="110">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H16" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="126"/>
+      <c r="H16" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="144"/>
       <c r="J16" s="47">
         <v>1</v>
       </c>
@@ -16824,23 +16818,23 @@
       <c r="GS16" s="36"/>
     </row>
     <row r="17" spans="2:202" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="123"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="34">
         <v>2</v>
       </c>
-      <c r="D17" s="139">
+      <c r="D17" s="108">
         <v>0.98699999999999999</v>
       </c>
-      <c r="E17" s="140">
+      <c r="E17" s="109">
         <v>0.10100000000000001</v>
       </c>
-      <c r="F17" s="141">
+      <c r="F17" s="110">
         <v>0.84199999999999997</v>
       </c>
-      <c r="H17" s="127" t="s">
+      <c r="H17" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="128"/>
+      <c r="I17" s="146"/>
       <c r="J17" s="102">
         <f>1/(1+EXP(-SUMPRODUCT($D$16:$F$16,J10:L10)+$D$18))</f>
         <v>0.51243284239605658</v>
@@ -17419,14 +17413,14 @@
       <c r="GS17" s="65"/>
     </row>
     <row r="18" spans="2:202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="124"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="138">
+      <c r="D18" s="107">
         <v>0.998</v>
       </c>
-      <c r="E18" s="138">
+      <c r="E18" s="107">
         <v>0.94</v>
       </c>
       <c r="F18" s="64"/>
@@ -17960,7 +17954,7 @@
         <v>31.19400531292812</v>
       </c>
       <c r="I20" s="84"/>
-      <c r="J20" s="153">
+      <c r="J20" s="120">
         <f>SUMXMY2(J7:K7,J17:K17)</f>
         <v>0.69126982542208815</v>
       </c>
@@ -18439,8 +18433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:GT26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18477,10 +18471,10 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="109" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="111"/>
+      <c r="H2" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="122"/>
       <c r="J2" s="25">
         <f>G2+1</f>
         <v>1</v>
@@ -18867,10 +18861,10 @@
       <c r="GS2" s="46"/>
     </row>
     <row r="3" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="119">
+      <c r="C3" s="137">
         <v>1</v>
       </c>
       <c r="D3" s="71">
@@ -18882,10 +18876,10 @@
       <c r="F3" s="73">
         <v>0.92489802724863956</v>
       </c>
-      <c r="H3" s="103" t="s">
+      <c r="H3" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="118"/>
+      <c r="I3" s="136"/>
       <c r="J3" s="6">
         <f>Data!J5</f>
         <v>1</v>
@@ -19656,8 +19650,8 @@
       </c>
     </row>
     <row r="4" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="123"/>
-      <c r="C4" s="120"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="74">
         <v>0</v>
       </c>
@@ -20439,8 +20433,8 @@
       </c>
     </row>
     <row r="5" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="123"/>
-      <c r="C5" s="120"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="138"/>
       <c r="D5" s="74">
         <v>0</v>
       </c>
@@ -21222,8 +21216,8 @@
       </c>
     </row>
     <row r="6" spans="2:201" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="123"/>
-      <c r="C6" s="121"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="139"/>
       <c r="D6" s="74">
         <v>4.7530809944782435</v>
       </c>
@@ -22005,8 +21999,8 @@
       </c>
     </row>
     <row r="7" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="123"/>
-      <c r="C7" s="119">
+      <c r="B7" s="141"/>
+      <c r="C7" s="137">
         <v>2</v>
       </c>
       <c r="D7" s="71">
@@ -22018,10 +22012,10 @@
       <c r="F7" s="73">
         <v>4.261242829744246E-2</v>
       </c>
-      <c r="H7" s="125" t="s">
+      <c r="H7" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="126"/>
+      <c r="I7" s="144"/>
       <c r="J7" s="5">
         <f>IF(Data!J9="〇",1,0)</f>
         <v>1</v>
@@ -22600,8 +22594,8 @@
       <c r="GS7" s="94"/>
     </row>
     <row r="8" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="123"/>
-      <c r="C8" s="120"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="74">
         <v>0.56872467967799278</v>
       </c>
@@ -22613,8 +22607,8 @@
       </c>
     </row>
     <row r="9" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="123"/>
-      <c r="C9" s="120"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="74">
         <v>0.6833065195081186</v>
       </c>
@@ -22624,10 +22618,10 @@
       <c r="F9" s="76">
         <v>0.39974311308496541</v>
       </c>
-      <c r="H9" s="125" t="s">
+      <c r="H9" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="126"/>
+      <c r="I9" s="144"/>
       <c r="J9" s="47">
         <v>1</v>
       </c>
@@ -23206,8 +23200,8 @@
       </c>
     </row>
     <row r="10" spans="2:201" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="123"/>
-      <c r="C10" s="121"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="74">
         <v>1.1943655286343625E-2</v>
       </c>
@@ -23217,10 +23211,10 @@
       <c r="F10" s="76">
         <v>2.4405696583152021E-2</v>
       </c>
-      <c r="H10" s="127" t="s">
+      <c r="H10" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="128"/>
+      <c r="I10" s="146"/>
       <c r="J10" s="65">
         <f>1/(1+EXP(-SUMPRODUCT(J3:L6,$D$3:$F$6)+$D$15))</f>
         <v>1.1779417339519331E-2</v>
@@ -23991,8 +23985,8 @@
       </c>
     </row>
     <row r="11" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="123"/>
-      <c r="C11" s="119">
+      <c r="B11" s="141"/>
+      <c r="C11" s="137">
         <v>3</v>
       </c>
       <c r="D11" s="71">
@@ -24200,8 +24194,8 @@
       <c r="GS11" s="51"/>
     </row>
     <row r="12" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="123"/>
-      <c r="C12" s="120"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="74">
         <v>0</v>
       </c>
@@ -24406,8 +24400,8 @@
       <c r="GS12" s="21"/>
     </row>
     <row r="13" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="123"/>
-      <c r="C13" s="120"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="138"/>
       <c r="D13" s="74">
         <v>0</v>
       </c>
@@ -24547,8 +24541,8 @@
       <c r="GS13" s="21"/>
     </row>
     <row r="14" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="123"/>
-      <c r="C14" s="121"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="139"/>
       <c r="D14" s="77">
         <v>1.6173377257457294E-2</v>
       </c>
@@ -24688,7 +24682,7 @@
       <c r="GS14" s="21"/>
     </row>
     <row r="15" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="124"/>
+      <c r="B15" s="142"/>
       <c r="C15" s="35" t="s">
         <v>9</v>
       </c>
@@ -24831,7 +24825,7 @@
       <c r="GS15" s="21"/>
     </row>
     <row r="16" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="140" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="5">
@@ -24846,10 +24840,10 @@
       <c r="F16" s="62">
         <v>4.9948166575926406E-2</v>
       </c>
-      <c r="H16" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="126"/>
+      <c r="H16" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="144"/>
       <c r="J16" s="47">
         <v>1</v>
       </c>
@@ -25300,7 +25294,7 @@
       <c r="GS16" s="54"/>
     </row>
     <row r="17" spans="2:202" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="123"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="34">
         <v>2</v>
       </c>
@@ -25313,10 +25307,10 @@
       <c r="F17" s="62">
         <v>10.508825428759916</v>
       </c>
-      <c r="H17" s="127" t="s">
+      <c r="H17" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="128"/>
+      <c r="I17" s="146"/>
       <c r="J17" s="67">
         <f>1/(1+EXP(-SUMPRODUCT($D$16:$F$16,J10:L10)+$D$18))</f>
         <v>0.99729847358420498</v>
@@ -25895,7 +25889,7 @@
       <c r="GS17" s="95"/>
     </row>
     <row r="18" spans="2:202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="124"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="35" t="s">
         <v>9</v>
       </c>
@@ -26890,10 +26884,10 @@
       <c r="GQ21" s="1"/>
     </row>
     <row r="22" spans="2:202" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H22" s="125" t="s">
+      <c r="H22" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="126"/>
+      <c r="I22" s="144"/>
       <c r="J22" s="40">
         <f>IF(J17&gt;=K17,1,0)</f>
         <v>1</v>
@@ -27478,10 +27472,10 @@
         <f>COUNTIF(J23:GS23,"正")/COUNTA(J23:GS23)</f>
         <v>1</v>
       </c>
-      <c r="H23" s="125" t="s">
+      <c r="H23" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="129"/>
+      <c r="I23" s="147"/>
       <c r="J23" s="32" t="str">
         <f>IF(SUMPRODUCT(J7:K7,J22:K22)=1,"正","誤")</f>
         <v>正</v>
@@ -28266,6 +28260,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B3:B15"/>
     <mergeCell ref="C3:C6"/>
@@ -28275,11 +28274,6 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C11:C14"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28331,11 +28325,11 @@
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="131" t="s">
+      <c r="J2" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="132"/>
-      <c r="L2" s="133"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="151"/>
       <c r="N2" s="12" t="s">
         <v>29</v>
       </c>
@@ -28343,11 +28337,11 @@
       <c r="P2" s="12"/>
       <c r="S2" s="18"/>
       <c r="T2" s="53"/>
-      <c r="U2" s="131" t="s">
+      <c r="U2" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="132"/>
-      <c r="W2" s="133"/>
+      <c r="V2" s="150"/>
+      <c r="W2" s="151"/>
       <c r="Y2" s="12" t="s">
         <v>29</v>
       </c>
@@ -28355,10 +28349,10 @@
       <c r="AA2" s="12"/>
     </row>
     <row r="3" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="119">
+      <c r="C3" s="137">
         <v>1</v>
       </c>
       <c r="D3" s="71">
@@ -28421,8 +28415,8 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="123"/>
-      <c r="C4" s="120"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="74">
         <f>例題_学習済!D4</f>
         <v>0</v>
@@ -28483,8 +28477,8 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="123"/>
-      <c r="C5" s="120"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="138"/>
       <c r="D5" s="74">
         <f>例題_学習済!D5</f>
         <v>0</v>
@@ -28545,8 +28539,8 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="123"/>
-      <c r="C6" s="121"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="139"/>
       <c r="D6" s="74">
         <f>例題_学習済!D6</f>
         <v>4.7530809944782435</v>
@@ -28607,8 +28601,8 @@
       </c>
     </row>
     <row r="7" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="123"/>
-      <c r="C7" s="119">
+      <c r="B7" s="141"/>
+      <c r="C7" s="137">
         <v>2</v>
       </c>
       <c r="D7" s="71">
@@ -28633,8 +28627,8 @@
       <c r="V7" s="51"/>
     </row>
     <row r="8" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="123"/>
-      <c r="C8" s="120"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="74">
         <f>例題_学習済!D8</f>
         <v>0.56872467967799278</v>
@@ -28649,8 +28643,8 @@
       </c>
     </row>
     <row r="9" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="123"/>
-      <c r="C9" s="120"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="74">
         <f>例題_学習済!D9</f>
         <v>0.6833065195081186</v>
@@ -28663,10 +28657,10 @@
         <f>例題_学習済!F9</f>
         <v>0.39974311308496541</v>
       </c>
-      <c r="H9" s="125" t="s">
+      <c r="H9" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="126"/>
+      <c r="I9" s="144"/>
       <c r="J9" s="47">
         <v>1</v>
       </c>
@@ -28676,10 +28670,10 @@
       <c r="L9" s="47">
         <v>3</v>
       </c>
-      <c r="S9" s="125" t="s">
+      <c r="S9" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="T9" s="126"/>
+      <c r="T9" s="144"/>
       <c r="U9" s="47">
         <v>1</v>
       </c>
@@ -28691,8 +28685,8 @@
       </c>
     </row>
     <row r="10" spans="2:27" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="123"/>
-      <c r="C10" s="121"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="74">
         <f>例題_学習済!D10</f>
         <v>1.1943655286343625E-2</v>
@@ -28705,10 +28699,10 @@
         <f>例題_学習済!F10</f>
         <v>2.4405696583152021E-2</v>
       </c>
-      <c r="H10" s="127" t="s">
+      <c r="H10" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="128"/>
+      <c r="I10" s="146"/>
       <c r="J10" s="65">
         <f>1/(1+EXP(-SUMPRODUCT(J3:L6,$D$3:$F$6)+$D$15))</f>
         <v>9.1427810030412018E-3</v>
@@ -28721,10 +28715,10 @@
         <f>1/(1+EXP(-SUMPRODUCT(J3:L6,$D$11:$F$14)+$F$15))</f>
         <v>3.9919804524753419E-3</v>
       </c>
-      <c r="S10" s="127" t="s">
+      <c r="S10" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="T10" s="128"/>
+      <c r="T10" s="146"/>
       <c r="U10" s="65">
         <f>1/(1+EXP(-SUMPRODUCT(U3:W6,$D$3:$F$6)+$D$15))</f>
         <v>0.25433507076451989</v>
@@ -28739,8 +28733,8 @@
       </c>
     </row>
     <row r="11" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="123"/>
-      <c r="C11" s="119">
+      <c r="B11" s="141"/>
+      <c r="C11" s="137">
         <v>3</v>
       </c>
       <c r="D11" s="71">
@@ -28767,8 +28761,8 @@
       <c r="W11" s="51"/>
     </row>
     <row r="12" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="123"/>
-      <c r="C12" s="120"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="74">
         <f>例題_学習済!D12</f>
         <v>0</v>
@@ -28791,8 +28785,8 @@
       <c r="W12" s="21"/>
     </row>
     <row r="13" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="123"/>
-      <c r="C13" s="120"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="138"/>
       <c r="D13" s="74">
         <f>例題_学習済!D13</f>
         <v>0</v>
@@ -28809,8 +28803,8 @@
       <c r="W13" s="21"/>
     </row>
     <row r="14" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="123"/>
-      <c r="C14" s="121"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="139"/>
       <c r="D14" s="77">
         <f>例題_学習済!D14</f>
         <v>1.6173377257457294E-2</v>
@@ -28827,7 +28821,7 @@
       <c r="W14" s="21"/>
     </row>
     <row r="15" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="124"/>
+      <c r="B15" s="142"/>
       <c r="C15" s="35" t="s">
         <v>9</v>
       </c>
@@ -28849,7 +28843,7 @@
       <c r="W15" s="21"/>
     </row>
     <row r="16" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="140" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="5">
@@ -28867,10 +28861,10 @@
         <f>例題_学習済!F16</f>
         <v>4.9948166575926406E-2</v>
       </c>
-      <c r="H16" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="126"/>
+      <c r="H16" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="144"/>
       <c r="J16" s="47">
         <v>1</v>
       </c>
@@ -28878,10 +28872,10 @@
         <v>2</v>
       </c>
       <c r="L16" s="54"/>
-      <c r="S16" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="T16" s="126"/>
+      <c r="S16" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" s="144"/>
       <c r="U16" s="47">
         <v>1</v>
       </c>
@@ -28891,7 +28885,7 @@
       <c r="W16" s="54"/>
     </row>
     <row r="17" spans="2:23" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="123"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="34">
         <v>2</v>
       </c>
@@ -28907,10 +28901,10 @@
         <f>例題_学習済!F17</f>
         <v>10.508825428759916</v>
       </c>
-      <c r="H17" s="127" t="s">
+      <c r="H17" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="128"/>
+      <c r="I17" s="146"/>
       <c r="J17" s="67">
         <f>1/(1+EXP(-SUMPRODUCT($D$16:$F$16,J10:L10)+$D$18))</f>
         <v>0.9972842269988903</v>
@@ -28920,10 +28914,10 @@
         <v>2.7461914195362623E-3</v>
       </c>
       <c r="L17" s="92"/>
-      <c r="S17" s="127" t="s">
+      <c r="S17" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="T17" s="128"/>
+      <c r="T17" s="146"/>
       <c r="U17" s="67">
         <f>1/(1+EXP(-SUMPRODUCT($D$16:$F$16,U10:W10)+$D$18))</f>
         <v>6.6865696763405216E-3</v>
@@ -28935,7 +28929,7 @@
       <c r="W17" s="92"/>
     </row>
     <row r="18" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="124"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="35" t="s">
         <v>9</v>
       </c>
@@ -28972,19 +28966,19 @@
       <c r="W19" s="21"/>
     </row>
     <row r="20" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H20" s="130" t="s">
+      <c r="H20" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="130"/>
+      <c r="I20" s="148"/>
       <c r="J20" s="34" t="str">
         <f>IF(J17&gt;=K17,"〇","×")</f>
         <v>〇</v>
       </c>
       <c r="K20" s="70"/>
-      <c r="S20" s="130" t="s">
+      <c r="S20" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="T20" s="130"/>
+      <c r="T20" s="148"/>
       <c r="U20" s="34" t="str">
         <f>IF(U17&gt;=V17,"〇","×")</f>
         <v>×</v>
@@ -29015,12 +29009,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -29032,6 +29020,12 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C11:C14"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="N3:P6">

--- a/4.xlsx
+++ b/4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/workspace/Excel-AI-Book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DB19D8-5EF4-7C4B-AEED-487B29447B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC924DC-555D-8F4C-96ED-2CA7C7897B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16980" yWindow="620" windowWidth="33000" windowHeight="26960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="620" windowWidth="41680" windowHeight="26960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1235,13 +1235,13 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1253,10 +1253,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1276,9 +1279,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1703,399 +1703,399 @@
       </c>
     </row>
     <row r="4" spans="2:201" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="121" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="122"/>
-      <c r="J4" s="127">
-        <v>1</v>
-      </c>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="127">
+      <c r="H4" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="129"/>
+      <c r="J4" s="121">
+        <v>1</v>
+      </c>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="121">
         <f>J4+1</f>
         <v>2</v>
       </c>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="127">
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="121">
         <f>M4+1</f>
         <v>3</v>
       </c>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="127">
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="121">
         <f>P4+1</f>
         <v>4</v>
       </c>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="127">
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="121">
         <f>S4+1</f>
         <v>5</v>
       </c>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="127">
+      <c r="W4" s="122"/>
+      <c r="X4" s="122"/>
+      <c r="Y4" s="121">
         <f>V4+1</f>
         <v>6</v>
       </c>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="127">
+      <c r="Z4" s="122"/>
+      <c r="AA4" s="122"/>
+      <c r="AB4" s="121">
         <f>Y4+1</f>
         <v>7</v>
       </c>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="128"/>
-      <c r="AE4" s="127">
+      <c r="AC4" s="122"/>
+      <c r="AD4" s="122"/>
+      <c r="AE4" s="121">
         <f>AB4+1</f>
         <v>8</v>
       </c>
-      <c r="AF4" s="128"/>
-      <c r="AG4" s="128"/>
-      <c r="AH4" s="127">
+      <c r="AF4" s="122"/>
+      <c r="AG4" s="122"/>
+      <c r="AH4" s="121">
         <f>AE4+1</f>
         <v>9</v>
       </c>
-      <c r="AI4" s="128"/>
-      <c r="AJ4" s="128"/>
-      <c r="AK4" s="127">
+      <c r="AI4" s="122"/>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="121">
         <f>AH4+1</f>
         <v>10</v>
       </c>
-      <c r="AL4" s="128"/>
-      <c r="AM4" s="128"/>
-      <c r="AN4" s="127">
+      <c r="AL4" s="122"/>
+      <c r="AM4" s="122"/>
+      <c r="AN4" s="121">
         <f>AK4+1</f>
         <v>11</v>
       </c>
-      <c r="AO4" s="128"/>
-      <c r="AP4" s="128"/>
-      <c r="AQ4" s="127">
+      <c r="AO4" s="122"/>
+      <c r="AP4" s="122"/>
+      <c r="AQ4" s="121">
         <f>AN4+1</f>
         <v>12</v>
       </c>
-      <c r="AR4" s="128"/>
-      <c r="AS4" s="128"/>
-      <c r="AT4" s="127">
+      <c r="AR4" s="122"/>
+      <c r="AS4" s="122"/>
+      <c r="AT4" s="121">
         <f>AQ4+1</f>
         <v>13</v>
       </c>
-      <c r="AU4" s="128"/>
-      <c r="AV4" s="128"/>
-      <c r="AW4" s="127">
+      <c r="AU4" s="122"/>
+      <c r="AV4" s="122"/>
+      <c r="AW4" s="121">
         <f>AT4+1</f>
         <v>14</v>
       </c>
-      <c r="AX4" s="128"/>
-      <c r="AY4" s="128"/>
-      <c r="AZ4" s="127">
+      <c r="AX4" s="122"/>
+      <c r="AY4" s="122"/>
+      <c r="AZ4" s="121">
         <f>AW4+1</f>
         <v>15</v>
       </c>
-      <c r="BA4" s="128"/>
-      <c r="BB4" s="128"/>
-      <c r="BC4" s="127">
+      <c r="BA4" s="122"/>
+      <c r="BB4" s="122"/>
+      <c r="BC4" s="121">
         <f>AZ4+1</f>
         <v>16</v>
       </c>
-      <c r="BD4" s="128"/>
-      <c r="BE4" s="128"/>
-      <c r="BF4" s="127">
+      <c r="BD4" s="122"/>
+      <c r="BE4" s="122"/>
+      <c r="BF4" s="121">
         <f>BC4+1</f>
         <v>17</v>
       </c>
-      <c r="BG4" s="128"/>
-      <c r="BH4" s="128"/>
-      <c r="BI4" s="127">
+      <c r="BG4" s="122"/>
+      <c r="BH4" s="122"/>
+      <c r="BI4" s="121">
         <f>BF4+1</f>
         <v>18</v>
       </c>
-      <c r="BJ4" s="128"/>
-      <c r="BK4" s="128"/>
-      <c r="BL4" s="127">
+      <c r="BJ4" s="122"/>
+      <c r="BK4" s="122"/>
+      <c r="BL4" s="121">
         <f>BI4+1</f>
         <v>19</v>
       </c>
-      <c r="BM4" s="128"/>
-      <c r="BN4" s="128"/>
-      <c r="BO4" s="127">
+      <c r="BM4" s="122"/>
+      <c r="BN4" s="122"/>
+      <c r="BO4" s="121">
         <f>BL4+1</f>
         <v>20</v>
       </c>
-      <c r="BP4" s="128"/>
-      <c r="BQ4" s="128"/>
-      <c r="BR4" s="127">
+      <c r="BP4" s="122"/>
+      <c r="BQ4" s="122"/>
+      <c r="BR4" s="121">
         <f>BO4+1</f>
         <v>21</v>
       </c>
-      <c r="BS4" s="128"/>
-      <c r="BT4" s="128"/>
-      <c r="BU4" s="127">
+      <c r="BS4" s="122"/>
+      <c r="BT4" s="122"/>
+      <c r="BU4" s="121">
         <f>BR4+1</f>
         <v>22</v>
       </c>
-      <c r="BV4" s="128"/>
-      <c r="BW4" s="128"/>
-      <c r="BX4" s="127">
+      <c r="BV4" s="122"/>
+      <c r="BW4" s="122"/>
+      <c r="BX4" s="121">
         <f>BU4+1</f>
         <v>23</v>
       </c>
-      <c r="BY4" s="128"/>
-      <c r="BZ4" s="128"/>
-      <c r="CA4" s="127">
+      <c r="BY4" s="122"/>
+      <c r="BZ4" s="122"/>
+      <c r="CA4" s="121">
         <f>BX4+1</f>
         <v>24</v>
       </c>
-      <c r="CB4" s="128"/>
-      <c r="CC4" s="128"/>
-      <c r="CD4" s="127">
+      <c r="CB4" s="122"/>
+      <c r="CC4" s="122"/>
+      <c r="CD4" s="121">
         <f>CA4+1</f>
         <v>25</v>
       </c>
-      <c r="CE4" s="128"/>
-      <c r="CF4" s="128"/>
-      <c r="CG4" s="127">
+      <c r="CE4" s="122"/>
+      <c r="CF4" s="122"/>
+      <c r="CG4" s="121">
         <f>CD4+1</f>
         <v>26</v>
       </c>
-      <c r="CH4" s="128"/>
-      <c r="CI4" s="128"/>
-      <c r="CJ4" s="127">
+      <c r="CH4" s="122"/>
+      <c r="CI4" s="122"/>
+      <c r="CJ4" s="121">
         <f>CG4+1</f>
         <v>27</v>
       </c>
-      <c r="CK4" s="128"/>
-      <c r="CL4" s="128"/>
-      <c r="CM4" s="127">
+      <c r="CK4" s="122"/>
+      <c r="CL4" s="122"/>
+      <c r="CM4" s="121">
         <f>CJ4+1</f>
         <v>28</v>
       </c>
-      <c r="CN4" s="128"/>
-      <c r="CO4" s="128"/>
-      <c r="CP4" s="127">
+      <c r="CN4" s="122"/>
+      <c r="CO4" s="122"/>
+      <c r="CP4" s="121">
         <f>CM4+1</f>
         <v>29</v>
       </c>
-      <c r="CQ4" s="128"/>
-      <c r="CR4" s="128"/>
-      <c r="CS4" s="127">
+      <c r="CQ4" s="122"/>
+      <c r="CR4" s="122"/>
+      <c r="CS4" s="121">
         <f>CP4+1</f>
         <v>30</v>
       </c>
-      <c r="CT4" s="128"/>
-      <c r="CU4" s="128"/>
-      <c r="CV4" s="127">
+      <c r="CT4" s="122"/>
+      <c r="CU4" s="122"/>
+      <c r="CV4" s="121">
         <f>CS4+1</f>
         <v>31</v>
       </c>
-      <c r="CW4" s="128"/>
-      <c r="CX4" s="128"/>
-      <c r="CY4" s="127">
+      <c r="CW4" s="122"/>
+      <c r="CX4" s="122"/>
+      <c r="CY4" s="121">
         <f>CV4+1</f>
         <v>32</v>
       </c>
-      <c r="CZ4" s="128"/>
-      <c r="DA4" s="128"/>
-      <c r="DB4" s="127">
+      <c r="CZ4" s="122"/>
+      <c r="DA4" s="122"/>
+      <c r="DB4" s="121">
         <f>CY4+1</f>
         <v>33</v>
       </c>
-      <c r="DC4" s="128"/>
-      <c r="DD4" s="128"/>
-      <c r="DE4" s="127">
+      <c r="DC4" s="122"/>
+      <c r="DD4" s="122"/>
+      <c r="DE4" s="121">
         <f>DB4+1</f>
         <v>34</v>
       </c>
-      <c r="DF4" s="128"/>
-      <c r="DG4" s="128"/>
-      <c r="DH4" s="127">
+      <c r="DF4" s="122"/>
+      <c r="DG4" s="122"/>
+      <c r="DH4" s="121">
         <f>DE4+1</f>
         <v>35</v>
       </c>
-      <c r="DI4" s="128"/>
-      <c r="DJ4" s="128"/>
-      <c r="DK4" s="127">
+      <c r="DI4" s="122"/>
+      <c r="DJ4" s="122"/>
+      <c r="DK4" s="121">
         <f>DH4+1</f>
         <v>36</v>
       </c>
-      <c r="DL4" s="128"/>
-      <c r="DM4" s="128"/>
-      <c r="DN4" s="127">
+      <c r="DL4" s="122"/>
+      <c r="DM4" s="122"/>
+      <c r="DN4" s="121">
         <f>DK4+1</f>
         <v>37</v>
       </c>
-      <c r="DO4" s="128"/>
-      <c r="DP4" s="128"/>
-      <c r="DQ4" s="127">
+      <c r="DO4" s="122"/>
+      <c r="DP4" s="122"/>
+      <c r="DQ4" s="121">
         <f>DN4+1</f>
         <v>38</v>
       </c>
-      <c r="DR4" s="128"/>
-      <c r="DS4" s="128"/>
-      <c r="DT4" s="127">
+      <c r="DR4" s="122"/>
+      <c r="DS4" s="122"/>
+      <c r="DT4" s="121">
         <f>DQ4+1</f>
         <v>39</v>
       </c>
-      <c r="DU4" s="128"/>
-      <c r="DV4" s="128"/>
-      <c r="DW4" s="127">
+      <c r="DU4" s="122"/>
+      <c r="DV4" s="122"/>
+      <c r="DW4" s="121">
         <f>DT4+1</f>
         <v>40</v>
       </c>
-      <c r="DX4" s="128"/>
-      <c r="DY4" s="128"/>
-      <c r="DZ4" s="127">
+      <c r="DX4" s="122"/>
+      <c r="DY4" s="122"/>
+      <c r="DZ4" s="121">
         <f>DW4+1</f>
         <v>41</v>
       </c>
-      <c r="EA4" s="128"/>
-      <c r="EB4" s="128"/>
-      <c r="EC4" s="127">
+      <c r="EA4" s="122"/>
+      <c r="EB4" s="122"/>
+      <c r="EC4" s="121">
         <f>DZ4+1</f>
         <v>42</v>
       </c>
-      <c r="ED4" s="128"/>
-      <c r="EE4" s="128"/>
-      <c r="EF4" s="127">
+      <c r="ED4" s="122"/>
+      <c r="EE4" s="122"/>
+      <c r="EF4" s="121">
         <f>EC4+1</f>
         <v>43</v>
       </c>
-      <c r="EG4" s="128"/>
-      <c r="EH4" s="128"/>
-      <c r="EI4" s="127">
+      <c r="EG4" s="122"/>
+      <c r="EH4" s="122"/>
+      <c r="EI4" s="121">
         <f>EF4+1</f>
         <v>44</v>
       </c>
-      <c r="EJ4" s="128"/>
-      <c r="EK4" s="128"/>
-      <c r="EL4" s="127">
+      <c r="EJ4" s="122"/>
+      <c r="EK4" s="122"/>
+      <c r="EL4" s="121">
         <f>EI4+1</f>
         <v>45</v>
       </c>
-      <c r="EM4" s="128"/>
-      <c r="EN4" s="128"/>
-      <c r="EO4" s="127">
+      <c r="EM4" s="122"/>
+      <c r="EN4" s="122"/>
+      <c r="EO4" s="121">
         <f>EL4+1</f>
         <v>46</v>
       </c>
-      <c r="EP4" s="128"/>
-      <c r="EQ4" s="128"/>
-      <c r="ER4" s="127">
+      <c r="EP4" s="122"/>
+      <c r="EQ4" s="122"/>
+      <c r="ER4" s="121">
         <f>EO4+1</f>
         <v>47</v>
       </c>
-      <c r="ES4" s="128"/>
-      <c r="ET4" s="128"/>
-      <c r="EU4" s="127">
+      <c r="ES4" s="122"/>
+      <c r="ET4" s="122"/>
+      <c r="EU4" s="121">
         <f>ER4+1</f>
         <v>48</v>
       </c>
-      <c r="EV4" s="128"/>
-      <c r="EW4" s="128"/>
-      <c r="EX4" s="127">
+      <c r="EV4" s="122"/>
+      <c r="EW4" s="122"/>
+      <c r="EX4" s="121">
         <f>EU4+1</f>
         <v>49</v>
       </c>
-      <c r="EY4" s="128"/>
-      <c r="EZ4" s="128"/>
-      <c r="FA4" s="127">
+      <c r="EY4" s="122"/>
+      <c r="EZ4" s="122"/>
+      <c r="FA4" s="121">
         <f>EX4+1</f>
         <v>50</v>
       </c>
-      <c r="FB4" s="128"/>
-      <c r="FC4" s="128"/>
-      <c r="FD4" s="127">
+      <c r="FB4" s="122"/>
+      <c r="FC4" s="122"/>
+      <c r="FD4" s="121">
         <f>FA4+1</f>
         <v>51</v>
       </c>
-      <c r="FE4" s="128"/>
-      <c r="FF4" s="128"/>
-      <c r="FG4" s="127">
+      <c r="FE4" s="122"/>
+      <c r="FF4" s="122"/>
+      <c r="FG4" s="121">
         <f>FD4+1</f>
         <v>52</v>
       </c>
-      <c r="FH4" s="128"/>
-      <c r="FI4" s="128"/>
-      <c r="FJ4" s="127">
+      <c r="FH4" s="122"/>
+      <c r="FI4" s="122"/>
+      <c r="FJ4" s="121">
         <f>FG4+1</f>
         <v>53</v>
       </c>
-      <c r="FK4" s="128"/>
-      <c r="FL4" s="128"/>
-      <c r="FM4" s="127">
+      <c r="FK4" s="122"/>
+      <c r="FL4" s="122"/>
+      <c r="FM4" s="121">
         <f>FJ4+1</f>
         <v>54</v>
       </c>
-      <c r="FN4" s="128"/>
-      <c r="FO4" s="128"/>
-      <c r="FP4" s="127">
+      <c r="FN4" s="122"/>
+      <c r="FO4" s="122"/>
+      <c r="FP4" s="121">
         <f>FM4+1</f>
         <v>55</v>
       </c>
-      <c r="FQ4" s="128"/>
-      <c r="FR4" s="128"/>
-      <c r="FS4" s="127">
+      <c r="FQ4" s="122"/>
+      <c r="FR4" s="122"/>
+      <c r="FS4" s="121">
         <f>FP4+1</f>
         <v>56</v>
       </c>
-      <c r="FT4" s="128"/>
-      <c r="FU4" s="128"/>
-      <c r="FV4" s="127">
+      <c r="FT4" s="122"/>
+      <c r="FU4" s="122"/>
+      <c r="FV4" s="121">
         <f>FS4+1</f>
         <v>57</v>
       </c>
-      <c r="FW4" s="128"/>
-      <c r="FX4" s="128"/>
-      <c r="FY4" s="127">
+      <c r="FW4" s="122"/>
+      <c r="FX4" s="122"/>
+      <c r="FY4" s="121">
         <f>FV4+1</f>
         <v>58</v>
       </c>
-      <c r="FZ4" s="128"/>
-      <c r="GA4" s="128"/>
-      <c r="GB4" s="127">
+      <c r="FZ4" s="122"/>
+      <c r="GA4" s="122"/>
+      <c r="GB4" s="121">
         <f>FY4+1</f>
         <v>59</v>
       </c>
-      <c r="GC4" s="128"/>
-      <c r="GD4" s="128"/>
-      <c r="GE4" s="127">
+      <c r="GC4" s="122"/>
+      <c r="GD4" s="122"/>
+      <c r="GE4" s="121">
         <f>GB4+1</f>
         <v>60</v>
       </c>
-      <c r="GF4" s="128"/>
-      <c r="GG4" s="128"/>
-      <c r="GH4" s="127">
+      <c r="GF4" s="122"/>
+      <c r="GG4" s="122"/>
+      <c r="GH4" s="121">
         <f>GE4+1</f>
         <v>61</v>
       </c>
-      <c r="GI4" s="128"/>
-      <c r="GJ4" s="128"/>
-      <c r="GK4" s="127">
+      <c r="GI4" s="122"/>
+      <c r="GJ4" s="122"/>
+      <c r="GK4" s="121">
         <f>GH4+1</f>
         <v>62</v>
       </c>
-      <c r="GL4" s="128"/>
-      <c r="GM4" s="128"/>
-      <c r="GN4" s="127">
+      <c r="GL4" s="122"/>
+      <c r="GM4" s="122"/>
+      <c r="GN4" s="121">
         <f>GK4+1</f>
         <v>63</v>
       </c>
-      <c r="GO4" s="128"/>
-      <c r="GP4" s="128"/>
-      <c r="GQ4" s="127">
+      <c r="GO4" s="122"/>
+      <c r="GP4" s="122"/>
+      <c r="GQ4" s="121">
         <f>GN4+1</f>
         <v>64</v>
       </c>
-      <c r="GR4" s="128"/>
-      <c r="GS4" s="135"/>
+      <c r="GR4" s="122"/>
+      <c r="GS4" s="123"/>
     </row>
     <row r="5" spans="2:201" x14ac:dyDescent="0.2">
-      <c r="H5" s="129" t="s">
+      <c r="H5" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="130"/>
+      <c r="I5" s="131"/>
       <c r="J5" s="6">
         <v>1</v>
       </c>
@@ -2674,8 +2674,8 @@
       </c>
     </row>
     <row r="6" spans="2:201" x14ac:dyDescent="0.2">
-      <c r="H6" s="131"/>
-      <c r="I6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="133"/>
       <c r="J6" s="9">
         <v>1</v>
       </c>
@@ -3254,8 +3254,8 @@
       </c>
     </row>
     <row r="7" spans="2:201" x14ac:dyDescent="0.2">
-      <c r="H7" s="131"/>
-      <c r="I7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="133"/>
       <c r="J7" s="9">
         <v>1</v>
       </c>
@@ -3834,8 +3834,8 @@
       </c>
     </row>
     <row r="8" spans="2:201" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="133"/>
-      <c r="I8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="135"/>
       <c r="J8" s="11">
         <v>1</v>
       </c>
@@ -4414,10 +4414,10 @@
       </c>
     </row>
     <row r="9" spans="2:201" x14ac:dyDescent="0.2">
-      <c r="H9" s="121" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="122"/>
+      <c r="H9" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="129"/>
       <c r="J9" s="28" t="s">
         <v>12</v>
       </c>
@@ -4751,390 +4751,390 @@
       <c r="I15" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="121">
+      <c r="J15" s="127">
         <f>J4</f>
         <v>1</v>
       </c>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="121">
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="127">
         <f>M4</f>
         <v>2</v>
       </c>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="121">
+      <c r="N15" s="128"/>
+      <c r="O15" s="128"/>
+      <c r="P15" s="127">
         <f>P4</f>
         <v>3</v>
       </c>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="121">
+      <c r="Q15" s="128"/>
+      <c r="R15" s="128"/>
+      <c r="S15" s="127">
         <f>S4</f>
         <v>4</v>
       </c>
-      <c r="T15" s="123"/>
-      <c r="U15" s="123"/>
-      <c r="V15" s="121">
+      <c r="T15" s="128"/>
+      <c r="U15" s="128"/>
+      <c r="V15" s="127">
         <f>V4</f>
         <v>5</v>
       </c>
-      <c r="W15" s="123"/>
-      <c r="X15" s="123"/>
-      <c r="Y15" s="121">
+      <c r="W15" s="128"/>
+      <c r="X15" s="128"/>
+      <c r="Y15" s="127">
         <f>Y4</f>
         <v>6</v>
       </c>
-      <c r="Z15" s="123"/>
-      <c r="AA15" s="123"/>
-      <c r="AB15" s="121">
+      <c r="Z15" s="128"/>
+      <c r="AA15" s="128"/>
+      <c r="AB15" s="127">
         <f>AB4</f>
         <v>7</v>
       </c>
-      <c r="AC15" s="123"/>
-      <c r="AD15" s="123"/>
-      <c r="AE15" s="121">
+      <c r="AC15" s="128"/>
+      <c r="AD15" s="128"/>
+      <c r="AE15" s="127">
         <f>AE4</f>
         <v>8</v>
       </c>
-      <c r="AF15" s="123"/>
-      <c r="AG15" s="123"/>
-      <c r="AH15" s="121">
+      <c r="AF15" s="128"/>
+      <c r="AG15" s="128"/>
+      <c r="AH15" s="127">
         <f>AH4</f>
         <v>9</v>
       </c>
-      <c r="AI15" s="123"/>
-      <c r="AJ15" s="123"/>
-      <c r="AK15" s="121">
+      <c r="AI15" s="128"/>
+      <c r="AJ15" s="128"/>
+      <c r="AK15" s="127">
         <f>AK4</f>
         <v>10</v>
       </c>
-      <c r="AL15" s="123"/>
-      <c r="AM15" s="123"/>
-      <c r="AN15" s="121">
+      <c r="AL15" s="128"/>
+      <c r="AM15" s="128"/>
+      <c r="AN15" s="127">
         <f>AN4</f>
         <v>11</v>
       </c>
-      <c r="AO15" s="123"/>
-      <c r="AP15" s="123"/>
-      <c r="AQ15" s="121">
+      <c r="AO15" s="128"/>
+      <c r="AP15" s="128"/>
+      <c r="AQ15" s="127">
         <f>AQ4</f>
         <v>12</v>
       </c>
-      <c r="AR15" s="123"/>
-      <c r="AS15" s="123"/>
-      <c r="AT15" s="121">
+      <c r="AR15" s="128"/>
+      <c r="AS15" s="128"/>
+      <c r="AT15" s="127">
         <f>AT4</f>
         <v>13</v>
       </c>
-      <c r="AU15" s="123"/>
-      <c r="AV15" s="123"/>
-      <c r="AW15" s="121">
+      <c r="AU15" s="128"/>
+      <c r="AV15" s="128"/>
+      <c r="AW15" s="127">
         <f>AW4</f>
         <v>14</v>
       </c>
-      <c r="AX15" s="123"/>
-      <c r="AY15" s="123"/>
-      <c r="AZ15" s="121">
+      <c r="AX15" s="128"/>
+      <c r="AY15" s="128"/>
+      <c r="AZ15" s="127">
         <f>AZ4</f>
         <v>15</v>
       </c>
-      <c r="BA15" s="123"/>
-      <c r="BB15" s="123"/>
-      <c r="BC15" s="121">
+      <c r="BA15" s="128"/>
+      <c r="BB15" s="128"/>
+      <c r="BC15" s="127">
         <f>BC4</f>
         <v>16</v>
       </c>
-      <c r="BD15" s="123"/>
-      <c r="BE15" s="123"/>
-      <c r="BF15" s="121">
+      <c r="BD15" s="128"/>
+      <c r="BE15" s="128"/>
+      <c r="BF15" s="127">
         <f>BF4</f>
         <v>17</v>
       </c>
-      <c r="BG15" s="123"/>
-      <c r="BH15" s="123"/>
-      <c r="BI15" s="121">
+      <c r="BG15" s="128"/>
+      <c r="BH15" s="128"/>
+      <c r="BI15" s="127">
         <f>BI4</f>
         <v>18</v>
       </c>
-      <c r="BJ15" s="123"/>
-      <c r="BK15" s="123"/>
-      <c r="BL15" s="121">
+      <c r="BJ15" s="128"/>
+      <c r="BK15" s="128"/>
+      <c r="BL15" s="127">
         <f>BL4</f>
         <v>19</v>
       </c>
-      <c r="BM15" s="123"/>
-      <c r="BN15" s="123"/>
-      <c r="BO15" s="121">
+      <c r="BM15" s="128"/>
+      <c r="BN15" s="128"/>
+      <c r="BO15" s="127">
         <f>BO4</f>
         <v>20</v>
       </c>
-      <c r="BP15" s="123"/>
-      <c r="BQ15" s="123"/>
-      <c r="BR15" s="121">
+      <c r="BP15" s="128"/>
+      <c r="BQ15" s="128"/>
+      <c r="BR15" s="127">
         <f>BR4</f>
         <v>21</v>
       </c>
-      <c r="BS15" s="123"/>
-      <c r="BT15" s="123"/>
-      <c r="BU15" s="121">
+      <c r="BS15" s="128"/>
+      <c r="BT15" s="128"/>
+      <c r="BU15" s="127">
         <f>BU4</f>
         <v>22</v>
       </c>
-      <c r="BV15" s="123"/>
-      <c r="BW15" s="123"/>
-      <c r="BX15" s="121">
+      <c r="BV15" s="128"/>
+      <c r="BW15" s="128"/>
+      <c r="BX15" s="127">
         <f>BX4</f>
         <v>23</v>
       </c>
-      <c r="BY15" s="123"/>
-      <c r="BZ15" s="123"/>
-      <c r="CA15" s="121">
+      <c r="BY15" s="128"/>
+      <c r="BZ15" s="128"/>
+      <c r="CA15" s="127">
         <f>CA4</f>
         <v>24</v>
       </c>
-      <c r="CB15" s="123"/>
-      <c r="CC15" s="123"/>
-      <c r="CD15" s="121">
+      <c r="CB15" s="128"/>
+      <c r="CC15" s="128"/>
+      <c r="CD15" s="127">
         <f>CD4</f>
         <v>25</v>
       </c>
-      <c r="CE15" s="123"/>
-      <c r="CF15" s="123"/>
-      <c r="CG15" s="121">
+      <c r="CE15" s="128"/>
+      <c r="CF15" s="128"/>
+      <c r="CG15" s="127">
         <f>CG4</f>
         <v>26</v>
       </c>
-      <c r="CH15" s="123"/>
-      <c r="CI15" s="123"/>
-      <c r="CJ15" s="121">
+      <c r="CH15" s="128"/>
+      <c r="CI15" s="128"/>
+      <c r="CJ15" s="127">
         <f>CJ4</f>
         <v>27</v>
       </c>
-      <c r="CK15" s="123"/>
-      <c r="CL15" s="123"/>
-      <c r="CM15" s="121">
+      <c r="CK15" s="128"/>
+      <c r="CL15" s="128"/>
+      <c r="CM15" s="127">
         <f>CM4</f>
         <v>28</v>
       </c>
-      <c r="CN15" s="123"/>
-      <c r="CO15" s="123"/>
-      <c r="CP15" s="121">
+      <c r="CN15" s="128"/>
+      <c r="CO15" s="128"/>
+      <c r="CP15" s="127">
         <f>CP4</f>
         <v>29</v>
       </c>
-      <c r="CQ15" s="123"/>
-      <c r="CR15" s="123"/>
-      <c r="CS15" s="121">
+      <c r="CQ15" s="128"/>
+      <c r="CR15" s="128"/>
+      <c r="CS15" s="127">
         <f>CS4</f>
         <v>30</v>
       </c>
-      <c r="CT15" s="123"/>
-      <c r="CU15" s="123"/>
-      <c r="CV15" s="121">
+      <c r="CT15" s="128"/>
+      <c r="CU15" s="128"/>
+      <c r="CV15" s="127">
         <f>CV4</f>
         <v>31</v>
       </c>
-      <c r="CW15" s="123"/>
-      <c r="CX15" s="123"/>
-      <c r="CY15" s="121">
+      <c r="CW15" s="128"/>
+      <c r="CX15" s="128"/>
+      <c r="CY15" s="127">
         <f>CY4</f>
         <v>32</v>
       </c>
-      <c r="CZ15" s="123"/>
-      <c r="DA15" s="123"/>
-      <c r="DB15" s="121">
+      <c r="CZ15" s="128"/>
+      <c r="DA15" s="128"/>
+      <c r="DB15" s="127">
         <f>DB4</f>
         <v>33</v>
       </c>
-      <c r="DC15" s="123"/>
-      <c r="DD15" s="123"/>
-      <c r="DE15" s="121">
+      <c r="DC15" s="128"/>
+      <c r="DD15" s="128"/>
+      <c r="DE15" s="127">
         <f>DE4</f>
         <v>34</v>
       </c>
-      <c r="DF15" s="123"/>
-      <c r="DG15" s="123"/>
-      <c r="DH15" s="121">
+      <c r="DF15" s="128"/>
+      <c r="DG15" s="128"/>
+      <c r="DH15" s="127">
         <f>DH4</f>
         <v>35</v>
       </c>
-      <c r="DI15" s="123"/>
-      <c r="DJ15" s="123"/>
-      <c r="DK15" s="121">
+      <c r="DI15" s="128"/>
+      <c r="DJ15" s="128"/>
+      <c r="DK15" s="127">
         <f>DK4</f>
         <v>36</v>
       </c>
-      <c r="DL15" s="123"/>
-      <c r="DM15" s="123"/>
-      <c r="DN15" s="121">
+      <c r="DL15" s="128"/>
+      <c r="DM15" s="128"/>
+      <c r="DN15" s="127">
         <f>DN4</f>
         <v>37</v>
       </c>
-      <c r="DO15" s="123"/>
-      <c r="DP15" s="123"/>
-      <c r="DQ15" s="121">
+      <c r="DO15" s="128"/>
+      <c r="DP15" s="128"/>
+      <c r="DQ15" s="127">
         <f>DQ4</f>
         <v>38</v>
       </c>
-      <c r="DR15" s="123"/>
-      <c r="DS15" s="123"/>
-      <c r="DT15" s="121">
+      <c r="DR15" s="128"/>
+      <c r="DS15" s="128"/>
+      <c r="DT15" s="127">
         <f>DT4</f>
         <v>39</v>
       </c>
-      <c r="DU15" s="123"/>
-      <c r="DV15" s="123"/>
-      <c r="DW15" s="121">
+      <c r="DU15" s="128"/>
+      <c r="DV15" s="128"/>
+      <c r="DW15" s="127">
         <f>DW4</f>
         <v>40</v>
       </c>
-      <c r="DX15" s="123"/>
-      <c r="DY15" s="123"/>
-      <c r="DZ15" s="121">
+      <c r="DX15" s="128"/>
+      <c r="DY15" s="128"/>
+      <c r="DZ15" s="127">
         <f>DZ4</f>
         <v>41</v>
       </c>
-      <c r="EA15" s="123"/>
-      <c r="EB15" s="123"/>
-      <c r="EC15" s="121">
+      <c r="EA15" s="128"/>
+      <c r="EB15" s="128"/>
+      <c r="EC15" s="127">
         <f>EC4</f>
         <v>42</v>
       </c>
-      <c r="ED15" s="123"/>
-      <c r="EE15" s="123"/>
-      <c r="EF15" s="121">
+      <c r="ED15" s="128"/>
+      <c r="EE15" s="128"/>
+      <c r="EF15" s="127">
         <f>EF4</f>
         <v>43</v>
       </c>
-      <c r="EG15" s="123"/>
-      <c r="EH15" s="123"/>
-      <c r="EI15" s="121">
+      <c r="EG15" s="128"/>
+      <c r="EH15" s="128"/>
+      <c r="EI15" s="127">
         <f>EI4</f>
         <v>44</v>
       </c>
-      <c r="EJ15" s="123"/>
-      <c r="EK15" s="123"/>
-      <c r="EL15" s="121">
+      <c r="EJ15" s="128"/>
+      <c r="EK15" s="128"/>
+      <c r="EL15" s="127">
         <f>EL4</f>
         <v>45</v>
       </c>
-      <c r="EM15" s="123"/>
-      <c r="EN15" s="123"/>
-      <c r="EO15" s="121">
+      <c r="EM15" s="128"/>
+      <c r="EN15" s="128"/>
+      <c r="EO15" s="127">
         <f>EO4</f>
         <v>46</v>
       </c>
-      <c r="EP15" s="123"/>
-      <c r="EQ15" s="123"/>
-      <c r="ER15" s="121">
+      <c r="EP15" s="128"/>
+      <c r="EQ15" s="128"/>
+      <c r="ER15" s="127">
         <f>ER4</f>
         <v>47</v>
       </c>
-      <c r="ES15" s="123"/>
-      <c r="ET15" s="123"/>
-      <c r="EU15" s="121">
+      <c r="ES15" s="128"/>
+      <c r="ET15" s="128"/>
+      <c r="EU15" s="127">
         <f>EU4</f>
         <v>48</v>
       </c>
-      <c r="EV15" s="123"/>
-      <c r="EW15" s="123"/>
-      <c r="EX15" s="121">
+      <c r="EV15" s="128"/>
+      <c r="EW15" s="128"/>
+      <c r="EX15" s="127">
         <f>EX4</f>
         <v>49</v>
       </c>
-      <c r="EY15" s="123"/>
-      <c r="EZ15" s="123"/>
-      <c r="FA15" s="121">
+      <c r="EY15" s="128"/>
+      <c r="EZ15" s="128"/>
+      <c r="FA15" s="127">
         <f>FA4</f>
         <v>50</v>
       </c>
-      <c r="FB15" s="123"/>
-      <c r="FC15" s="123"/>
-      <c r="FD15" s="121">
+      <c r="FB15" s="128"/>
+      <c r="FC15" s="128"/>
+      <c r="FD15" s="127">
         <f>FD4</f>
         <v>51</v>
       </c>
-      <c r="FE15" s="123"/>
-      <c r="FF15" s="123"/>
-      <c r="FG15" s="121">
+      <c r="FE15" s="128"/>
+      <c r="FF15" s="128"/>
+      <c r="FG15" s="127">
         <f>FG4</f>
         <v>52</v>
       </c>
-      <c r="FH15" s="123"/>
-      <c r="FI15" s="123"/>
-      <c r="FJ15" s="121">
+      <c r="FH15" s="128"/>
+      <c r="FI15" s="128"/>
+      <c r="FJ15" s="127">
         <f>FJ4</f>
         <v>53</v>
       </c>
-      <c r="FK15" s="123"/>
-      <c r="FL15" s="123"/>
-      <c r="FM15" s="121">
+      <c r="FK15" s="128"/>
+      <c r="FL15" s="128"/>
+      <c r="FM15" s="127">
         <f>FM4</f>
         <v>54</v>
       </c>
-      <c r="FN15" s="123"/>
-      <c r="FO15" s="123"/>
-      <c r="FP15" s="121">
+      <c r="FN15" s="128"/>
+      <c r="FO15" s="128"/>
+      <c r="FP15" s="127">
         <f>FP4</f>
         <v>55</v>
       </c>
-      <c r="FQ15" s="123"/>
-      <c r="FR15" s="123"/>
-      <c r="FS15" s="121">
+      <c r="FQ15" s="128"/>
+      <c r="FR15" s="128"/>
+      <c r="FS15" s="127">
         <f>FS4</f>
         <v>56</v>
       </c>
-      <c r="FT15" s="123"/>
-      <c r="FU15" s="123"/>
-      <c r="FV15" s="121">
+      <c r="FT15" s="128"/>
+      <c r="FU15" s="128"/>
+      <c r="FV15" s="127">
         <f>FV4</f>
         <v>57</v>
       </c>
-      <c r="FW15" s="123"/>
-      <c r="FX15" s="123"/>
-      <c r="FY15" s="121">
+      <c r="FW15" s="128"/>
+      <c r="FX15" s="128"/>
+      <c r="FY15" s="127">
         <f>FY4</f>
         <v>58</v>
       </c>
-      <c r="FZ15" s="123"/>
-      <c r="GA15" s="123"/>
-      <c r="GB15" s="121">
+      <c r="FZ15" s="128"/>
+      <c r="GA15" s="128"/>
+      <c r="GB15" s="127">
         <f>GB4</f>
         <v>59</v>
       </c>
-      <c r="GC15" s="123"/>
-      <c r="GD15" s="123"/>
-      <c r="GE15" s="121">
+      <c r="GC15" s="128"/>
+      <c r="GD15" s="128"/>
+      <c r="GE15" s="127">
         <f>GE4</f>
         <v>60</v>
       </c>
-      <c r="GF15" s="123"/>
-      <c r="GG15" s="123"/>
-      <c r="GH15" s="121">
+      <c r="GF15" s="128"/>
+      <c r="GG15" s="128"/>
+      <c r="GH15" s="127">
         <f>GH4</f>
         <v>61</v>
       </c>
-      <c r="GI15" s="123"/>
-      <c r="GJ15" s="123"/>
-      <c r="GK15" s="121">
+      <c r="GI15" s="128"/>
+      <c r="GJ15" s="128"/>
+      <c r="GK15" s="127">
         <f>GK4</f>
         <v>62</v>
       </c>
-      <c r="GL15" s="123"/>
-      <c r="GM15" s="123"/>
-      <c r="GN15" s="121">
+      <c r="GL15" s="128"/>
+      <c r="GM15" s="128"/>
+      <c r="GN15" s="127">
         <f>GN4</f>
         <v>63</v>
       </c>
-      <c r="GO15" s="123"/>
-      <c r="GP15" s="123"/>
-      <c r="GQ15" s="121">
+      <c r="GO15" s="128"/>
+      <c r="GP15" s="128"/>
+      <c r="GQ15" s="127">
         <f>GQ4</f>
         <v>64</v>
       </c>
-      <c r="GR15" s="123"/>
-      <c r="GS15" s="122"/>
+      <c r="GR15" s="128"/>
+      <c r="GS15" s="129"/>
     </row>
     <row r="16" spans="2:201" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H16" s="23"/>
@@ -8827,10 +8827,10 @@
       </c>
     </row>
     <row r="21" spans="7:201" x14ac:dyDescent="0.2">
-      <c r="H21" s="121" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="122"/>
+      <c r="H21" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="129"/>
       <c r="J21" s="3" t="s">
         <v>10</v>
       </c>
@@ -9154,115 +9154,6 @@
     </row>
   </sheetData>
   <mergeCells count="133">
-    <mergeCell ref="FA4:FC4"/>
-    <mergeCell ref="FD4:FF4"/>
-    <mergeCell ref="FG4:FI4"/>
-    <mergeCell ref="FJ4:FL4"/>
-    <mergeCell ref="FM4:FO4"/>
-    <mergeCell ref="EL4:EN4"/>
-    <mergeCell ref="EO4:EQ4"/>
-    <mergeCell ref="ER4:ET4"/>
-    <mergeCell ref="EU4:EW4"/>
-    <mergeCell ref="EX4:EZ4"/>
-    <mergeCell ref="GQ4:GS4"/>
-    <mergeCell ref="FP4:FR4"/>
-    <mergeCell ref="FS4:FU4"/>
-    <mergeCell ref="FV4:FX4"/>
-    <mergeCell ref="FY4:GA4"/>
-    <mergeCell ref="GB4:GD4"/>
-    <mergeCell ref="GE4:GG4"/>
-    <mergeCell ref="GH4:GJ4"/>
-    <mergeCell ref="GK4:GM4"/>
-    <mergeCell ref="GN4:GP4"/>
-    <mergeCell ref="DB4:DD4"/>
-    <mergeCell ref="DE4:DG4"/>
-    <mergeCell ref="DZ4:EB4"/>
-    <mergeCell ref="EC4:EE4"/>
-    <mergeCell ref="EF4:EH4"/>
-    <mergeCell ref="EI4:EK4"/>
-    <mergeCell ref="DH4:DJ4"/>
-    <mergeCell ref="DK4:DM4"/>
-    <mergeCell ref="DN4:DP4"/>
-    <mergeCell ref="DQ4:DS4"/>
-    <mergeCell ref="DT4:DV4"/>
-    <mergeCell ref="DW4:DY4"/>
-    <mergeCell ref="CA4:CC4"/>
-    <mergeCell ref="CD4:CF4"/>
-    <mergeCell ref="CG4:CI4"/>
-    <mergeCell ref="CJ4:CL4"/>
-    <mergeCell ref="CM4:CO4"/>
-    <mergeCell ref="CP4:CR4"/>
-    <mergeCell ref="CS4:CU4"/>
-    <mergeCell ref="CV4:CX4"/>
-    <mergeCell ref="CY4:DA4"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="BC4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BK4"/>
-    <mergeCell ref="BL4:BN4"/>
-    <mergeCell ref="BO4:BQ4"/>
-    <mergeCell ref="BR4:BT4"/>
-    <mergeCell ref="BU4:BW4"/>
-    <mergeCell ref="BX4:BZ4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AQ4:AS4"/>
-    <mergeCell ref="AT4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="AN15:AP15"/>
-    <mergeCell ref="AQ15:AS15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="BI15:BK15"/>
-    <mergeCell ref="BL15:BN15"/>
-    <mergeCell ref="BO15:BQ15"/>
-    <mergeCell ref="BR15:BT15"/>
-    <mergeCell ref="BU15:BW15"/>
-    <mergeCell ref="AT15:AV15"/>
-    <mergeCell ref="AW15:AY15"/>
-    <mergeCell ref="AZ15:BB15"/>
-    <mergeCell ref="BC15:BE15"/>
-    <mergeCell ref="BF15:BH15"/>
-    <mergeCell ref="CM15:CO15"/>
-    <mergeCell ref="CP15:CR15"/>
-    <mergeCell ref="CS15:CU15"/>
-    <mergeCell ref="CV15:CX15"/>
-    <mergeCell ref="CY15:DA15"/>
-    <mergeCell ref="BX15:BZ15"/>
-    <mergeCell ref="CA15:CC15"/>
-    <mergeCell ref="CD15:CF15"/>
-    <mergeCell ref="CG15:CI15"/>
-    <mergeCell ref="CJ15:CL15"/>
-    <mergeCell ref="DT15:DV15"/>
-    <mergeCell ref="DW15:DY15"/>
-    <mergeCell ref="DZ15:EB15"/>
-    <mergeCell ref="EC15:EE15"/>
-    <mergeCell ref="DB15:DD15"/>
-    <mergeCell ref="DE15:DG15"/>
-    <mergeCell ref="DH15:DJ15"/>
-    <mergeCell ref="DK15:DM15"/>
-    <mergeCell ref="DN15:DP15"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="GN15:GP15"/>
     <mergeCell ref="GQ15:GS15"/>
@@ -9287,6 +9178,115 @@
     <mergeCell ref="EO15:EQ15"/>
     <mergeCell ref="ER15:ET15"/>
     <mergeCell ref="DQ15:DS15"/>
+    <mergeCell ref="DT15:DV15"/>
+    <mergeCell ref="DW15:DY15"/>
+    <mergeCell ref="DZ15:EB15"/>
+    <mergeCell ref="EC15:EE15"/>
+    <mergeCell ref="DB15:DD15"/>
+    <mergeCell ref="DE15:DG15"/>
+    <mergeCell ref="DH15:DJ15"/>
+    <mergeCell ref="DK15:DM15"/>
+    <mergeCell ref="DN15:DP15"/>
+    <mergeCell ref="CM15:CO15"/>
+    <mergeCell ref="CP15:CR15"/>
+    <mergeCell ref="CS15:CU15"/>
+    <mergeCell ref="CV15:CX15"/>
+    <mergeCell ref="CY15:DA15"/>
+    <mergeCell ref="BX15:BZ15"/>
+    <mergeCell ref="CA15:CC15"/>
+    <mergeCell ref="CD15:CF15"/>
+    <mergeCell ref="CG15:CI15"/>
+    <mergeCell ref="CJ15:CL15"/>
+    <mergeCell ref="BI15:BK15"/>
+    <mergeCell ref="BL15:BN15"/>
+    <mergeCell ref="BO15:BQ15"/>
+    <mergeCell ref="BR15:BT15"/>
+    <mergeCell ref="BU15:BW15"/>
+    <mergeCell ref="AT15:AV15"/>
+    <mergeCell ref="AW15:AY15"/>
+    <mergeCell ref="AZ15:BB15"/>
+    <mergeCell ref="BC15:BE15"/>
+    <mergeCell ref="BF15:BH15"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="AN15:AP15"/>
+    <mergeCell ref="AQ15:AS15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="AT4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="BC4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BK4"/>
+    <mergeCell ref="BL4:BN4"/>
+    <mergeCell ref="BO4:BQ4"/>
+    <mergeCell ref="BR4:BT4"/>
+    <mergeCell ref="BU4:BW4"/>
+    <mergeCell ref="BX4:BZ4"/>
+    <mergeCell ref="CA4:CC4"/>
+    <mergeCell ref="CD4:CF4"/>
+    <mergeCell ref="CG4:CI4"/>
+    <mergeCell ref="CJ4:CL4"/>
+    <mergeCell ref="CM4:CO4"/>
+    <mergeCell ref="CP4:CR4"/>
+    <mergeCell ref="CS4:CU4"/>
+    <mergeCell ref="CV4:CX4"/>
+    <mergeCell ref="CY4:DA4"/>
+    <mergeCell ref="DB4:DD4"/>
+    <mergeCell ref="DE4:DG4"/>
+    <mergeCell ref="DZ4:EB4"/>
+    <mergeCell ref="EC4:EE4"/>
+    <mergeCell ref="EF4:EH4"/>
+    <mergeCell ref="EI4:EK4"/>
+    <mergeCell ref="DH4:DJ4"/>
+    <mergeCell ref="DK4:DM4"/>
+    <mergeCell ref="DN4:DP4"/>
+    <mergeCell ref="DQ4:DS4"/>
+    <mergeCell ref="DT4:DV4"/>
+    <mergeCell ref="DW4:DY4"/>
+    <mergeCell ref="GQ4:GS4"/>
+    <mergeCell ref="FP4:FR4"/>
+    <mergeCell ref="FS4:FU4"/>
+    <mergeCell ref="FV4:FX4"/>
+    <mergeCell ref="FY4:GA4"/>
+    <mergeCell ref="GB4:GD4"/>
+    <mergeCell ref="GE4:GG4"/>
+    <mergeCell ref="GH4:GJ4"/>
+    <mergeCell ref="GK4:GM4"/>
+    <mergeCell ref="GN4:GP4"/>
+    <mergeCell ref="FA4:FC4"/>
+    <mergeCell ref="FD4:FF4"/>
+    <mergeCell ref="FG4:FI4"/>
+    <mergeCell ref="FJ4:FL4"/>
+    <mergeCell ref="FM4:FO4"/>
+    <mergeCell ref="EL4:EN4"/>
+    <mergeCell ref="EO4:EQ4"/>
+    <mergeCell ref="ER4:ET4"/>
+    <mergeCell ref="EU4:EW4"/>
+    <mergeCell ref="EX4:EZ4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J17:L20">
@@ -9947,7 +9947,7 @@
   <dimension ref="B1:GT21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="283" zoomScaleNormal="283" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9984,10 +9984,10 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="121" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="122"/>
+      <c r="H2" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="129"/>
       <c r="J2" s="25">
         <f>G2+1</f>
         <v>1</v>
@@ -10389,7 +10389,7 @@
       <c r="F3" s="96">
         <v>0.11700000000000001</v>
       </c>
-      <c r="H3" s="127" t="s">
+      <c r="H3" s="121" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="136"/>
@@ -18471,10 +18471,10 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="121" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="122"/>
+      <c r="H2" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="129"/>
       <c r="J2" s="25">
         <f>G2+1</f>
         <v>1</v>
@@ -18876,7 +18876,7 @@
       <c r="F3" s="73">
         <v>0.92489802724863956</v>
       </c>
-      <c r="H3" s="127" t="s">
+      <c r="H3" s="121" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="136"/>
@@ -28260,11 +28260,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B3:B15"/>
     <mergeCell ref="C3:C6"/>
@@ -28274,6 +28269,11 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29009,6 +29009,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -29020,12 +29026,6 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C11:C14"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="N3:P6">

--- a/4.xlsx
+++ b/4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/workspace/Excel-AI-Book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC924DC-555D-8F4C-96ED-2CA7C7897B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B91BA16-0934-1544-B879-AB6CEB809EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="620" windowWidth="41680" windowHeight="26960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18380" yWindow="500" windowWidth="34740" windowHeight="26960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1235,13 +1235,13 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1253,13 +1253,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1279,6 +1276,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1703,399 +1703,399 @@
       </c>
     </row>
     <row r="4" spans="2:201" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="127" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="129"/>
-      <c r="J4" s="121">
-        <v>1</v>
-      </c>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="121">
+      <c r="H4" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="122"/>
+      <c r="J4" s="127">
+        <v>1</v>
+      </c>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="127">
         <f>J4+1</f>
         <v>2</v>
       </c>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="121">
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="127">
         <f>M4+1</f>
         <v>3</v>
       </c>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="121">
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="127">
         <f>P4+1</f>
         <v>4</v>
       </c>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="121">
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="127">
         <f>S4+1</f>
         <v>5</v>
       </c>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="121">
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="127">
         <f>V4+1</f>
         <v>6</v>
       </c>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="122"/>
-      <c r="AB4" s="121">
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="127">
         <f>Y4+1</f>
         <v>7</v>
       </c>
-      <c r="AC4" s="122"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="121">
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="127">
         <f>AB4+1</f>
         <v>8</v>
       </c>
-      <c r="AF4" s="122"/>
-      <c r="AG4" s="122"/>
-      <c r="AH4" s="121">
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="128"/>
+      <c r="AH4" s="127">
         <f>AE4+1</f>
         <v>9</v>
       </c>
-      <c r="AI4" s="122"/>
-      <c r="AJ4" s="122"/>
-      <c r="AK4" s="121">
+      <c r="AI4" s="128"/>
+      <c r="AJ4" s="128"/>
+      <c r="AK4" s="127">
         <f>AH4+1</f>
         <v>10</v>
       </c>
-      <c r="AL4" s="122"/>
-      <c r="AM4" s="122"/>
-      <c r="AN4" s="121">
+      <c r="AL4" s="128"/>
+      <c r="AM4" s="128"/>
+      <c r="AN4" s="127">
         <f>AK4+1</f>
         <v>11</v>
       </c>
-      <c r="AO4" s="122"/>
-      <c r="AP4" s="122"/>
-      <c r="AQ4" s="121">
+      <c r="AO4" s="128"/>
+      <c r="AP4" s="128"/>
+      <c r="AQ4" s="127">
         <f>AN4+1</f>
         <v>12</v>
       </c>
-      <c r="AR4" s="122"/>
-      <c r="AS4" s="122"/>
-      <c r="AT4" s="121">
+      <c r="AR4" s="128"/>
+      <c r="AS4" s="128"/>
+      <c r="AT4" s="127">
         <f>AQ4+1</f>
         <v>13</v>
       </c>
-      <c r="AU4" s="122"/>
-      <c r="AV4" s="122"/>
-      <c r="AW4" s="121">
+      <c r="AU4" s="128"/>
+      <c r="AV4" s="128"/>
+      <c r="AW4" s="127">
         <f>AT4+1</f>
         <v>14</v>
       </c>
-      <c r="AX4" s="122"/>
-      <c r="AY4" s="122"/>
-      <c r="AZ4" s="121">
+      <c r="AX4" s="128"/>
+      <c r="AY4" s="128"/>
+      <c r="AZ4" s="127">
         <f>AW4+1</f>
         <v>15</v>
       </c>
-      <c r="BA4" s="122"/>
-      <c r="BB4" s="122"/>
-      <c r="BC4" s="121">
+      <c r="BA4" s="128"/>
+      <c r="BB4" s="128"/>
+      <c r="BC4" s="127">
         <f>AZ4+1</f>
         <v>16</v>
       </c>
-      <c r="BD4" s="122"/>
-      <c r="BE4" s="122"/>
-      <c r="BF4" s="121">
+      <c r="BD4" s="128"/>
+      <c r="BE4" s="128"/>
+      <c r="BF4" s="127">
         <f>BC4+1</f>
         <v>17</v>
       </c>
-      <c r="BG4" s="122"/>
-      <c r="BH4" s="122"/>
-      <c r="BI4" s="121">
+      <c r="BG4" s="128"/>
+      <c r="BH4" s="128"/>
+      <c r="BI4" s="127">
         <f>BF4+1</f>
         <v>18</v>
       </c>
-      <c r="BJ4" s="122"/>
-      <c r="BK4" s="122"/>
-      <c r="BL4" s="121">
+      <c r="BJ4" s="128"/>
+      <c r="BK4" s="128"/>
+      <c r="BL4" s="127">
         <f>BI4+1</f>
         <v>19</v>
       </c>
-      <c r="BM4" s="122"/>
-      <c r="BN4" s="122"/>
-      <c r="BO4" s="121">
+      <c r="BM4" s="128"/>
+      <c r="BN4" s="128"/>
+      <c r="BO4" s="127">
         <f>BL4+1</f>
         <v>20</v>
       </c>
-      <c r="BP4" s="122"/>
-      <c r="BQ4" s="122"/>
-      <c r="BR4" s="121">
+      <c r="BP4" s="128"/>
+      <c r="BQ4" s="128"/>
+      <c r="BR4" s="127">
         <f>BO4+1</f>
         <v>21</v>
       </c>
-      <c r="BS4" s="122"/>
-      <c r="BT4" s="122"/>
-      <c r="BU4" s="121">
+      <c r="BS4" s="128"/>
+      <c r="BT4" s="128"/>
+      <c r="BU4" s="127">
         <f>BR4+1</f>
         <v>22</v>
       </c>
-      <c r="BV4" s="122"/>
-      <c r="BW4" s="122"/>
-      <c r="BX4" s="121">
+      <c r="BV4" s="128"/>
+      <c r="BW4" s="128"/>
+      <c r="BX4" s="127">
         <f>BU4+1</f>
         <v>23</v>
       </c>
-      <c r="BY4" s="122"/>
-      <c r="BZ4" s="122"/>
-      <c r="CA4" s="121">
+      <c r="BY4" s="128"/>
+      <c r="BZ4" s="128"/>
+      <c r="CA4" s="127">
         <f>BX4+1</f>
         <v>24</v>
       </c>
-      <c r="CB4" s="122"/>
-      <c r="CC4" s="122"/>
-      <c r="CD4" s="121">
+      <c r="CB4" s="128"/>
+      <c r="CC4" s="128"/>
+      <c r="CD4" s="127">
         <f>CA4+1</f>
         <v>25</v>
       </c>
-      <c r="CE4" s="122"/>
-      <c r="CF4" s="122"/>
-      <c r="CG4" s="121">
+      <c r="CE4" s="128"/>
+      <c r="CF4" s="128"/>
+      <c r="CG4" s="127">
         <f>CD4+1</f>
         <v>26</v>
       </c>
-      <c r="CH4" s="122"/>
-      <c r="CI4" s="122"/>
-      <c r="CJ4" s="121">
+      <c r="CH4" s="128"/>
+      <c r="CI4" s="128"/>
+      <c r="CJ4" s="127">
         <f>CG4+1</f>
         <v>27</v>
       </c>
-      <c r="CK4" s="122"/>
-      <c r="CL4" s="122"/>
-      <c r="CM4" s="121">
+      <c r="CK4" s="128"/>
+      <c r="CL4" s="128"/>
+      <c r="CM4" s="127">
         <f>CJ4+1</f>
         <v>28</v>
       </c>
-      <c r="CN4" s="122"/>
-      <c r="CO4" s="122"/>
-      <c r="CP4" s="121">
+      <c r="CN4" s="128"/>
+      <c r="CO4" s="128"/>
+      <c r="CP4" s="127">
         <f>CM4+1</f>
         <v>29</v>
       </c>
-      <c r="CQ4" s="122"/>
-      <c r="CR4" s="122"/>
-      <c r="CS4" s="121">
+      <c r="CQ4" s="128"/>
+      <c r="CR4" s="128"/>
+      <c r="CS4" s="127">
         <f>CP4+1</f>
         <v>30</v>
       </c>
-      <c r="CT4" s="122"/>
-      <c r="CU4" s="122"/>
-      <c r="CV4" s="121">
+      <c r="CT4" s="128"/>
+      <c r="CU4" s="128"/>
+      <c r="CV4" s="127">
         <f>CS4+1</f>
         <v>31</v>
       </c>
-      <c r="CW4" s="122"/>
-      <c r="CX4" s="122"/>
-      <c r="CY4" s="121">
+      <c r="CW4" s="128"/>
+      <c r="CX4" s="128"/>
+      <c r="CY4" s="127">
         <f>CV4+1</f>
         <v>32</v>
       </c>
-      <c r="CZ4" s="122"/>
-      <c r="DA4" s="122"/>
-      <c r="DB4" s="121">
+      <c r="CZ4" s="128"/>
+      <c r="DA4" s="128"/>
+      <c r="DB4" s="127">
         <f>CY4+1</f>
         <v>33</v>
       </c>
-      <c r="DC4" s="122"/>
-      <c r="DD4" s="122"/>
-      <c r="DE4" s="121">
+      <c r="DC4" s="128"/>
+      <c r="DD4" s="128"/>
+      <c r="DE4" s="127">
         <f>DB4+1</f>
         <v>34</v>
       </c>
-      <c r="DF4" s="122"/>
-      <c r="DG4" s="122"/>
-      <c r="DH4" s="121">
+      <c r="DF4" s="128"/>
+      <c r="DG4" s="128"/>
+      <c r="DH4" s="127">
         <f>DE4+1</f>
         <v>35</v>
       </c>
-      <c r="DI4" s="122"/>
-      <c r="DJ4" s="122"/>
-      <c r="DK4" s="121">
+      <c r="DI4" s="128"/>
+      <c r="DJ4" s="128"/>
+      <c r="DK4" s="127">
         <f>DH4+1</f>
         <v>36</v>
       </c>
-      <c r="DL4" s="122"/>
-      <c r="DM4" s="122"/>
-      <c r="DN4" s="121">
+      <c r="DL4" s="128"/>
+      <c r="DM4" s="128"/>
+      <c r="DN4" s="127">
         <f>DK4+1</f>
         <v>37</v>
       </c>
-      <c r="DO4" s="122"/>
-      <c r="DP4" s="122"/>
-      <c r="DQ4" s="121">
+      <c r="DO4" s="128"/>
+      <c r="DP4" s="128"/>
+      <c r="DQ4" s="127">
         <f>DN4+1</f>
         <v>38</v>
       </c>
-      <c r="DR4" s="122"/>
-      <c r="DS4" s="122"/>
-      <c r="DT4" s="121">
+      <c r="DR4" s="128"/>
+      <c r="DS4" s="128"/>
+      <c r="DT4" s="127">
         <f>DQ4+1</f>
         <v>39</v>
       </c>
-      <c r="DU4" s="122"/>
-      <c r="DV4" s="122"/>
-      <c r="DW4" s="121">
+      <c r="DU4" s="128"/>
+      <c r="DV4" s="128"/>
+      <c r="DW4" s="127">
         <f>DT4+1</f>
         <v>40</v>
       </c>
-      <c r="DX4" s="122"/>
-      <c r="DY4" s="122"/>
-      <c r="DZ4" s="121">
+      <c r="DX4" s="128"/>
+      <c r="DY4" s="128"/>
+      <c r="DZ4" s="127">
         <f>DW4+1</f>
         <v>41</v>
       </c>
-      <c r="EA4" s="122"/>
-      <c r="EB4" s="122"/>
-      <c r="EC4" s="121">
+      <c r="EA4" s="128"/>
+      <c r="EB4" s="128"/>
+      <c r="EC4" s="127">
         <f>DZ4+1</f>
         <v>42</v>
       </c>
-      <c r="ED4" s="122"/>
-      <c r="EE4" s="122"/>
-      <c r="EF4" s="121">
+      <c r="ED4" s="128"/>
+      <c r="EE4" s="128"/>
+      <c r="EF4" s="127">
         <f>EC4+1</f>
         <v>43</v>
       </c>
-      <c r="EG4" s="122"/>
-      <c r="EH4" s="122"/>
-      <c r="EI4" s="121">
+      <c r="EG4" s="128"/>
+      <c r="EH4" s="128"/>
+      <c r="EI4" s="127">
         <f>EF4+1</f>
         <v>44</v>
       </c>
-      <c r="EJ4" s="122"/>
-      <c r="EK4" s="122"/>
-      <c r="EL4" s="121">
+      <c r="EJ4" s="128"/>
+      <c r="EK4" s="128"/>
+      <c r="EL4" s="127">
         <f>EI4+1</f>
         <v>45</v>
       </c>
-      <c r="EM4" s="122"/>
-      <c r="EN4" s="122"/>
-      <c r="EO4" s="121">
+      <c r="EM4" s="128"/>
+      <c r="EN4" s="128"/>
+      <c r="EO4" s="127">
         <f>EL4+1</f>
         <v>46</v>
       </c>
-      <c r="EP4" s="122"/>
-      <c r="EQ4" s="122"/>
-      <c r="ER4" s="121">
+      <c r="EP4" s="128"/>
+      <c r="EQ4" s="128"/>
+      <c r="ER4" s="127">
         <f>EO4+1</f>
         <v>47</v>
       </c>
-      <c r="ES4" s="122"/>
-      <c r="ET4" s="122"/>
-      <c r="EU4" s="121">
+      <c r="ES4" s="128"/>
+      <c r="ET4" s="128"/>
+      <c r="EU4" s="127">
         <f>ER4+1</f>
         <v>48</v>
       </c>
-      <c r="EV4" s="122"/>
-      <c r="EW4" s="122"/>
-      <c r="EX4" s="121">
+      <c r="EV4" s="128"/>
+      <c r="EW4" s="128"/>
+      <c r="EX4" s="127">
         <f>EU4+1</f>
         <v>49</v>
       </c>
-      <c r="EY4" s="122"/>
-      <c r="EZ4" s="122"/>
-      <c r="FA4" s="121">
+      <c r="EY4" s="128"/>
+      <c r="EZ4" s="128"/>
+      <c r="FA4" s="127">
         <f>EX4+1</f>
         <v>50</v>
       </c>
-      <c r="FB4" s="122"/>
-      <c r="FC4" s="122"/>
-      <c r="FD4" s="121">
+      <c r="FB4" s="128"/>
+      <c r="FC4" s="128"/>
+      <c r="FD4" s="127">
         <f>FA4+1</f>
         <v>51</v>
       </c>
-      <c r="FE4" s="122"/>
-      <c r="FF4" s="122"/>
-      <c r="FG4" s="121">
+      <c r="FE4" s="128"/>
+      <c r="FF4" s="128"/>
+      <c r="FG4" s="127">
         <f>FD4+1</f>
         <v>52</v>
       </c>
-      <c r="FH4" s="122"/>
-      <c r="FI4" s="122"/>
-      <c r="FJ4" s="121">
+      <c r="FH4" s="128"/>
+      <c r="FI4" s="128"/>
+      <c r="FJ4" s="127">
         <f>FG4+1</f>
         <v>53</v>
       </c>
-      <c r="FK4" s="122"/>
-      <c r="FL4" s="122"/>
-      <c r="FM4" s="121">
+      <c r="FK4" s="128"/>
+      <c r="FL4" s="128"/>
+      <c r="FM4" s="127">
         <f>FJ4+1</f>
         <v>54</v>
       </c>
-      <c r="FN4" s="122"/>
-      <c r="FO4" s="122"/>
-      <c r="FP4" s="121">
+      <c r="FN4" s="128"/>
+      <c r="FO4" s="128"/>
+      <c r="FP4" s="127">
         <f>FM4+1</f>
         <v>55</v>
       </c>
-      <c r="FQ4" s="122"/>
-      <c r="FR4" s="122"/>
-      <c r="FS4" s="121">
+      <c r="FQ4" s="128"/>
+      <c r="FR4" s="128"/>
+      <c r="FS4" s="127">
         <f>FP4+1</f>
         <v>56</v>
       </c>
-      <c r="FT4" s="122"/>
-      <c r="FU4" s="122"/>
-      <c r="FV4" s="121">
+      <c r="FT4" s="128"/>
+      <c r="FU4" s="128"/>
+      <c r="FV4" s="127">
         <f>FS4+1</f>
         <v>57</v>
       </c>
-      <c r="FW4" s="122"/>
-      <c r="FX4" s="122"/>
-      <c r="FY4" s="121">
+      <c r="FW4" s="128"/>
+      <c r="FX4" s="128"/>
+      <c r="FY4" s="127">
         <f>FV4+1</f>
         <v>58</v>
       </c>
-      <c r="FZ4" s="122"/>
-      <c r="GA4" s="122"/>
-      <c r="GB4" s="121">
+      <c r="FZ4" s="128"/>
+      <c r="GA4" s="128"/>
+      <c r="GB4" s="127">
         <f>FY4+1</f>
         <v>59</v>
       </c>
-      <c r="GC4" s="122"/>
-      <c r="GD4" s="122"/>
-      <c r="GE4" s="121">
+      <c r="GC4" s="128"/>
+      <c r="GD4" s="128"/>
+      <c r="GE4" s="127">
         <f>GB4+1</f>
         <v>60</v>
       </c>
-      <c r="GF4" s="122"/>
-      <c r="GG4" s="122"/>
-      <c r="GH4" s="121">
+      <c r="GF4" s="128"/>
+      <c r="GG4" s="128"/>
+      <c r="GH4" s="127">
         <f>GE4+1</f>
         <v>61</v>
       </c>
-      <c r="GI4" s="122"/>
-      <c r="GJ4" s="122"/>
-      <c r="GK4" s="121">
+      <c r="GI4" s="128"/>
+      <c r="GJ4" s="128"/>
+      <c r="GK4" s="127">
         <f>GH4+1</f>
         <v>62</v>
       </c>
-      <c r="GL4" s="122"/>
-      <c r="GM4" s="122"/>
-      <c r="GN4" s="121">
+      <c r="GL4" s="128"/>
+      <c r="GM4" s="128"/>
+      <c r="GN4" s="127">
         <f>GK4+1</f>
         <v>63</v>
       </c>
-      <c r="GO4" s="122"/>
-      <c r="GP4" s="122"/>
-      <c r="GQ4" s="121">
+      <c r="GO4" s="128"/>
+      <c r="GP4" s="128"/>
+      <c r="GQ4" s="127">
         <f>GN4+1</f>
         <v>64</v>
       </c>
-      <c r="GR4" s="122"/>
-      <c r="GS4" s="123"/>
+      <c r="GR4" s="128"/>
+      <c r="GS4" s="135"/>
     </row>
     <row r="5" spans="2:201" x14ac:dyDescent="0.2">
-      <c r="H5" s="130" t="s">
+      <c r="H5" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="131"/>
+      <c r="I5" s="130"/>
       <c r="J5" s="6">
         <v>1</v>
       </c>
@@ -2674,8 +2674,8 @@
       </c>
     </row>
     <row r="6" spans="2:201" x14ac:dyDescent="0.2">
-      <c r="H6" s="132"/>
-      <c r="I6" s="133"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
       <c r="J6" s="9">
         <v>1</v>
       </c>
@@ -3254,8 +3254,8 @@
       </c>
     </row>
     <row r="7" spans="2:201" x14ac:dyDescent="0.2">
-      <c r="H7" s="132"/>
-      <c r="I7" s="133"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="132"/>
       <c r="J7" s="9">
         <v>1</v>
       </c>
@@ -3834,8 +3834,8 @@
       </c>
     </row>
     <row r="8" spans="2:201" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="134"/>
-      <c r="I8" s="135"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="134"/>
       <c r="J8" s="11">
         <v>1</v>
       </c>
@@ -4414,10 +4414,10 @@
       </c>
     </row>
     <row r="9" spans="2:201" x14ac:dyDescent="0.2">
-      <c r="H9" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="129"/>
+      <c r="H9" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="122"/>
       <c r="J9" s="28" t="s">
         <v>12</v>
       </c>
@@ -4751,390 +4751,390 @@
       <c r="I15" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="127">
+      <c r="J15" s="121">
         <f>J4</f>
         <v>1</v>
       </c>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="127">
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="121">
         <f>M4</f>
         <v>2</v>
       </c>
-      <c r="N15" s="128"/>
-      <c r="O15" s="128"/>
-      <c r="P15" s="127">
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="121">
         <f>P4</f>
         <v>3</v>
       </c>
-      <c r="Q15" s="128"/>
-      <c r="R15" s="128"/>
-      <c r="S15" s="127">
+      <c r="Q15" s="123"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="121">
         <f>S4</f>
         <v>4</v>
       </c>
-      <c r="T15" s="128"/>
-      <c r="U15" s="128"/>
-      <c r="V15" s="127">
+      <c r="T15" s="123"/>
+      <c r="U15" s="123"/>
+      <c r="V15" s="121">
         <f>V4</f>
         <v>5</v>
       </c>
-      <c r="W15" s="128"/>
-      <c r="X15" s="128"/>
-      <c r="Y15" s="127">
+      <c r="W15" s="123"/>
+      <c r="X15" s="123"/>
+      <c r="Y15" s="121">
         <f>Y4</f>
         <v>6</v>
       </c>
-      <c r="Z15" s="128"/>
-      <c r="AA15" s="128"/>
-      <c r="AB15" s="127">
+      <c r="Z15" s="123"/>
+      <c r="AA15" s="123"/>
+      <c r="AB15" s="121">
         <f>AB4</f>
         <v>7</v>
       </c>
-      <c r="AC15" s="128"/>
-      <c r="AD15" s="128"/>
-      <c r="AE15" s="127">
+      <c r="AC15" s="123"/>
+      <c r="AD15" s="123"/>
+      <c r="AE15" s="121">
         <f>AE4</f>
         <v>8</v>
       </c>
-      <c r="AF15" s="128"/>
-      <c r="AG15" s="128"/>
-      <c r="AH15" s="127">
+      <c r="AF15" s="123"/>
+      <c r="AG15" s="123"/>
+      <c r="AH15" s="121">
         <f>AH4</f>
         <v>9</v>
       </c>
-      <c r="AI15" s="128"/>
-      <c r="AJ15" s="128"/>
-      <c r="AK15" s="127">
+      <c r="AI15" s="123"/>
+      <c r="AJ15" s="123"/>
+      <c r="AK15" s="121">
         <f>AK4</f>
         <v>10</v>
       </c>
-      <c r="AL15" s="128"/>
-      <c r="AM15" s="128"/>
-      <c r="AN15" s="127">
+      <c r="AL15" s="123"/>
+      <c r="AM15" s="123"/>
+      <c r="AN15" s="121">
         <f>AN4</f>
         <v>11</v>
       </c>
-      <c r="AO15" s="128"/>
-      <c r="AP15" s="128"/>
-      <c r="AQ15" s="127">
+      <c r="AO15" s="123"/>
+      <c r="AP15" s="123"/>
+      <c r="AQ15" s="121">
         <f>AQ4</f>
         <v>12</v>
       </c>
-      <c r="AR15" s="128"/>
-      <c r="AS15" s="128"/>
-      <c r="AT15" s="127">
+      <c r="AR15" s="123"/>
+      <c r="AS15" s="123"/>
+      <c r="AT15" s="121">
         <f>AT4</f>
         <v>13</v>
       </c>
-      <c r="AU15" s="128"/>
-      <c r="AV15" s="128"/>
-      <c r="AW15" s="127">
+      <c r="AU15" s="123"/>
+      <c r="AV15" s="123"/>
+      <c r="AW15" s="121">
         <f>AW4</f>
         <v>14</v>
       </c>
-      <c r="AX15" s="128"/>
-      <c r="AY15" s="128"/>
-      <c r="AZ15" s="127">
+      <c r="AX15" s="123"/>
+      <c r="AY15" s="123"/>
+      <c r="AZ15" s="121">
         <f>AZ4</f>
         <v>15</v>
       </c>
-      <c r="BA15" s="128"/>
-      <c r="BB15" s="128"/>
-      <c r="BC15" s="127">
+      <c r="BA15" s="123"/>
+      <c r="BB15" s="123"/>
+      <c r="BC15" s="121">
         <f>BC4</f>
         <v>16</v>
       </c>
-      <c r="BD15" s="128"/>
-      <c r="BE15" s="128"/>
-      <c r="BF15" s="127">
+      <c r="BD15" s="123"/>
+      <c r="BE15" s="123"/>
+      <c r="BF15" s="121">
         <f>BF4</f>
         <v>17</v>
       </c>
-      <c r="BG15" s="128"/>
-      <c r="BH15" s="128"/>
-      <c r="BI15" s="127">
+      <c r="BG15" s="123"/>
+      <c r="BH15" s="123"/>
+      <c r="BI15" s="121">
         <f>BI4</f>
         <v>18</v>
       </c>
-      <c r="BJ15" s="128"/>
-      <c r="BK15" s="128"/>
-      <c r="BL15" s="127">
+      <c r="BJ15" s="123"/>
+      <c r="BK15" s="123"/>
+      <c r="BL15" s="121">
         <f>BL4</f>
         <v>19</v>
       </c>
-      <c r="BM15" s="128"/>
-      <c r="BN15" s="128"/>
-      <c r="BO15" s="127">
+      <c r="BM15" s="123"/>
+      <c r="BN15" s="123"/>
+      <c r="BO15" s="121">
         <f>BO4</f>
         <v>20</v>
       </c>
-      <c r="BP15" s="128"/>
-      <c r="BQ15" s="128"/>
-      <c r="BR15" s="127">
+      <c r="BP15" s="123"/>
+      <c r="BQ15" s="123"/>
+      <c r="BR15" s="121">
         <f>BR4</f>
         <v>21</v>
       </c>
-      <c r="BS15" s="128"/>
-      <c r="BT15" s="128"/>
-      <c r="BU15" s="127">
+      <c r="BS15" s="123"/>
+      <c r="BT15" s="123"/>
+      <c r="BU15" s="121">
         <f>BU4</f>
         <v>22</v>
       </c>
-      <c r="BV15" s="128"/>
-      <c r="BW15" s="128"/>
-      <c r="BX15" s="127">
+      <c r="BV15" s="123"/>
+      <c r="BW15" s="123"/>
+      <c r="BX15" s="121">
         <f>BX4</f>
         <v>23</v>
       </c>
-      <c r="BY15" s="128"/>
-      <c r="BZ15" s="128"/>
-      <c r="CA15" s="127">
+      <c r="BY15" s="123"/>
+      <c r="BZ15" s="123"/>
+      <c r="CA15" s="121">
         <f>CA4</f>
         <v>24</v>
       </c>
-      <c r="CB15" s="128"/>
-      <c r="CC15" s="128"/>
-      <c r="CD15" s="127">
+      <c r="CB15" s="123"/>
+      <c r="CC15" s="123"/>
+      <c r="CD15" s="121">
         <f>CD4</f>
         <v>25</v>
       </c>
-      <c r="CE15" s="128"/>
-      <c r="CF15" s="128"/>
-      <c r="CG15" s="127">
+      <c r="CE15" s="123"/>
+      <c r="CF15" s="123"/>
+      <c r="CG15" s="121">
         <f>CG4</f>
         <v>26</v>
       </c>
-      <c r="CH15" s="128"/>
-      <c r="CI15" s="128"/>
-      <c r="CJ15" s="127">
+      <c r="CH15" s="123"/>
+      <c r="CI15" s="123"/>
+      <c r="CJ15" s="121">
         <f>CJ4</f>
         <v>27</v>
       </c>
-      <c r="CK15" s="128"/>
-      <c r="CL15" s="128"/>
-      <c r="CM15" s="127">
+      <c r="CK15" s="123"/>
+      <c r="CL15" s="123"/>
+      <c r="CM15" s="121">
         <f>CM4</f>
         <v>28</v>
       </c>
-      <c r="CN15" s="128"/>
-      <c r="CO15" s="128"/>
-      <c r="CP15" s="127">
+      <c r="CN15" s="123"/>
+      <c r="CO15" s="123"/>
+      <c r="CP15" s="121">
         <f>CP4</f>
         <v>29</v>
       </c>
-      <c r="CQ15" s="128"/>
-      <c r="CR15" s="128"/>
-      <c r="CS15" s="127">
+      <c r="CQ15" s="123"/>
+      <c r="CR15" s="123"/>
+      <c r="CS15" s="121">
         <f>CS4</f>
         <v>30</v>
       </c>
-      <c r="CT15" s="128"/>
-      <c r="CU15" s="128"/>
-      <c r="CV15" s="127">
+      <c r="CT15" s="123"/>
+      <c r="CU15" s="123"/>
+      <c r="CV15" s="121">
         <f>CV4</f>
         <v>31</v>
       </c>
-      <c r="CW15" s="128"/>
-      <c r="CX15" s="128"/>
-      <c r="CY15" s="127">
+      <c r="CW15" s="123"/>
+      <c r="CX15" s="123"/>
+      <c r="CY15" s="121">
         <f>CY4</f>
         <v>32</v>
       </c>
-      <c r="CZ15" s="128"/>
-      <c r="DA15" s="128"/>
-      <c r="DB15" s="127">
+      <c r="CZ15" s="123"/>
+      <c r="DA15" s="123"/>
+      <c r="DB15" s="121">
         <f>DB4</f>
         <v>33</v>
       </c>
-      <c r="DC15" s="128"/>
-      <c r="DD15" s="128"/>
-      <c r="DE15" s="127">
+      <c r="DC15" s="123"/>
+      <c r="DD15" s="123"/>
+      <c r="DE15" s="121">
         <f>DE4</f>
         <v>34</v>
       </c>
-      <c r="DF15" s="128"/>
-      <c r="DG15" s="128"/>
-      <c r="DH15" s="127">
+      <c r="DF15" s="123"/>
+      <c r="DG15" s="123"/>
+      <c r="DH15" s="121">
         <f>DH4</f>
         <v>35</v>
       </c>
-      <c r="DI15" s="128"/>
-      <c r="DJ15" s="128"/>
-      <c r="DK15" s="127">
+      <c r="DI15" s="123"/>
+      <c r="DJ15" s="123"/>
+      <c r="DK15" s="121">
         <f>DK4</f>
         <v>36</v>
       </c>
-      <c r="DL15" s="128"/>
-      <c r="DM15" s="128"/>
-      <c r="DN15" s="127">
+      <c r="DL15" s="123"/>
+      <c r="DM15" s="123"/>
+      <c r="DN15" s="121">
         <f>DN4</f>
         <v>37</v>
       </c>
-      <c r="DO15" s="128"/>
-      <c r="DP15" s="128"/>
-      <c r="DQ15" s="127">
+      <c r="DO15" s="123"/>
+      <c r="DP15" s="123"/>
+      <c r="DQ15" s="121">
         <f>DQ4</f>
         <v>38</v>
       </c>
-      <c r="DR15" s="128"/>
-      <c r="DS15" s="128"/>
-      <c r="DT15" s="127">
+      <c r="DR15" s="123"/>
+      <c r="DS15" s="123"/>
+      <c r="DT15" s="121">
         <f>DT4</f>
         <v>39</v>
       </c>
-      <c r="DU15" s="128"/>
-      <c r="DV15" s="128"/>
-      <c r="DW15" s="127">
+      <c r="DU15" s="123"/>
+      <c r="DV15" s="123"/>
+      <c r="DW15" s="121">
         <f>DW4</f>
         <v>40</v>
       </c>
-      <c r="DX15" s="128"/>
-      <c r="DY15" s="128"/>
-      <c r="DZ15" s="127">
+      <c r="DX15" s="123"/>
+      <c r="DY15" s="123"/>
+      <c r="DZ15" s="121">
         <f>DZ4</f>
         <v>41</v>
       </c>
-      <c r="EA15" s="128"/>
-      <c r="EB15" s="128"/>
-      <c r="EC15" s="127">
+      <c r="EA15" s="123"/>
+      <c r="EB15" s="123"/>
+      <c r="EC15" s="121">
         <f>EC4</f>
         <v>42</v>
       </c>
-      <c r="ED15" s="128"/>
-      <c r="EE15" s="128"/>
-      <c r="EF15" s="127">
+      <c r="ED15" s="123"/>
+      <c r="EE15" s="123"/>
+      <c r="EF15" s="121">
         <f>EF4</f>
         <v>43</v>
       </c>
-      <c r="EG15" s="128"/>
-      <c r="EH15" s="128"/>
-      <c r="EI15" s="127">
+      <c r="EG15" s="123"/>
+      <c r="EH15" s="123"/>
+      <c r="EI15" s="121">
         <f>EI4</f>
         <v>44</v>
       </c>
-      <c r="EJ15" s="128"/>
-      <c r="EK15" s="128"/>
-      <c r="EL15" s="127">
+      <c r="EJ15" s="123"/>
+      <c r="EK15" s="123"/>
+      <c r="EL15" s="121">
         <f>EL4</f>
         <v>45</v>
       </c>
-      <c r="EM15" s="128"/>
-      <c r="EN15" s="128"/>
-      <c r="EO15" s="127">
+      <c r="EM15" s="123"/>
+      <c r="EN15" s="123"/>
+      <c r="EO15" s="121">
         <f>EO4</f>
         <v>46</v>
       </c>
-      <c r="EP15" s="128"/>
-      <c r="EQ15" s="128"/>
-      <c r="ER15" s="127">
+      <c r="EP15" s="123"/>
+      <c r="EQ15" s="123"/>
+      <c r="ER15" s="121">
         <f>ER4</f>
         <v>47</v>
       </c>
-      <c r="ES15" s="128"/>
-      <c r="ET15" s="128"/>
-      <c r="EU15" s="127">
+      <c r="ES15" s="123"/>
+      <c r="ET15" s="123"/>
+      <c r="EU15" s="121">
         <f>EU4</f>
         <v>48</v>
       </c>
-      <c r="EV15" s="128"/>
-      <c r="EW15" s="128"/>
-      <c r="EX15" s="127">
+      <c r="EV15" s="123"/>
+      <c r="EW15" s="123"/>
+      <c r="EX15" s="121">
         <f>EX4</f>
         <v>49</v>
       </c>
-      <c r="EY15" s="128"/>
-      <c r="EZ15" s="128"/>
-      <c r="FA15" s="127">
+      <c r="EY15" s="123"/>
+      <c r="EZ15" s="123"/>
+      <c r="FA15" s="121">
         <f>FA4</f>
         <v>50</v>
       </c>
-      <c r="FB15" s="128"/>
-      <c r="FC15" s="128"/>
-      <c r="FD15" s="127">
+      <c r="FB15" s="123"/>
+      <c r="FC15" s="123"/>
+      <c r="FD15" s="121">
         <f>FD4</f>
         <v>51</v>
       </c>
-      <c r="FE15" s="128"/>
-      <c r="FF15" s="128"/>
-      <c r="FG15" s="127">
+      <c r="FE15" s="123"/>
+      <c r="FF15" s="123"/>
+      <c r="FG15" s="121">
         <f>FG4</f>
         <v>52</v>
       </c>
-      <c r="FH15" s="128"/>
-      <c r="FI15" s="128"/>
-      <c r="FJ15" s="127">
+      <c r="FH15" s="123"/>
+      <c r="FI15" s="123"/>
+      <c r="FJ15" s="121">
         <f>FJ4</f>
         <v>53</v>
       </c>
-      <c r="FK15" s="128"/>
-      <c r="FL15" s="128"/>
-      <c r="FM15" s="127">
+      <c r="FK15" s="123"/>
+      <c r="FL15" s="123"/>
+      <c r="FM15" s="121">
         <f>FM4</f>
         <v>54</v>
       </c>
-      <c r="FN15" s="128"/>
-      <c r="FO15" s="128"/>
-      <c r="FP15" s="127">
+      <c r="FN15" s="123"/>
+      <c r="FO15" s="123"/>
+      <c r="FP15" s="121">
         <f>FP4</f>
         <v>55</v>
       </c>
-      <c r="FQ15" s="128"/>
-      <c r="FR15" s="128"/>
-      <c r="FS15" s="127">
+      <c r="FQ15" s="123"/>
+      <c r="FR15" s="123"/>
+      <c r="FS15" s="121">
         <f>FS4</f>
         <v>56</v>
       </c>
-      <c r="FT15" s="128"/>
-      <c r="FU15" s="128"/>
-      <c r="FV15" s="127">
+      <c r="FT15" s="123"/>
+      <c r="FU15" s="123"/>
+      <c r="FV15" s="121">
         <f>FV4</f>
         <v>57</v>
       </c>
-      <c r="FW15" s="128"/>
-      <c r="FX15" s="128"/>
-      <c r="FY15" s="127">
+      <c r="FW15" s="123"/>
+      <c r="FX15" s="123"/>
+      <c r="FY15" s="121">
         <f>FY4</f>
         <v>58</v>
       </c>
-      <c r="FZ15" s="128"/>
-      <c r="GA15" s="128"/>
-      <c r="GB15" s="127">
+      <c r="FZ15" s="123"/>
+      <c r="GA15" s="123"/>
+      <c r="GB15" s="121">
         <f>GB4</f>
         <v>59</v>
       </c>
-      <c r="GC15" s="128"/>
-      <c r="GD15" s="128"/>
-      <c r="GE15" s="127">
+      <c r="GC15" s="123"/>
+      <c r="GD15" s="123"/>
+      <c r="GE15" s="121">
         <f>GE4</f>
         <v>60</v>
       </c>
-      <c r="GF15" s="128"/>
-      <c r="GG15" s="128"/>
-      <c r="GH15" s="127">
+      <c r="GF15" s="123"/>
+      <c r="GG15" s="123"/>
+      <c r="GH15" s="121">
         <f>GH4</f>
         <v>61</v>
       </c>
-      <c r="GI15" s="128"/>
-      <c r="GJ15" s="128"/>
-      <c r="GK15" s="127">
+      <c r="GI15" s="123"/>
+      <c r="GJ15" s="123"/>
+      <c r="GK15" s="121">
         <f>GK4</f>
         <v>62</v>
       </c>
-      <c r="GL15" s="128"/>
-      <c r="GM15" s="128"/>
-      <c r="GN15" s="127">
+      <c r="GL15" s="123"/>
+      <c r="GM15" s="123"/>
+      <c r="GN15" s="121">
         <f>GN4</f>
         <v>63</v>
       </c>
-      <c r="GO15" s="128"/>
-      <c r="GP15" s="128"/>
-      <c r="GQ15" s="127">
+      <c r="GO15" s="123"/>
+      <c r="GP15" s="123"/>
+      <c r="GQ15" s="121">
         <f>GQ4</f>
         <v>64</v>
       </c>
-      <c r="GR15" s="128"/>
-      <c r="GS15" s="129"/>
+      <c r="GR15" s="123"/>
+      <c r="GS15" s="122"/>
     </row>
     <row r="16" spans="2:201" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H16" s="23"/>
@@ -8827,10 +8827,10 @@
       </c>
     </row>
     <row r="21" spans="7:201" x14ac:dyDescent="0.2">
-      <c r="H21" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="129"/>
+      <c r="H21" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="122"/>
       <c r="J21" s="3" t="s">
         <v>10</v>
       </c>
@@ -9154,6 +9154,115 @@
     </row>
   </sheetData>
   <mergeCells count="133">
+    <mergeCell ref="FA4:FC4"/>
+    <mergeCell ref="FD4:FF4"/>
+    <mergeCell ref="FG4:FI4"/>
+    <mergeCell ref="FJ4:FL4"/>
+    <mergeCell ref="FM4:FO4"/>
+    <mergeCell ref="EL4:EN4"/>
+    <mergeCell ref="EO4:EQ4"/>
+    <mergeCell ref="ER4:ET4"/>
+    <mergeCell ref="EU4:EW4"/>
+    <mergeCell ref="EX4:EZ4"/>
+    <mergeCell ref="GQ4:GS4"/>
+    <mergeCell ref="FP4:FR4"/>
+    <mergeCell ref="FS4:FU4"/>
+    <mergeCell ref="FV4:FX4"/>
+    <mergeCell ref="FY4:GA4"/>
+    <mergeCell ref="GB4:GD4"/>
+    <mergeCell ref="GE4:GG4"/>
+    <mergeCell ref="GH4:GJ4"/>
+    <mergeCell ref="GK4:GM4"/>
+    <mergeCell ref="GN4:GP4"/>
+    <mergeCell ref="DB4:DD4"/>
+    <mergeCell ref="DE4:DG4"/>
+    <mergeCell ref="DZ4:EB4"/>
+    <mergeCell ref="EC4:EE4"/>
+    <mergeCell ref="EF4:EH4"/>
+    <mergeCell ref="EI4:EK4"/>
+    <mergeCell ref="DH4:DJ4"/>
+    <mergeCell ref="DK4:DM4"/>
+    <mergeCell ref="DN4:DP4"/>
+    <mergeCell ref="DQ4:DS4"/>
+    <mergeCell ref="DT4:DV4"/>
+    <mergeCell ref="DW4:DY4"/>
+    <mergeCell ref="CA4:CC4"/>
+    <mergeCell ref="CD4:CF4"/>
+    <mergeCell ref="CG4:CI4"/>
+    <mergeCell ref="CJ4:CL4"/>
+    <mergeCell ref="CM4:CO4"/>
+    <mergeCell ref="CP4:CR4"/>
+    <mergeCell ref="CS4:CU4"/>
+    <mergeCell ref="CV4:CX4"/>
+    <mergeCell ref="CY4:DA4"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="BC4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BK4"/>
+    <mergeCell ref="BL4:BN4"/>
+    <mergeCell ref="BO4:BQ4"/>
+    <mergeCell ref="BR4:BT4"/>
+    <mergeCell ref="BU4:BW4"/>
+    <mergeCell ref="BX4:BZ4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="AT4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="AN15:AP15"/>
+    <mergeCell ref="AQ15:AS15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="BI15:BK15"/>
+    <mergeCell ref="BL15:BN15"/>
+    <mergeCell ref="BO15:BQ15"/>
+    <mergeCell ref="BR15:BT15"/>
+    <mergeCell ref="BU15:BW15"/>
+    <mergeCell ref="AT15:AV15"/>
+    <mergeCell ref="AW15:AY15"/>
+    <mergeCell ref="AZ15:BB15"/>
+    <mergeCell ref="BC15:BE15"/>
+    <mergeCell ref="BF15:BH15"/>
+    <mergeCell ref="CM15:CO15"/>
+    <mergeCell ref="CP15:CR15"/>
+    <mergeCell ref="CS15:CU15"/>
+    <mergeCell ref="CV15:CX15"/>
+    <mergeCell ref="CY15:DA15"/>
+    <mergeCell ref="BX15:BZ15"/>
+    <mergeCell ref="CA15:CC15"/>
+    <mergeCell ref="CD15:CF15"/>
+    <mergeCell ref="CG15:CI15"/>
+    <mergeCell ref="CJ15:CL15"/>
+    <mergeCell ref="DT15:DV15"/>
+    <mergeCell ref="DW15:DY15"/>
+    <mergeCell ref="DZ15:EB15"/>
+    <mergeCell ref="EC15:EE15"/>
+    <mergeCell ref="DB15:DD15"/>
+    <mergeCell ref="DE15:DG15"/>
+    <mergeCell ref="DH15:DJ15"/>
+    <mergeCell ref="DK15:DM15"/>
+    <mergeCell ref="DN15:DP15"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="GN15:GP15"/>
     <mergeCell ref="GQ15:GS15"/>
@@ -9178,115 +9287,6 @@
     <mergeCell ref="EO15:EQ15"/>
     <mergeCell ref="ER15:ET15"/>
     <mergeCell ref="DQ15:DS15"/>
-    <mergeCell ref="DT15:DV15"/>
-    <mergeCell ref="DW15:DY15"/>
-    <mergeCell ref="DZ15:EB15"/>
-    <mergeCell ref="EC15:EE15"/>
-    <mergeCell ref="DB15:DD15"/>
-    <mergeCell ref="DE15:DG15"/>
-    <mergeCell ref="DH15:DJ15"/>
-    <mergeCell ref="DK15:DM15"/>
-    <mergeCell ref="DN15:DP15"/>
-    <mergeCell ref="CM15:CO15"/>
-    <mergeCell ref="CP15:CR15"/>
-    <mergeCell ref="CS15:CU15"/>
-    <mergeCell ref="CV15:CX15"/>
-    <mergeCell ref="CY15:DA15"/>
-    <mergeCell ref="BX15:BZ15"/>
-    <mergeCell ref="CA15:CC15"/>
-    <mergeCell ref="CD15:CF15"/>
-    <mergeCell ref="CG15:CI15"/>
-    <mergeCell ref="CJ15:CL15"/>
-    <mergeCell ref="BI15:BK15"/>
-    <mergeCell ref="BL15:BN15"/>
-    <mergeCell ref="BO15:BQ15"/>
-    <mergeCell ref="BR15:BT15"/>
-    <mergeCell ref="BU15:BW15"/>
-    <mergeCell ref="AT15:AV15"/>
-    <mergeCell ref="AW15:AY15"/>
-    <mergeCell ref="AZ15:BB15"/>
-    <mergeCell ref="BC15:BE15"/>
-    <mergeCell ref="BF15:BH15"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="AN15:AP15"/>
-    <mergeCell ref="AQ15:AS15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AQ4:AS4"/>
-    <mergeCell ref="AT4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="BC4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BK4"/>
-    <mergeCell ref="BL4:BN4"/>
-    <mergeCell ref="BO4:BQ4"/>
-    <mergeCell ref="BR4:BT4"/>
-    <mergeCell ref="BU4:BW4"/>
-    <mergeCell ref="BX4:BZ4"/>
-    <mergeCell ref="CA4:CC4"/>
-    <mergeCell ref="CD4:CF4"/>
-    <mergeCell ref="CG4:CI4"/>
-    <mergeCell ref="CJ4:CL4"/>
-    <mergeCell ref="CM4:CO4"/>
-    <mergeCell ref="CP4:CR4"/>
-    <mergeCell ref="CS4:CU4"/>
-    <mergeCell ref="CV4:CX4"/>
-    <mergeCell ref="CY4:DA4"/>
-    <mergeCell ref="DB4:DD4"/>
-    <mergeCell ref="DE4:DG4"/>
-    <mergeCell ref="DZ4:EB4"/>
-    <mergeCell ref="EC4:EE4"/>
-    <mergeCell ref="EF4:EH4"/>
-    <mergeCell ref="EI4:EK4"/>
-    <mergeCell ref="DH4:DJ4"/>
-    <mergeCell ref="DK4:DM4"/>
-    <mergeCell ref="DN4:DP4"/>
-    <mergeCell ref="DQ4:DS4"/>
-    <mergeCell ref="DT4:DV4"/>
-    <mergeCell ref="DW4:DY4"/>
-    <mergeCell ref="GQ4:GS4"/>
-    <mergeCell ref="FP4:FR4"/>
-    <mergeCell ref="FS4:FU4"/>
-    <mergeCell ref="FV4:FX4"/>
-    <mergeCell ref="FY4:GA4"/>
-    <mergeCell ref="GB4:GD4"/>
-    <mergeCell ref="GE4:GG4"/>
-    <mergeCell ref="GH4:GJ4"/>
-    <mergeCell ref="GK4:GM4"/>
-    <mergeCell ref="GN4:GP4"/>
-    <mergeCell ref="FA4:FC4"/>
-    <mergeCell ref="FD4:FF4"/>
-    <mergeCell ref="FG4:FI4"/>
-    <mergeCell ref="FJ4:FL4"/>
-    <mergeCell ref="FM4:FO4"/>
-    <mergeCell ref="EL4:EN4"/>
-    <mergeCell ref="EO4:EQ4"/>
-    <mergeCell ref="ER4:ET4"/>
-    <mergeCell ref="EU4:EW4"/>
-    <mergeCell ref="EX4:EZ4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J17:L20">
@@ -9947,7 +9947,7 @@
   <dimension ref="B1:GT21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="283" zoomScaleNormal="283" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9984,10 +9984,10 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="127" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="129"/>
+      <c r="H2" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="122"/>
       <c r="J2" s="25">
         <f>G2+1</f>
         <v>1</v>
@@ -10389,13 +10389,12 @@
       <c r="F3" s="96">
         <v>0.11700000000000001</v>
       </c>
-      <c r="H3" s="121" t="s">
+      <c r="H3" s="127" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="136"/>
       <c r="J3" s="111">
-        <f>Data!J5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="112">
         <f>Data!K5</f>
@@ -14730,15 +14729,15 @@
       <c r="I10" s="146"/>
       <c r="J10" s="65">
         <f>1/(1+EXP(-SUMPRODUCT(J3:L6,$D$3:$F$6)+$D$15))</f>
-        <v>0.7658456258197972</v>
+        <v>0.75583889909479707</v>
       </c>
       <c r="K10" s="66">
         <f>1/(1+EXP(-SUMPRODUCT(J3:L6,$D$7:$F$10)+$E$15))</f>
-        <v>0.92099911351520103</v>
+        <v>0.91497877989441434</v>
       </c>
       <c r="L10" s="66">
         <f>1/(1+EXP(-SUMPRODUCT(J3:L6,$D$11:$F$14)+$F$15))</f>
-        <v>0.96789152481148033</v>
+        <v>0.91743531277686108</v>
       </c>
       <c r="M10" s="65">
         <f>1/(1+EXP(-SUMPRODUCT(M3:O6,$D$3:$F$6)+$D$15))</f>
@@ -15515,15 +15514,15 @@
       <c r="I11" s="19"/>
       <c r="J11" s="39">
         <f>SUMPRODUCT(J3:L6,$D$3:$F$6)</f>
-        <v>2.1540000000000004</v>
+        <v>2.0990000000000002</v>
       </c>
       <c r="K11" s="39">
         <f>SUMPRODUCT(J3:L6,$D$7:$F$10)</f>
-        <v>3.3729999999999998</v>
+        <v>3.2929999999999997</v>
       </c>
       <c r="L11" s="39">
         <f>SUMPRODUCT(J3:L6,$D$11:$F$14)</f>
-        <v>4.3470000000000004</v>
+        <v>3.3489999999999998</v>
       </c>
       <c r="M11" s="39"/>
       <c r="N11" s="18"/>
@@ -16837,11 +16836,11 @@
       <c r="I17" s="146"/>
       <c r="J17" s="102">
         <f>1/(1+EXP(-SUMPRODUCT($D$16:$F$16,J10:L10)+$D$18))</f>
-        <v>0.51243284239605658</v>
+        <v>0.50982268821305909</v>
       </c>
       <c r="K17" s="102">
         <f>1/(1+EXP(-SUMPRODUCT($D$17:$F$17,J10:L10)+$E$18))</f>
-        <v>0.67345979259945399</v>
+        <v>0.66170608392083874</v>
       </c>
       <c r="L17" s="65"/>
       <c r="M17" s="67">
@@ -17951,12 +17950,12 @@
       </c>
       <c r="F20" s="83">
         <f>SUM(J20:GS20)</f>
-        <v>31.19400531292812</v>
+        <v>31.180864225994554</v>
       </c>
       <c r="I20" s="84"/>
       <c r="J20" s="120">
         <f>SUMXMY2(J7:K7,J17:K17)</f>
-        <v>0.69126982542208815</v>
+        <v>0.67812873848852395</v>
       </c>
       <c r="L20" s="84"/>
       <c r="M20" s="85">
@@ -18434,7 +18433,7 @@
   <dimension ref="B1:GT26"/>
   <sheetViews>
     <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="D3" sqref="D3:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18471,10 +18470,10 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="127" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="129"/>
+      <c r="H2" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="122"/>
       <c r="J2" s="25">
         <f>G2+1</f>
         <v>1</v>
@@ -18876,7 +18875,7 @@
       <c r="F3" s="73">
         <v>0.92489802724863956</v>
       </c>
-      <c r="H3" s="121" t="s">
+      <c r="H3" s="127" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="136"/>
@@ -28260,6 +28259,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B3:B15"/>
     <mergeCell ref="C3:C6"/>
@@ -28269,11 +28273,6 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C11:C14"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29009,12 +29008,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -29026,6 +29019,12 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C11:C14"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="N3:P6">
